--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>989</v>
+        <v>991.9</v>
       </c>
       <c r="C2" t="n">
-        <v>984.3</v>
+        <v>991.9</v>
       </c>
       <c r="D2" t="n">
-        <v>989</v>
+        <v>991.9</v>
       </c>
       <c r="E2" t="n">
-        <v>984.3</v>
+        <v>991.9</v>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>14.8554</v>
       </c>
       <c r="G2" t="n">
-        <v>992.7833333333335</v>
+        <v>992.7450000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981.3</v>
+        <v>989</v>
       </c>
       <c r="C3" t="n">
-        <v>971</v>
+        <v>984.3</v>
       </c>
       <c r="D3" t="n">
-        <v>981.3</v>
+        <v>989</v>
       </c>
       <c r="E3" t="n">
-        <v>971</v>
+        <v>984.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2462.371</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>992.5833333333336</v>
+        <v>992.7833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985</v>
+        <v>981.3</v>
       </c>
       <c r="C4" t="n">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="D4" t="n">
-        <v>985</v>
+        <v>981.3</v>
       </c>
       <c r="E4" t="n">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="F4" t="n">
-        <v>44.2788</v>
+        <v>2462.371</v>
       </c>
       <c r="G4" t="n">
-        <v>992.6166666666669</v>
+        <v>992.5833333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>985</v>
       </c>
       <c r="F5" t="n">
-        <v>205</v>
+        <v>44.2788</v>
       </c>
       <c r="G5" t="n">
-        <v>992.6500000000002</v>
+        <v>992.6166666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C6" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D6" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E6" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F6" t="n">
-        <v>2049.2213</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>992.7500000000002</v>
+        <v>992.6500000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C7" t="n">
         <v>990</v>
@@ -617,13 +617,13 @@
         <v>990</v>
       </c>
       <c r="E7" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F7" t="n">
-        <v>4570</v>
+        <v>2049.2213</v>
       </c>
       <c r="G7" t="n">
-        <v>992.8500000000003</v>
+        <v>992.7500000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,28 +646,32 @@
         <v>990</v>
       </c>
       <c r="C8" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D8" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E8" t="n">
         <v>990</v>
       </c>
       <c r="F8" t="n">
-        <v>2355</v>
+        <v>4570</v>
       </c>
       <c r="G8" t="n">
-        <v>992.9666666666669</v>
+        <v>992.8500000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>990</v>
+      </c>
+      <c r="K8" t="n">
+        <v>990</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -678,22 +682,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>992.9</v>
+        <v>990</v>
       </c>
       <c r="C9" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D9" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E9" t="n">
-        <v>992.9</v>
+        <v>990</v>
       </c>
       <c r="F9" t="n">
-        <v>1475.9563</v>
+        <v>2355</v>
       </c>
       <c r="G9" t="n">
-        <v>993.1166666666669</v>
+        <v>992.9666666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,8 +706,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>990</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,32 +723,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="C10" t="n">
         <v>994</v>
       </c>
-      <c r="C10" t="n">
-        <v>995</v>
-      </c>
       <c r="D10" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E10" t="n">
-        <v>994</v>
+        <v>992.9</v>
       </c>
       <c r="F10" t="n">
-        <v>541</v>
+        <v>1475.9563</v>
       </c>
       <c r="G10" t="n">
-        <v>993.3500000000003</v>
+        <v>993.1166666666669</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>992</v>
+      </c>
+      <c r="K10" t="n">
+        <v>990</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,32 +766,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C11" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D11" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E11" t="n">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F11" t="n">
-        <v>1172.4495</v>
+        <v>541</v>
       </c>
       <c r="G11" t="n">
-        <v>993.6666666666669</v>
+        <v>993.3500000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>994</v>
+      </c>
+      <c r="K11" t="n">
+        <v>990</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,32 +809,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C12" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D12" t="n">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F12" t="n">
-        <v>1040</v>
+        <v>1172.4495</v>
       </c>
       <c r="G12" t="n">
-        <v>993.9716666666669</v>
+        <v>993.6666666666669</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>995</v>
+      </c>
+      <c r="K12" t="n">
+        <v>990</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C13" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D13" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="E13" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F13" t="n">
-        <v>2578.8871</v>
+        <v>1040</v>
       </c>
       <c r="G13" t="n">
-        <v>994.371666666667</v>
+        <v>993.9716666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,8 +876,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>990</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +893,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C14" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D14" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E14" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>2578.8871</v>
       </c>
       <c r="G14" t="n">
-        <v>994.7383333333336</v>
+        <v>994.371666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +917,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>990</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +934,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C15" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E15" t="n">
         <v>1009</v>
       </c>
       <c r="F15" t="n">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>995.121666666667</v>
+        <v>994.7383333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +958,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>990</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +975,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C16" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D16" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E16" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F16" t="n">
-        <v>2413.3986</v>
+        <v>201</v>
       </c>
       <c r="G16" t="n">
-        <v>995.5383333333336</v>
+        <v>995.121666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +999,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>990</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1016,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="C17" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D17" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E17" t="n">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F17" t="n">
-        <v>535</v>
+        <v>2413.3986</v>
       </c>
       <c r="G17" t="n">
-        <v>995.9233333333336</v>
+        <v>995.5383333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1040,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>990</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -996,19 +1060,19 @@
         <v>1017</v>
       </c>
       <c r="C18" t="n">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="D18" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E18" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F18" t="n">
-        <v>1282</v>
+        <v>535</v>
       </c>
       <c r="G18" t="n">
-        <v>996.2400000000002</v>
+        <v>995.9233333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1081,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>990</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1098,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D19" t="n">
         <v>1019</v>
       </c>
-      <c r="C19" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1020</v>
-      </c>
       <c r="E19" t="n">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F19" t="n">
-        <v>606.0351000000001</v>
+        <v>1282</v>
       </c>
       <c r="G19" t="n">
-        <v>996.6400000000002</v>
+        <v>996.2400000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1122,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>990</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1139,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C20" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="D20" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E20" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="F20" t="n">
-        <v>1682.6967</v>
+        <v>606.0351000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>996.7900000000003</v>
+        <v>996.6400000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1163,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>990</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,34 +1180,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C21" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D21" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E21" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F21" t="n">
-        <v>2801.49980743</v>
+        <v>1682.6967</v>
       </c>
       <c r="G21" t="n">
-        <v>996.9566666666669</v>
+        <v>996.7900000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>990</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>1.010151515151515</v>
       </c>
     </row>
     <row r="22">
@@ -1133,28 +1221,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C22" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="D22" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="E22" t="n">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="F22" t="n">
-        <v>665</v>
+        <v>2801.49980743</v>
       </c>
       <c r="G22" t="n">
-        <v>997.4233333333336</v>
+        <v>996.9566666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C23" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D23" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E23" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F23" t="n">
-        <v>275</v>
+        <v>665</v>
       </c>
       <c r="G23" t="n">
-        <v>997.906666666667</v>
+        <v>997.4233333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1303,10 @@
         <v>1025</v>
       </c>
       <c r="F24" t="n">
-        <v>1163.55707317</v>
+        <v>275</v>
       </c>
       <c r="G24" t="n">
-        <v>998.4233333333336</v>
+        <v>997.906666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1326,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="C25" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D25" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="E25" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="F25" t="n">
-        <v>57.4</v>
+        <v>1163.55707317</v>
       </c>
       <c r="G25" t="n">
-        <v>998.8233333333336</v>
+        <v>998.4233333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1361,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C26" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="D26" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E26" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="F26" t="n">
-        <v>1034.5657</v>
+        <v>57.4</v>
       </c>
       <c r="G26" t="n">
-        <v>999.1733333333336</v>
+        <v>998.8233333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1396,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C27" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D27" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="E27" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F27" t="n">
-        <v>1268.7949</v>
+        <v>1034.5657</v>
       </c>
       <c r="G27" t="n">
-        <v>999.5233333333337</v>
+        <v>999.1733333333336</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1431,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C28" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D28" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E28" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F28" t="n">
-        <v>34.5</v>
+        <v>1268.7949</v>
       </c>
       <c r="G28" t="n">
-        <v>999.9233333333336</v>
+        <v>999.5233333333337</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1466,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C29" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D29" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E29" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>34.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1000.373333333334</v>
+        <v>999.9233333333336</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1501,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="C30" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="D30" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="E30" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F30" t="n">
-        <v>905</v>
+        <v>50</v>
       </c>
       <c r="G30" t="n">
-        <v>1000.94</v>
+        <v>1000.373333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1548,10 @@
         <v>1025</v>
       </c>
       <c r="F31" t="n">
-        <v>97.1665</v>
+        <v>905</v>
       </c>
       <c r="G31" t="n">
-        <v>1001.506666666667</v>
+        <v>1000.94</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1492,13 +1580,13 @@
         <v>1025</v>
       </c>
       <c r="E32" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F32" t="n">
-        <v>1283.75242683</v>
+        <v>97.1665</v>
       </c>
       <c r="G32" t="n">
-        <v>1002.073333333334</v>
+        <v>1001.506666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1606,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C33" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="D33" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E33" t="n">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="F33" t="n">
-        <v>1955.9664</v>
+        <v>1283.75242683</v>
       </c>
       <c r="G33" t="n">
-        <v>1002.673333333334</v>
+        <v>1002.073333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1641,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C34" t="n">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D34" t="n">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E34" t="n">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F34" t="n">
-        <v>5115.0587</v>
+        <v>1955.9664</v>
       </c>
       <c r="G34" t="n">
-        <v>1003.306666666667</v>
+        <v>1002.673333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1676,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C35" t="n">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="D35" t="n">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E35" t="n">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="F35" t="n">
-        <v>19148.2715</v>
+        <v>5115.0587</v>
       </c>
       <c r="G35" t="n">
-        <v>1003.873333333334</v>
+        <v>1003.306666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,28 +1711,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C36" t="n">
         <v>1029</v>
       </c>
-      <c r="C36" t="n">
-        <v>1034</v>
-      </c>
       <c r="D36" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E36" t="n">
         <v>1029</v>
       </c>
       <c r="F36" t="n">
-        <v>258.536</v>
+        <v>19148.2715</v>
       </c>
       <c r="G36" t="n">
-        <v>1004.506666666667</v>
+        <v>1003.873333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1658,28 +1746,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C37" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D37" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E37" t="n">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F37" t="n">
-        <v>2024.0154</v>
+        <v>258.536</v>
       </c>
       <c r="G37" t="n">
-        <v>1005.14</v>
+        <v>1004.506666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1693,22 +1781,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C38" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D38" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E38" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F38" t="n">
-        <v>3059.0221</v>
+        <v>2024.0154</v>
       </c>
       <c r="G38" t="n">
-        <v>1005.773333333334</v>
+        <v>1005.14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1816,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C39" t="n">
         <v>1036</v>
@@ -1737,13 +1825,13 @@
         <v>1036</v>
       </c>
       <c r="E39" t="n">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F39" t="n">
-        <v>2939.2952</v>
+        <v>3059.0221</v>
       </c>
       <c r="G39" t="n">
-        <v>1006.406666666667</v>
+        <v>1005.773333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1851,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C40" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D40" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E40" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F40" t="n">
-        <v>394.1924</v>
+        <v>2939.2952</v>
       </c>
       <c r="G40" t="n">
-        <v>1007.023333333334</v>
+        <v>1006.406666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1886,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C41" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D41" t="n">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E41" t="n">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="F41" t="n">
-        <v>4575.6693</v>
+        <v>394.1924</v>
       </c>
       <c r="G41" t="n">
-        <v>1007.573333333334</v>
+        <v>1007.023333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1921,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C42" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D42" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E42" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F42" t="n">
-        <v>3.4648</v>
+        <v>4575.6693</v>
       </c>
       <c r="G42" t="n">
-        <v>1008.09</v>
+        <v>1007.573333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1959,19 @@
         <v>1030</v>
       </c>
       <c r="C43" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D43" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E43" t="n">
         <v>1030</v>
       </c>
       <c r="F43" t="n">
-        <v>1233.4562</v>
+        <v>3.4648</v>
       </c>
       <c r="G43" t="n">
-        <v>1008.69</v>
+        <v>1008.09</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1991,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C44" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D44" t="n">
         <v>1035</v>
@@ -1915,10 +2003,10 @@
         <v>1030</v>
       </c>
       <c r="F44" t="n">
-        <v>965.172</v>
+        <v>1233.4562</v>
       </c>
       <c r="G44" t="n">
-        <v>1009.106666666667</v>
+        <v>1008.69</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +2026,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C45" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D45" t="n">
         <v>1035</v>
       </c>
       <c r="E45" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F45" t="n">
-        <v>92.2325</v>
+        <v>965.172</v>
       </c>
       <c r="G45" t="n">
-        <v>1009.606666666667</v>
+        <v>1009.106666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +2064,19 @@
         <v>1035</v>
       </c>
       <c r="C46" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D46" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E46" t="n">
         <v>1035</v>
       </c>
       <c r="F46" t="n">
-        <v>1737.3294</v>
+        <v>92.2325</v>
       </c>
       <c r="G46" t="n">
-        <v>1010.04</v>
+        <v>1009.606666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,7 +2096,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C47" t="n">
         <v>1036</v>
@@ -2017,13 +2105,13 @@
         <v>1036</v>
       </c>
       <c r="E47" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F47" t="n">
-        <v>20.0669</v>
+        <v>1737.3294</v>
       </c>
       <c r="G47" t="n">
-        <v>1010.556666666667</v>
+        <v>1010.04</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2131,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C48" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D48" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E48" t="n">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F48" t="n">
-        <v>2096.9945</v>
+        <v>20.0669</v>
       </c>
       <c r="G48" t="n">
-        <v>1011.04</v>
+        <v>1010.556666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2166,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C49" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D49" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E49" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F49" t="n">
-        <v>3499.1938</v>
+        <v>2096.9945</v>
       </c>
       <c r="G49" t="n">
-        <v>1011.59</v>
+        <v>1011.04</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2201,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C50" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D50" t="n">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E50" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F50" t="n">
-        <v>1724.8801</v>
+        <v>3499.1938</v>
       </c>
       <c r="G50" t="n">
-        <v>1012.355</v>
+        <v>1011.59</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2239,19 @@
         <v>1039</v>
       </c>
       <c r="C51" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D51" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E51" t="n">
         <v>1039</v>
       </c>
-      <c r="E51" t="n">
-        <v>1034</v>
-      </c>
       <c r="F51" t="n">
-        <v>1090.5</v>
+        <v>1724.8801</v>
       </c>
       <c r="G51" t="n">
-        <v>1013.083333333334</v>
+        <v>1012.355</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C52" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D52" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E52" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F52" t="n">
-        <v>5378.0515</v>
+        <v>1090.5</v>
       </c>
       <c r="G52" t="n">
-        <v>1013.87</v>
+        <v>1013.083333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2306,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="C53" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D53" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E53" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>5378.0515</v>
       </c>
       <c r="G53" t="n">
-        <v>1014.623333333333</v>
+        <v>1013.87</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2353,10 @@
         <v>1034</v>
       </c>
       <c r="F54" t="n">
-        <v>119.2543</v>
+        <v>50</v>
       </c>
       <c r="G54" t="n">
-        <v>1015.276666666667</v>
+        <v>1014.623333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2376,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C55" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D55" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E55" t="n">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F55" t="n">
-        <v>892.5632000000001</v>
+        <v>119.2543</v>
       </c>
       <c r="G55" t="n">
-        <v>1016.2</v>
+        <v>1015.276666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2414,19 @@
         <v>1036</v>
       </c>
       <c r="C56" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D56" t="n">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E56" t="n">
         <v>1036</v>
       </c>
       <c r="F56" t="n">
-        <v>2277.5145</v>
+        <v>892.5632000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>1017.016666666667</v>
+        <v>1016.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2446,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C57" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D57" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E57" t="n">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F57" t="n">
-        <v>3330.6098</v>
+        <v>2277.5145</v>
       </c>
       <c r="G57" t="n">
-        <v>1017.85</v>
+        <v>1017.016666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2481,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="C58" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="D58" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="E58" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="F58" t="n">
-        <v>25</v>
+        <v>3330.6098</v>
       </c>
       <c r="G58" t="n">
-        <v>1018.52</v>
+        <v>1017.85</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2516,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C59" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D59" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E59" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="F59" t="n">
-        <v>10164.5984</v>
+        <v>25</v>
       </c>
       <c r="G59" t="n">
-        <v>1019.09</v>
+        <v>1018.52</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2551,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="C60" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="D60" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E60" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="F60" t="n">
-        <v>18276.9339</v>
+        <v>10164.5984</v>
       </c>
       <c r="G60" t="n">
-        <v>1019.52</v>
+        <v>1019.09</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2586,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="C61" t="n">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="D61" t="n">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="E61" t="n">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="F61" t="n">
-        <v>1269.9883</v>
+        <v>18276.9339</v>
       </c>
       <c r="G61" t="n">
-        <v>1019.988333333333</v>
+        <v>1019.52</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2621,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C62" t="n">
         <v>1020</v>
       </c>
       <c r="D62" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E62" t="n">
         <v>1020</v>
       </c>
       <c r="F62" t="n">
-        <v>90.65219999999999</v>
+        <v>1269.9883</v>
       </c>
       <c r="G62" t="n">
-        <v>1020.583333333333</v>
+        <v>1019.988333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2668,10 @@
         <v>1020</v>
       </c>
       <c r="F63" t="n">
-        <v>507.5019</v>
+        <v>90.65219999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>1021.4</v>
+        <v>1020.583333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2703,10 @@
         <v>1020</v>
       </c>
       <c r="F64" t="n">
-        <v>732.9083000000001</v>
+        <v>507.5019</v>
       </c>
       <c r="G64" t="n">
-        <v>1021.983333333333</v>
+        <v>1021.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,31 +2726,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C65" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D65" t="n">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E65" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F65" t="n">
-        <v>263.1516</v>
+        <v>732.9083000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>1022.6</v>
+        <v>1021.983333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1020</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2673,32 +2765,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C66" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D66" t="n">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="E66" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F66" t="n">
-        <v>2395</v>
+        <v>263.1516</v>
       </c>
       <c r="G66" t="n">
-        <v>1023.1</v>
+        <v>1022.6</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,32 +2808,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C67" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D67" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E67" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F67" t="n">
-        <v>170.3627</v>
+        <v>2395</v>
       </c>
       <c r="G67" t="n">
-        <v>1023.583333333333</v>
+        <v>1023.1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1022</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2851,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C68" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="D68" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E68" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F68" t="n">
-        <v>3187.4814</v>
+        <v>170.3627</v>
       </c>
       <c r="G68" t="n">
-        <v>1024</v>
+        <v>1023.583333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2875,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2892,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C69" t="n">
         <v>1017</v>
       </c>
-      <c r="C69" t="n">
-        <v>1015</v>
-      </c>
       <c r="D69" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E69" t="n">
         <v>1017</v>
       </c>
-      <c r="E69" t="n">
-        <v>1015</v>
-      </c>
       <c r="F69" t="n">
-        <v>770.8599</v>
+        <v>3187.4814</v>
       </c>
       <c r="G69" t="n">
-        <v>1024.35</v>
+        <v>1024</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2916,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +2945,10 @@
         <v>1015</v>
       </c>
       <c r="F70" t="n">
-        <v>3012.1444</v>
+        <v>770.8599</v>
       </c>
       <c r="G70" t="n">
-        <v>1024.683333333333</v>
+        <v>1024.35</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2957,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2974,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C71" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D71" t="n">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E71" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F71" t="n">
-        <v>35.5584</v>
+        <v>3012.1444</v>
       </c>
       <c r="G71" t="n">
-        <v>1025.066666666667</v>
+        <v>1024.683333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2998,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +3018,19 @@
         <v>1023</v>
       </c>
       <c r="C72" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D72" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E72" t="n">
         <v>1023</v>
       </c>
       <c r="F72" t="n">
-        <v>163.0345</v>
+        <v>35.5584</v>
       </c>
       <c r="G72" t="n">
-        <v>1025.416666666667</v>
+        <v>1025.066666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3039,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3056,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C73" t="n">
         <v>1024</v>
       </c>
       <c r="D73" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E73" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F73" t="n">
-        <v>210.2234</v>
+        <v>163.0345</v>
       </c>
       <c r="G73" t="n">
-        <v>1025.65</v>
+        <v>1025.416666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2959,16 +3103,16 @@
         <v>1024</v>
       </c>
       <c r="D74" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E74" t="n">
         <v>1024</v>
       </c>
       <c r="F74" t="n">
-        <v>2689.6716</v>
+        <v>210.2234</v>
       </c>
       <c r="G74" t="n">
-        <v>1025.9</v>
+        <v>1025.65</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3121,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3138,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C75" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="D75" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E75" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F75" t="n">
-        <v>1846.436</v>
+        <v>2689.6716</v>
       </c>
       <c r="G75" t="n">
-        <v>1026.083333333333</v>
+        <v>1025.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3179,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C76" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="D76" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E76" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F76" t="n">
-        <v>1163.557</v>
+        <v>1846.436</v>
       </c>
       <c r="G76" t="n">
-        <v>1026.166666666667</v>
+        <v>1026.083333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3203,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3223,19 @@
         <v>1021</v>
       </c>
       <c r="C77" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D77" t="n">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E77" t="n">
         <v>1020</v>
       </c>
       <c r="F77" t="n">
-        <v>3010.5</v>
+        <v>1163.557</v>
       </c>
       <c r="G77" t="n">
-        <v>1026.283333333333</v>
+        <v>1026.166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3264,19 @@
         <v>1021</v>
       </c>
       <c r="C78" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="D78" t="n">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E78" t="n">
         <v>1020</v>
       </c>
       <c r="F78" t="n">
-        <v>6511.967</v>
+        <v>3010.5</v>
       </c>
       <c r="G78" t="n">
-        <v>1026.4</v>
+        <v>1026.283333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3131,19 +3305,19 @@
         <v>1021</v>
       </c>
       <c r="C79" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D79" t="n">
         <v>1021</v>
       </c>
       <c r="E79" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F79" t="n">
-        <v>253.7942</v>
+        <v>6511.967</v>
       </c>
       <c r="G79" t="n">
-        <v>1026.416666666667</v>
+        <v>1026.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3326,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3346,19 @@
         <v>1021</v>
       </c>
       <c r="C80" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D80" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E80" t="n">
         <v>1021</v>
       </c>
       <c r="F80" t="n">
-        <v>1057.1379</v>
+        <v>253.7942</v>
       </c>
       <c r="G80" t="n">
-        <v>1026.766666666667</v>
+        <v>1026.416666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3367,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3384,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C81" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D81" t="n">
         <v>1027</v>
       </c>
       <c r="E81" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F81" t="n">
-        <v>381.2843</v>
+        <v>1057.1379</v>
       </c>
       <c r="G81" t="n">
-        <v>1027.116666666667</v>
+        <v>1026.766666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3408,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3425,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C82" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="D82" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E82" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="F82" t="n">
-        <v>45.5</v>
+        <v>381.2843</v>
       </c>
       <c r="G82" t="n">
-        <v>1027.066666666667</v>
+        <v>1027.116666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3449,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3466,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C83" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D83" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E83" t="n">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F83" t="n">
-        <v>3195.8729</v>
+        <v>45.5</v>
       </c>
       <c r="G83" t="n">
-        <v>1027.1</v>
+        <v>1027.066666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3490,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3507,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="C84" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="D84" t="n">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E84" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="F84" t="n">
-        <v>3.1225</v>
+        <v>3195.8729</v>
       </c>
       <c r="G84" t="n">
-        <v>1027.033333333333</v>
+        <v>1027.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3531,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3548,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C85" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D85" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E85" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F85" t="n">
-        <v>1573.3841</v>
+        <v>3.1225</v>
       </c>
       <c r="G85" t="n">
-        <v>1027.066666666667</v>
+        <v>1027.033333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3376,19 +3592,19 @@
         <v>1020</v>
       </c>
       <c r="C86" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D86" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E86" t="n">
         <v>1020</v>
       </c>
       <c r="F86" t="n">
-        <v>860</v>
+        <v>1573.3841</v>
       </c>
       <c r="G86" t="n">
-        <v>1027.233333333333</v>
+        <v>1027.066666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3630,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C87" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D87" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E87" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F87" t="n">
-        <v>3500</v>
+        <v>860</v>
       </c>
       <c r="G87" t="n">
-        <v>1027.5</v>
+        <v>1027.233333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3671,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C88" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="D88" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="E88" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="F88" t="n">
-        <v>1695</v>
+        <v>3500</v>
       </c>
       <c r="G88" t="n">
-        <v>1027.633333333333</v>
+        <v>1027.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,19 +3712,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C89" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D89" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E89" t="n">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="F89" t="n">
-        <v>4295.769</v>
+        <v>1695</v>
       </c>
       <c r="G89" t="n">
         <v>1027.633333333333</v>
@@ -3502,8 +3736,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3516,19 +3756,19 @@
         <v>1019</v>
       </c>
       <c r="C90" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D90" t="n">
         <v>1019</v>
       </c>
       <c r="E90" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F90" t="n">
-        <v>1159.1542</v>
+        <v>4295.769</v>
       </c>
       <c r="G90" t="n">
-        <v>1027.533333333333</v>
+        <v>1027.633333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3777,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3794,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C91" t="n">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D91" t="n">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E91" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F91" t="n">
-        <v>2681.7969</v>
+        <v>1159.1542</v>
       </c>
       <c r="G91" t="n">
-        <v>1027.516666666667</v>
+        <v>1027.533333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3835,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C92" t="n">
         <v>1024</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1019</v>
       </c>
       <c r="D92" t="n">
         <v>1024</v>
       </c>
       <c r="E92" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F92" t="n">
-        <v>2925.0743</v>
+        <v>2681.7969</v>
       </c>
       <c r="G92" t="n">
-        <v>1027.416666666667</v>
+        <v>1027.516666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3859,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3876,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C93" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D93" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E93" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F93" t="n">
-        <v>1834.6999</v>
+        <v>2925.0743</v>
       </c>
       <c r="G93" t="n">
-        <v>1027.25</v>
+        <v>1027.416666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +3920,19 @@
         <v>1018</v>
       </c>
       <c r="C94" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D94" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E94" t="n">
         <v>1018</v>
       </c>
       <c r="F94" t="n">
-        <v>179.1963</v>
+        <v>1834.6999</v>
       </c>
       <c r="G94" t="n">
-        <v>1027</v>
+        <v>1027.25</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3958,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C95" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D95" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E95" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="F95" t="n">
-        <v>14.4695</v>
+        <v>179.1963</v>
       </c>
       <c r="G95" t="n">
-        <v>1026.783333333333</v>
+        <v>1027</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3999,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C96" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="D96" t="n">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E96" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F96" t="n">
-        <v>210</v>
+        <v>14.4695</v>
       </c>
       <c r="G96" t="n">
-        <v>1026.416666666667</v>
+        <v>1026.783333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4023,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +4040,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C97" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D97" t="n">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="E97" t="n">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F97" t="n">
-        <v>4554.7632</v>
+        <v>210</v>
       </c>
       <c r="G97" t="n">
-        <v>1025.933333333333</v>
+        <v>1026.416666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4081,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C98" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D98" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E98" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F98" t="n">
-        <v>293.3841</v>
+        <v>4554.7632</v>
       </c>
       <c r="G98" t="n">
-        <v>1025.4</v>
+        <v>1025.933333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4122,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C99" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D99" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E99" t="n">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F99" t="n">
-        <v>188.5549</v>
+        <v>293.3841</v>
       </c>
       <c r="G99" t="n">
-        <v>1024.95</v>
+        <v>1025.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4146,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +4166,19 @@
         <v>1009</v>
       </c>
       <c r="C100" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D100" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E100" t="n">
         <v>1009</v>
       </c>
       <c r="F100" t="n">
-        <v>97.05346534</v>
+        <v>188.5549</v>
       </c>
       <c r="G100" t="n">
-        <v>1024.533333333333</v>
+        <v>1024.95</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4207,19 @@
         <v>1009</v>
       </c>
       <c r="C101" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D101" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E101" t="n">
         <v>1009</v>
       </c>
       <c r="F101" t="n">
-        <v>1.6</v>
+        <v>97.05346534</v>
       </c>
       <c r="G101" t="n">
-        <v>1024.15</v>
+        <v>1024.533333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3936,19 +4248,19 @@
         <v>1009</v>
       </c>
       <c r="C102" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D102" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E102" t="n">
         <v>1009</v>
       </c>
       <c r="F102" t="n">
-        <v>5152.5455</v>
+        <v>1.6</v>
       </c>
       <c r="G102" t="n">
-        <v>1023.833333333333</v>
+        <v>1024.15</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4269,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +4286,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C103" t="n">
         <v>1011</v>
@@ -3977,13 +4295,13 @@
         <v>1011</v>
       </c>
       <c r="E103" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F103" t="n">
-        <v>1200</v>
+        <v>5152.5455</v>
       </c>
       <c r="G103" t="n">
-        <v>1023.433333333333</v>
+        <v>1023.833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4339,10 @@
         <v>1011</v>
       </c>
       <c r="F104" t="n">
-        <v>3260.134</v>
+        <v>1200</v>
       </c>
       <c r="G104" t="n">
-        <v>1023.116666666667</v>
+        <v>1023.433333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4044,16 +4374,16 @@
         <v>1011</v>
       </c>
       <c r="D105" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E105" t="n">
         <v>1011</v>
       </c>
       <c r="F105" t="n">
-        <v>8684.8282</v>
+        <v>3260.134</v>
       </c>
       <c r="G105" t="n">
-        <v>1022.716666666667</v>
+        <v>1023.116666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4392,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4079,16 +4415,16 @@
         <v>1011</v>
       </c>
       <c r="D106" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E106" t="n">
         <v>1011</v>
       </c>
       <c r="F106" t="n">
-        <v>1194.2687</v>
+        <v>8684.8282</v>
       </c>
       <c r="G106" t="n">
-        <v>1022.3</v>
+        <v>1022.716666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4450,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C107" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D107" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E107" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="F107" t="n">
-        <v>2929.4322</v>
+        <v>1194.2687</v>
       </c>
       <c r="G107" t="n">
-        <v>1021.783333333333</v>
+        <v>1022.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4491,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C108" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D108" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E108" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F108" t="n">
-        <v>418.8232</v>
+        <v>2929.4322</v>
       </c>
       <c r="G108" t="n">
-        <v>1021.283333333333</v>
+        <v>1021.783333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4515,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4532,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C109" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="D109" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E109" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F109" t="n">
-        <v>234.9437</v>
+        <v>418.8232</v>
       </c>
       <c r="G109" t="n">
-        <v>1020.75</v>
+        <v>1021.283333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4556,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4573,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C110" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D110" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E110" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F110" t="n">
-        <v>925.8382</v>
+        <v>234.9437</v>
       </c>
       <c r="G110" t="n">
-        <v>1020.233333333333</v>
+        <v>1020.75</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4597,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4251,19 +4617,19 @@
         <v>1008</v>
       </c>
       <c r="C111" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D111" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E111" t="n">
         <v>1008</v>
       </c>
       <c r="F111" t="n">
-        <v>1913.4057</v>
+        <v>925.8382</v>
       </c>
       <c r="G111" t="n">
-        <v>1019.866666666667</v>
+        <v>1020.233333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4638,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4655,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C112" t="n">
         <v>1012</v>
@@ -4292,13 +4664,13 @@
         <v>1012</v>
       </c>
       <c r="E112" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F112" t="n">
-        <v>19</v>
+        <v>1913.4057</v>
       </c>
       <c r="G112" t="n">
-        <v>1019.466666666667</v>
+        <v>1019.866666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4696,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C113" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="D113" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E113" t="n">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F113" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="G113" t="n">
-        <v>1019.033333333333</v>
+        <v>1019.466666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4356,7 +4740,7 @@
         <v>1009</v>
       </c>
       <c r="C114" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D114" t="n">
         <v>1009</v>
@@ -4365,10 +4749,10 @@
         <v>1008</v>
       </c>
       <c r="F114" t="n">
-        <v>305.2075</v>
+        <v>92</v>
       </c>
       <c r="G114" t="n">
-        <v>1018.616666666667</v>
+        <v>1019.033333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4397,27 +4787,29 @@
         <v>1009</v>
       </c>
       <c r="E115" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F115" t="n">
-        <v>230.029</v>
+        <v>305.2075</v>
       </c>
       <c r="G115" t="n">
-        <v>1018.166666666667</v>
+        <v>1018.616666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1009</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>1009</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
+        <v>1020</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4430,19 +4822,19 @@
         <v>1009</v>
       </c>
       <c r="C116" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D116" t="n">
         <v>1009</v>
       </c>
       <c r="E116" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F116" t="n">
-        <v>540.1683</v>
+        <v>230.029</v>
       </c>
       <c r="G116" t="n">
-        <v>1017.65</v>
+        <v>1018.166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,11 +4844,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4480,10 +4872,10 @@
         <v>1008</v>
       </c>
       <c r="F117" t="n">
-        <v>759.4853000000001</v>
+        <v>540.1683</v>
       </c>
       <c r="G117" t="n">
-        <v>1017.116666666667</v>
+        <v>1017.65</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,7 +4885,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4509,22 +4901,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C118" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D118" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E118" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F118" t="n">
-        <v>237.6739</v>
+        <v>759.4853000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>1016.716666666667</v>
+        <v>1017.116666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4534,7 +4926,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4550,34 +4942,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C119" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D119" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E119" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F119" t="n">
-        <v>124.6357</v>
+        <v>237.6739</v>
       </c>
       <c r="G119" t="n">
-        <v>1016.433333333333</v>
+        <v>1016.716666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4596,19 +4986,19 @@
         <v>1013</v>
       </c>
       <c r="C120" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D120" t="n">
         <v>1013</v>
       </c>
       <c r="E120" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F120" t="n">
-        <v>586.4131</v>
+        <v>124.6357</v>
       </c>
       <c r="G120" t="n">
-        <v>1016.133333333333</v>
+        <v>1016.433333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4618,7 +5008,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4634,22 +5024,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C121" t="n">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D121" t="n">
         <v>1013</v>
       </c>
       <c r="E121" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="F121" t="n">
-        <v>666.72</v>
+        <v>586.4131</v>
       </c>
       <c r="G121" t="n">
-        <v>1016.016666666667</v>
+        <v>1016.133333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4659,7 +5049,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4675,7 +5065,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C122" t="n">
         <v>1013</v>
@@ -4684,13 +5074,13 @@
         <v>1013</v>
       </c>
       <c r="E122" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F122" t="n">
-        <v>738.6816</v>
+        <v>666.72</v>
       </c>
       <c r="G122" t="n">
-        <v>1015.9</v>
+        <v>1016.016666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4700,7 +5090,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4719,19 +5109,19 @@
         <v>1013</v>
       </c>
       <c r="C123" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D123" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E123" t="n">
         <v>1013</v>
       </c>
       <c r="F123" t="n">
-        <v>102.5097</v>
+        <v>738.6816</v>
       </c>
       <c r="G123" t="n">
-        <v>1015.8</v>
+        <v>1015.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4741,7 +5131,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4757,7 +5147,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C124" t="n">
         <v>1014</v>
@@ -4766,13 +5156,13 @@
         <v>1014</v>
       </c>
       <c r="E124" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F124" t="n">
-        <v>641.9471</v>
+        <v>102.5097</v>
       </c>
       <c r="G124" t="n">
-        <v>1015.7</v>
+        <v>1015.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4782,7 +5172,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4798,22 +5188,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F125" t="n">
-        <v>341.575</v>
+        <v>641.9471</v>
       </c>
       <c r="G125" t="n">
-        <v>1015.6</v>
+        <v>1015.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4823,7 +5213,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4851,10 +5241,10 @@
         <v>1016</v>
       </c>
       <c r="F126" t="n">
-        <v>335.266</v>
+        <v>341.575</v>
       </c>
       <c r="G126" t="n">
-        <v>1015.533333333333</v>
+        <v>1015.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4864,7 +5254,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4892,10 +5282,10 @@
         <v>1016</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0001</v>
+        <v>335.266</v>
       </c>
       <c r="G127" t="n">
-        <v>1015.483333333333</v>
+        <v>1015.533333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4905,7 +5295,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4933,10 +5323,10 @@
         <v>1016</v>
       </c>
       <c r="F128" t="n">
-        <v>4278.148</v>
+        <v>0.0001</v>
       </c>
       <c r="G128" t="n">
-        <v>1015.466666666667</v>
+        <v>1015.483333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4946,7 +5336,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4974,10 +5364,10 @@
         <v>1016</v>
       </c>
       <c r="F129" t="n">
-        <v>663.962</v>
+        <v>4278.148</v>
       </c>
       <c r="G129" t="n">
-        <v>1015.483333333333</v>
+        <v>1015.466666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4987,7 +5377,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5015,10 +5405,10 @@
         <v>1016</v>
       </c>
       <c r="F130" t="n">
-        <v>162.3119</v>
+        <v>663.962</v>
       </c>
       <c r="G130" t="n">
-        <v>1015.5</v>
+        <v>1015.483333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5028,7 +5418,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5044,22 +5434,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C131" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D131" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E131" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F131" t="n">
-        <v>83.2248</v>
+        <v>162.3119</v>
       </c>
       <c r="G131" t="n">
-        <v>1015.45</v>
+        <v>1015.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5069,7 +5459,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5085,7 +5475,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C132" t="n">
         <v>1020</v>
@@ -5094,13 +5484,13 @@
         <v>1020</v>
       </c>
       <c r="E132" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F132" t="n">
-        <v>640.1943</v>
+        <v>83.2248</v>
       </c>
       <c r="G132" t="n">
-        <v>1015.383333333333</v>
+        <v>1015.45</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5110,7 +5500,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5138,10 +5528,10 @@
         <v>1020</v>
       </c>
       <c r="F133" t="n">
-        <v>210.8896</v>
+        <v>640.1943</v>
       </c>
       <c r="G133" t="n">
-        <v>1015.316666666667</v>
+        <v>1015.383333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5151,7 +5541,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5167,22 +5557,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C134" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D134" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E134" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>210.8896</v>
       </c>
       <c r="G134" t="n">
-        <v>1015.15</v>
+        <v>1015.316666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5192,7 +5582,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5208,22 +5598,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C135" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D135" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E135" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="F135" t="n">
-        <v>4294.991</v>
+        <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>1014.983333333333</v>
+        <v>1015.15</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5233,7 +5623,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5252,19 +5642,19 @@
         <v>1013</v>
       </c>
       <c r="C136" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D136" t="n">
         <v>1013</v>
       </c>
       <c r="E136" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F136" t="n">
-        <v>504.342</v>
+        <v>4294.991</v>
       </c>
       <c r="G136" t="n">
-        <v>1014.866666666667</v>
+        <v>1014.983333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5274,7 +5664,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5290,22 +5680,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C137" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D137" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E137" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F137" t="n">
-        <v>242.3802</v>
+        <v>504.342</v>
       </c>
       <c r="G137" t="n">
-        <v>1014.7</v>
+        <v>1014.866666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5315,7 +5705,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5331,22 +5721,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C138" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D138" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E138" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F138" t="n">
-        <v>124.4242</v>
+        <v>242.3802</v>
       </c>
       <c r="G138" t="n">
-        <v>1014.583333333333</v>
+        <v>1014.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5356,7 +5746,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5384,10 +5774,10 @@
         <v>1013</v>
       </c>
       <c r="F139" t="n">
-        <v>912.2861</v>
+        <v>124.4242</v>
       </c>
       <c r="G139" t="n">
-        <v>1014.45</v>
+        <v>1014.583333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5397,7 +5787,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5413,22 +5803,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C140" t="n">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D140" t="n">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="E140" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F140" t="n">
-        <v>62.3887</v>
+        <v>912.2861</v>
       </c>
       <c r="G140" t="n">
-        <v>1014.333333333333</v>
+        <v>1014.45</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5438,7 +5828,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5454,7 +5844,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C141" t="n">
         <v>1019</v>
@@ -5463,13 +5853,13 @@
         <v>1019</v>
       </c>
       <c r="E141" t="n">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F141" t="n">
-        <v>97.20910000000001</v>
+        <v>62.3887</v>
       </c>
       <c r="G141" t="n">
-        <v>1014.2</v>
+        <v>1014.333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5479,7 +5869,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5507,10 +5897,10 @@
         <v>1019</v>
       </c>
       <c r="F142" t="n">
-        <v>86.1855</v>
+        <v>97.20910000000001</v>
       </c>
       <c r="G142" t="n">
-        <v>1014.166666666667</v>
+        <v>1014.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5520,7 +5910,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5545,13 +5935,13 @@
         <v>1019</v>
       </c>
       <c r="E143" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F143" t="n">
-        <v>359.0466</v>
+        <v>86.1855</v>
       </c>
       <c r="G143" t="n">
-        <v>1014.033333333333</v>
+        <v>1014.166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5561,7 +5951,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5577,22 +5967,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C144" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D144" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E144" t="n">
         <v>1015</v>
       </c>
       <c r="F144" t="n">
-        <v>2011.1725</v>
+        <v>359.0466</v>
       </c>
       <c r="G144" t="n">
-        <v>1013.933333333333</v>
+        <v>1014.033333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5602,7 +5992,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5618,22 +6008,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C145" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D145" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E145" t="n">
         <v>1015</v>
       </c>
       <c r="F145" t="n">
-        <v>7</v>
+        <v>2011.1725</v>
       </c>
       <c r="G145" t="n">
-        <v>1013.916666666667</v>
+        <v>1013.933333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5643,7 +6033,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5662,7 +6052,7 @@
         <v>1019</v>
       </c>
       <c r="C146" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D146" t="n">
         <v>1019</v>
@@ -5671,10 +6061,10 @@
         <v>1015</v>
       </c>
       <c r="F146" t="n">
-        <v>1095.076</v>
+        <v>7</v>
       </c>
       <c r="G146" t="n">
-        <v>1013.8</v>
+        <v>1013.916666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5684,7 +6074,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5703,19 +6093,19 @@
         <v>1019</v>
       </c>
       <c r="C147" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D147" t="n">
         <v>1019</v>
       </c>
       <c r="E147" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F147" t="n">
-        <v>826.7814</v>
+        <v>1095.076</v>
       </c>
       <c r="G147" t="n">
-        <v>1013.666666666667</v>
+        <v>1013.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5725,7 +6115,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5744,19 +6134,19 @@
         <v>1019</v>
       </c>
       <c r="C148" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D148" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E148" t="n">
         <v>1019</v>
       </c>
       <c r="F148" t="n">
-        <v>1362.9524</v>
+        <v>826.7814</v>
       </c>
       <c r="G148" t="n">
-        <v>1013.633333333333</v>
+        <v>1013.666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5766,7 +6156,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5782,7 +6172,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C149" t="n">
         <v>1020</v>
@@ -5791,13 +6181,13 @@
         <v>1020</v>
       </c>
       <c r="E149" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F149" t="n">
-        <v>1865.6173</v>
+        <v>1362.9524</v>
       </c>
       <c r="G149" t="n">
-        <v>1013.666666666667</v>
+        <v>1013.633333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5807,7 +6197,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5835,10 +6225,10 @@
         <v>1020</v>
       </c>
       <c r="F150" t="n">
-        <v>109.4928</v>
+        <v>1865.6173</v>
       </c>
       <c r="G150" t="n">
-        <v>1013.683333333333</v>
+        <v>1013.666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5848,7 +6238,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5876,10 +6266,10 @@
         <v>1020</v>
       </c>
       <c r="F151" t="n">
-        <v>185</v>
+        <v>109.4928</v>
       </c>
       <c r="G151" t="n">
-        <v>1013.616666666667</v>
+        <v>1013.683333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5889,7 +6279,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5917,10 +6307,10 @@
         <v>1020</v>
       </c>
       <c r="F152" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G152" t="n">
-        <v>1013.633333333333</v>
+        <v>1013.616666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5930,7 +6320,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -5958,7 +6348,7 @@
         <v>1020</v>
       </c>
       <c r="F153" t="n">
-        <v>775</v>
+        <v>195</v>
       </c>
       <c r="G153" t="n">
         <v>1013.633333333333</v>
@@ -5971,7 +6361,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -5999,10 +6389,10 @@
         <v>1020</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>775</v>
       </c>
       <c r="G154" t="n">
-        <v>1013.666666666667</v>
+        <v>1013.633333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6012,7 +6402,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6040,10 +6430,10 @@
         <v>1020</v>
       </c>
       <c r="F155" t="n">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>1013.733333333333</v>
+        <v>1013.666666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6053,7 +6443,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6081,10 +6471,10 @@
         <v>1020</v>
       </c>
       <c r="F156" t="n">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G156" t="n">
-        <v>1013.866666666667</v>
+        <v>1013.733333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6094,7 +6484,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6122,10 +6512,10 @@
         <v>1020</v>
       </c>
       <c r="F157" t="n">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G157" t="n">
-        <v>1014.1</v>
+        <v>1013.866666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6135,7 +6525,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6163,10 +6553,10 @@
         <v>1020</v>
       </c>
       <c r="F158" t="n">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="G158" t="n">
-        <v>1014.366666666667</v>
+        <v>1014.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6176,7 +6566,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6204,10 +6594,10 @@
         <v>1020</v>
       </c>
       <c r="F159" t="n">
-        <v>630</v>
+        <v>375</v>
       </c>
       <c r="G159" t="n">
-        <v>1014.55</v>
+        <v>1014.366666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6217,7 +6607,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6236,19 +6626,19 @@
         <v>1020</v>
       </c>
       <c r="C160" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D160" t="n">
         <v>1020</v>
       </c>
       <c r="E160" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F160" t="n">
-        <v>4104.1653</v>
+        <v>630</v>
       </c>
       <c r="G160" t="n">
-        <v>1014.7</v>
+        <v>1014.55</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6258,7 +6648,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6274,22 +6664,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C161" t="n">
         <v>1019</v>
       </c>
       <c r="D161" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E161" t="n">
         <v>1019</v>
       </c>
       <c r="F161" t="n">
-        <v>64.9986</v>
+        <v>4104.1653</v>
       </c>
       <c r="G161" t="n">
-        <v>1014.866666666667</v>
+        <v>1014.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6299,7 +6689,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6315,22 +6705,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C162" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D162" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E162" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F162" t="n">
-        <v>6018.7051</v>
+        <v>64.9986</v>
       </c>
       <c r="G162" t="n">
-        <v>1015.016666666667</v>
+        <v>1014.866666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6340,7 +6730,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6368,10 +6758,10 @@
         <v>1020</v>
       </c>
       <c r="F163" t="n">
-        <v>1363.7311</v>
+        <v>6018.7051</v>
       </c>
       <c r="G163" t="n">
-        <v>1015.166666666667</v>
+        <v>1015.016666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6381,7 +6771,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6409,10 +6799,10 @@
         <v>1020</v>
       </c>
       <c r="F164" t="n">
-        <v>2345.3229</v>
+        <v>1363.7311</v>
       </c>
       <c r="G164" t="n">
-        <v>1015.316666666667</v>
+        <v>1015.166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6422,7 +6812,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6450,10 +6840,10 @@
         <v>1020</v>
       </c>
       <c r="F165" t="n">
-        <v>230</v>
+        <v>2345.3229</v>
       </c>
       <c r="G165" t="n">
-        <v>1015.466666666667</v>
+        <v>1015.316666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6463,7 +6853,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6491,10 +6881,10 @@
         <v>1020</v>
       </c>
       <c r="F166" t="n">
-        <v>750</v>
+        <v>230</v>
       </c>
       <c r="G166" t="n">
-        <v>1015.616666666667</v>
+        <v>1015.466666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6504,7 +6894,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6532,10 +6922,10 @@
         <v>1020</v>
       </c>
       <c r="F167" t="n">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="G167" t="n">
-        <v>1015.866666666667</v>
+        <v>1015.616666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6545,7 +6935,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6573,10 +6963,10 @@
         <v>1020</v>
       </c>
       <c r="F168" t="n">
-        <v>1490</v>
+        <v>830</v>
       </c>
       <c r="G168" t="n">
-        <v>1016.05</v>
+        <v>1015.866666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6586,7 +6976,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6614,10 +7004,10 @@
         <v>1020</v>
       </c>
       <c r="F169" t="n">
-        <v>1775</v>
+        <v>1490</v>
       </c>
       <c r="G169" t="n">
-        <v>1016.283333333333</v>
+        <v>1016.05</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6627,7 +7017,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6655,10 +7045,10 @@
         <v>1020</v>
       </c>
       <c r="F170" t="n">
-        <v>585</v>
+        <v>1775</v>
       </c>
       <c r="G170" t="n">
-        <v>1016.466666666667</v>
+        <v>1016.283333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6668,7 +7058,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6696,10 +7086,10 @@
         <v>1020</v>
       </c>
       <c r="F171" t="n">
-        <v>38.401</v>
+        <v>585</v>
       </c>
       <c r="G171" t="n">
-        <v>1016.6</v>
+        <v>1016.466666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6709,7 +7099,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6737,10 +7127,10 @@
         <v>1020</v>
       </c>
       <c r="F172" t="n">
-        <v>58.0174</v>
+        <v>38.401</v>
       </c>
       <c r="G172" t="n">
-        <v>1016.733333333333</v>
+        <v>1016.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6750,7 +7140,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6766,22 +7156,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C173" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D173" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E173" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F173" t="n">
-        <v>767.6346</v>
+        <v>58.0174</v>
       </c>
       <c r="G173" t="n">
-        <v>1016.866666666667</v>
+        <v>1016.733333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6791,7 +7181,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6807,22 +7197,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C174" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D174" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E174" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F174" t="n">
-        <v>1227.3991</v>
+        <v>767.6346</v>
       </c>
       <c r="G174" t="n">
-        <v>1016.933333333333</v>
+        <v>1016.866666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6832,7 +7222,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6860,10 +7250,10 @@
         <v>1013</v>
       </c>
       <c r="F175" t="n">
-        <v>271.0139</v>
+        <v>1227.3991</v>
       </c>
       <c r="G175" t="n">
-        <v>1017</v>
+        <v>1016.933333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6873,7 +7263,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6889,22 +7279,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C176" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D176" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E176" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="F176" t="n">
-        <v>14.2881</v>
+        <v>271.0139</v>
       </c>
       <c r="G176" t="n">
-        <v>1017.05</v>
+        <v>1017</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6914,7 +7304,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -6930,22 +7320,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="C177" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D177" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E177" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="F177" t="n">
-        <v>58.2329</v>
+        <v>14.2881</v>
       </c>
       <c r="G177" t="n">
-        <v>1017.016666666667</v>
+        <v>1017.05</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6955,7 +7345,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -6971,22 +7361,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C178" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D178" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E178" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F178" t="n">
-        <v>42.0983</v>
+        <v>58.2329</v>
       </c>
       <c r="G178" t="n">
-        <v>1016.966666666667</v>
+        <v>1017.016666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6996,7 +7386,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7012,22 +7402,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C179" t="n">
         <v>1008</v>
       </c>
       <c r="D179" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E179" t="n">
         <v>1008</v>
       </c>
       <c r="F179" t="n">
-        <v>661.9388</v>
+        <v>42.0983</v>
       </c>
       <c r="G179" t="n">
-        <v>1016.883333333333</v>
+        <v>1016.966666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7037,7 +7427,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7053,22 +7443,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C180" t="n">
         <v>1008</v>
       </c>
       <c r="D180" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E180" t="n">
         <v>1008</v>
       </c>
       <c r="F180" t="n">
-        <v>29.8849</v>
+        <v>661.9388</v>
       </c>
       <c r="G180" t="n">
-        <v>1016.9</v>
+        <v>1016.883333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7078,7 +7468,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7094,22 +7484,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C181" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D181" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E181" t="n">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F181" t="n">
-        <v>6.5202</v>
+        <v>29.8849</v>
       </c>
       <c r="G181" t="n">
-        <v>1016.866666666667</v>
+        <v>1016.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7119,7 +7509,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7135,22 +7525,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C182" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D182" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E182" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F182" t="n">
-        <v>123.7986</v>
+        <v>6.5202</v>
       </c>
       <c r="G182" t="n">
-        <v>1016.816666666667</v>
+        <v>1016.866666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7160,7 +7550,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7188,10 +7578,10 @@
         <v>1010</v>
       </c>
       <c r="F183" t="n">
-        <v>118.1311</v>
+        <v>123.7986</v>
       </c>
       <c r="G183" t="n">
-        <v>1016.75</v>
+        <v>1016.816666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7201,7 +7591,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7217,22 +7607,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C184" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D184" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E184" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="F184" t="n">
-        <v>696.4432</v>
+        <v>118.1311</v>
       </c>
       <c r="G184" t="n">
-        <v>1016.616666666667</v>
+        <v>1016.75</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7242,7 +7632,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7258,22 +7648,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C185" t="n">
         <v>1006</v>
       </c>
       <c r="D185" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E185" t="n">
         <v>1006</v>
       </c>
       <c r="F185" t="n">
-        <v>4.4057</v>
+        <v>696.4432</v>
       </c>
       <c r="G185" t="n">
-        <v>1016.45</v>
+        <v>1016.616666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7283,7 +7673,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7299,22 +7689,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C186" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D186" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E186" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>4.4057</v>
       </c>
       <c r="G186" t="n">
-        <v>1016.3</v>
+        <v>1016.45</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7324,7 +7714,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7340,22 +7730,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C187" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D187" t="n">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="E187" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F187" t="n">
-        <v>1115.8647</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>1016.216666666667</v>
+        <v>1016.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7365,7 +7755,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7381,7 +7771,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C188" t="n">
         <v>1011</v>
@@ -7390,25 +7780,23 @@
         <v>1011</v>
       </c>
       <c r="E188" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F188" t="n">
-        <v>130.9196</v>
+        <v>1115.8647</v>
       </c>
       <c r="G188" t="n">
-        <v>1016.133333333333</v>
+        <v>1016.216666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7424,34 +7812,32 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C189" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="D189" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E189" t="n">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="F189" t="n">
-        <v>144.851</v>
+        <v>130.9196</v>
       </c>
       <c r="G189" t="n">
-        <v>1015.966666666667</v>
+        <v>1016.133333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>1011</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7467,34 +7853,32 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C190" t="n">
         <v>1006</v>
       </c>
       <c r="D190" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E190" t="n">
         <v>1006</v>
       </c>
       <c r="F190" t="n">
-        <v>1002.9669</v>
+        <v>144.851</v>
       </c>
       <c r="G190" t="n">
-        <v>1015.8</v>
+        <v>1015.966666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7522,22 +7906,20 @@
         <v>1006</v>
       </c>
       <c r="F191" t="n">
-        <v>1185.4245</v>
+        <v>1002.9669</v>
       </c>
       <c r="G191" t="n">
-        <v>1015.566666666667</v>
+        <v>1015.8</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7565,22 +7947,20 @@
         <v>1006</v>
       </c>
       <c r="F192" t="n">
-        <v>453.1268</v>
+        <v>1185.4245</v>
       </c>
       <c r="G192" t="n">
-        <v>1015.333333333333</v>
+        <v>1015.566666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7608,22 +7988,20 @@
         <v>1006</v>
       </c>
       <c r="F193" t="n">
-        <v>2761.4486</v>
+        <v>453.1268</v>
       </c>
       <c r="G193" t="n">
-        <v>1015.1</v>
+        <v>1015.333333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7639,34 +8017,32 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C194" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D194" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E194" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F194" t="n">
-        <v>9.8232</v>
+        <v>2761.4486</v>
       </c>
       <c r="G194" t="n">
-        <v>1014.95</v>
+        <v>1015.1</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1006</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7694,22 +8070,20 @@
         <v>1005</v>
       </c>
       <c r="F195" t="n">
-        <v>280.9699</v>
+        <v>9.8232</v>
       </c>
       <c r="G195" t="n">
-        <v>1014.833333333333</v>
+        <v>1014.95</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1005</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7728,31 +8102,29 @@
         <v>1005</v>
       </c>
       <c r="C196" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="D196" t="n">
         <v>1005</v>
       </c>
       <c r="E196" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F196" t="n">
-        <v>10579.6226</v>
+        <v>280.9699</v>
       </c>
       <c r="G196" t="n">
-        <v>1014.666666666667</v>
+        <v>1014.833333333333</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>1005</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7768,34 +8140,32 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C197" t="n">
         <v>1003</v>
       </c>
       <c r="D197" t="n">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E197" t="n">
         <v>1003</v>
       </c>
       <c r="F197" t="n">
-        <v>1318.8919</v>
+        <v>10579.6226</v>
       </c>
       <c r="G197" t="n">
-        <v>1014.483333333333</v>
+        <v>1014.666666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>1003</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7823,29 +8193,68 @@
         <v>1003</v>
       </c>
       <c r="F198" t="n">
+        <v>1318.8919</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1014.483333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F199" t="n">
         <v>489.6863</v>
       </c>
-      <c r="G198" t="n">
+      <c r="G199" t="n">
         <v>1014.316666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K198" t="n">
-        <v>1009</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14.8554</v>
       </c>
       <c r="G2" t="n">
+        <v>994.6066666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>992.7450000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>150</v>
       </c>
       <c r="G3" t="n">
+        <v>993.2266666666663</v>
+      </c>
+      <c r="H3" t="n">
         <v>992.7833333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>991.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>2462.371</v>
       </c>
       <c r="G4" t="n">
+        <v>990.6266666666664</v>
+      </c>
+      <c r="H4" t="n">
         <v>992.5833333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>984.3</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>44.2788</v>
       </c>
       <c r="G5" t="n">
+        <v>989.2933333333331</v>
+      </c>
+      <c r="H5" t="n">
         <v>992.6166666666669</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>971</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>205</v>
       </c>
       <c r="G6" t="n">
+        <v>988.6866666666664</v>
+      </c>
+      <c r="H6" t="n">
         <v>992.6500000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>985</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>2049.2213</v>
       </c>
       <c r="G7" t="n">
+        <v>988.6666666666664</v>
+      </c>
+      <c r="H7" t="n">
         <v>992.7500000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>985</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,22 +711,27 @@
         <v>4570</v>
       </c>
       <c r="G8" t="n">
+        <v>988.7466666666664</v>
+      </c>
+      <c r="H8" t="n">
         <v>992.8500000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>990</v>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,24 +755,25 @@
         <v>2355</v>
       </c>
       <c r="G9" t="n">
+        <v>988.9599999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>992.9666666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>990</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,26 +797,25 @@
         <v>1475.9563</v>
       </c>
       <c r="G10" t="n">
+        <v>988.9066666666665</v>
+      </c>
+      <c r="H10" t="n">
         <v>993.1166666666669</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>992</v>
-      </c>
-      <c r="K10" t="n">
-        <v>990</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,26 +839,25 @@
         <v>541</v>
       </c>
       <c r="G11" t="n">
+        <v>989.8666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>993.3500000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>994</v>
-      </c>
-      <c r="K11" t="n">
-        <v>990</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,26 +881,25 @@
         <v>1172.4495</v>
       </c>
       <c r="G12" t="n">
+        <v>990.5333333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>993.6666666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>995</v>
-      </c>
-      <c r="K12" t="n">
-        <v>990</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,24 +923,25 @@
         <v>1040</v>
       </c>
       <c r="G13" t="n">
+        <v>991.3999999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>993.9716666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>990</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -908,24 +965,25 @@
         <v>2578.8871</v>
       </c>
       <c r="G14" t="n">
+        <v>992.4133333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>994.371666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>990</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,24 +1007,25 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
+        <v>993.2933333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>994.7383333333336</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>990</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -990,24 +1049,25 @@
         <v>201</v>
       </c>
       <c r="G16" t="n">
+        <v>994.0799999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>995.121666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>990</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1031,24 +1091,25 @@
         <v>2413.3986</v>
       </c>
       <c r="G17" t="n">
+        <v>995.62</v>
+      </c>
+      <c r="H17" t="n">
         <v>995.5383333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>990</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1072,24 +1133,25 @@
         <v>535</v>
       </c>
       <c r="G18" t="n">
+        <v>997.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>995.9233333333336</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>990</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,24 +1175,25 @@
         <v>1282</v>
       </c>
       <c r="G19" t="n">
+        <v>1000.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>996.2400000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>990</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,24 +1217,25 @@
         <v>606.0351000000001</v>
       </c>
       <c r="G20" t="n">
+        <v>1002.933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>996.6400000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>990</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1195,971 +1259,1159 @@
         <v>1682.6967</v>
       </c>
       <c r="G21" t="n">
+        <v>1004.266666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>996.7900000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>990</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2801.49980743</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1005.333333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>996.9566666666669</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F23" t="n">
+        <v>665</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1007.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>997.4233333333336</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F24" t="n">
+        <v>275</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>997.906666666667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1163.55707317</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1011.866666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>998.4233333333336</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F26" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1013.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>998.8233333333336</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1034.5657</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1014.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>999.1733333333336</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1268.7949</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1014.733333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>999.5233333333337</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F29" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1015</v>
+      </c>
+      <c r="H29" t="n">
+        <v>999.9233333333336</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1015.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1000.373333333334</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F31" t="n">
+        <v>905</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1016.533333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1000.94</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F32" t="n">
+        <v>97.1665</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1017.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1001.506666666667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1283.75242683</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1017.733333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1002.073333333334</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1955.9664</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1018.866666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1002.673333333334</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1033</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1033</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5115.0587</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1019.733333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1003.306666666667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1038</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19148.2715</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1021.333333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1003.873333333334</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1034</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1034</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1029</v>
+      </c>
+      <c r="F37" t="n">
+        <v>258.536</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1023.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1004.506666666667</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1031</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2024.0154</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1023.933333333333</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1005.14</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3059.0221</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1024.666666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1005.773333333334</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2939.2952</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1025.4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1006.406666666667</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F41" t="n">
+        <v>394.1924</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1026.533333333333</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1007.023333333334</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1027</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4575.6693</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1027.866666666667</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1007.573333333334</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.4648</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1029.133333333333</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1008.09</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1233.4562</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1030.533333333333</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1008.69</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F45" t="n">
+        <v>965.172</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1031.333333333333</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1009.106666666667</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F46" t="n">
+        <v>92.2325</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1009.606666666667</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1737.3294</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1032.733333333333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1010.04</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20.0669</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1033.466666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1010.556666666667</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1.010151515151515</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2801.49980743</v>
-      </c>
-      <c r="G22" t="n">
-        <v>996.9566666666669</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1024</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1024</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1021</v>
-      </c>
-      <c r="F23" t="n">
-        <v>665</v>
-      </c>
-      <c r="G23" t="n">
-        <v>997.4233333333336</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F24" t="n">
-        <v>275</v>
-      </c>
-      <c r="G24" t="n">
-        <v>997.906666666667</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1163.55707317</v>
-      </c>
-      <c r="G25" t="n">
-        <v>998.4233333333336</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1018</v>
-      </c>
-      <c r="F26" t="n">
-        <v>57.4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>998.8233333333336</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1012</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1015</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1012</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1034.5657</v>
-      </c>
-      <c r="G27" t="n">
-        <v>999.1733333333336</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1268.7949</v>
-      </c>
-      <c r="G28" t="n">
-        <v>999.5233333333337</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1014</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1014</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1014</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1014</v>
-      </c>
-      <c r="F29" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>999.9233333333336</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1018</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1018</v>
-      </c>
-      <c r="F30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1000.373333333334</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F31" t="n">
-        <v>905</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1000.94</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F32" t="n">
-        <v>97.1665</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1001.506666666667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1025</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1025</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1025</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1283.75242683</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1002.073333333334</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1030</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1027</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1955.9664</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1002.673333333334</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1033</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1033</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1031</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5115.0587</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1003.306666666667</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1032</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1038</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1029</v>
-      </c>
-      <c r="F36" t="n">
-        <v>19148.2715</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1003.873333333334</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1034</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1029</v>
-      </c>
-      <c r="F37" t="n">
-        <v>258.536</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1004.506666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1031</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1035</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1031</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2024.0154</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1005.14</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3059.0221</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1005.773333333334</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1036</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2939.2952</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1006.406666666667</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1035</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1035</v>
-      </c>
-      <c r="F41" t="n">
-        <v>394.1924</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1007.023333333334</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1032</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1032</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1027</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4575.6693</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1007.573333333334</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1030</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.4648</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1008.09</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1035</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1233.4562</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1008.69</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1034</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1030</v>
-      </c>
-      <c r="F45" t="n">
-        <v>965.172</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1009.106666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1035</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1035</v>
-      </c>
-      <c r="F46" t="n">
-        <v>92.2325</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1009.606666666667</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1035</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1737.3294</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1010.04</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1036</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1036</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1036</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20.0669</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1010.556666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2181,18 +2433,21 @@
         <v>2096.9945</v>
       </c>
       <c r="G49" t="n">
+        <v>1034.066666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1011.04</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2471,21 @@
         <v>3499.1938</v>
       </c>
       <c r="G50" t="n">
+        <v>1034.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>1011.59</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2509,21 @@
         <v>1724.8801</v>
       </c>
       <c r="G51" t="n">
+        <v>1035.133333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>1012.355</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2547,21 @@
         <v>1090.5</v>
       </c>
       <c r="G52" t="n">
+        <v>1035.133333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>1013.083333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2585,21 @@
         <v>5378.0515</v>
       </c>
       <c r="G53" t="n">
+        <v>1035.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>1013.87</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2623,21 @@
         <v>50</v>
       </c>
       <c r="G54" t="n">
+        <v>1035.066666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>1014.623333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2661,21 @@
         <v>119.2543</v>
       </c>
       <c r="G55" t="n">
+        <v>1034.933333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1015.276666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2699,21 @@
         <v>892.5632000000001</v>
       </c>
       <c r="G56" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H56" t="n">
         <v>1016.2</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2737,21 @@
         <v>2277.5145</v>
       </c>
       <c r="G57" t="n">
+        <v>1035.466666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>1017.016666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2775,21 @@
         <v>3330.6098</v>
       </c>
       <c r="G58" t="n">
+        <v>1036.133333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1017.85</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2813,21 @@
         <v>25</v>
       </c>
       <c r="G59" t="n">
+        <v>1036.133333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1018.52</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2851,21 @@
         <v>10164.5984</v>
       </c>
       <c r="G60" t="n">
+        <v>1036.133333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>1019.09</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2889,21 @@
         <v>18276.9339</v>
       </c>
       <c r="G61" t="n">
+        <v>1035.466666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1019.52</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2927,21 @@
         <v>1269.9883</v>
       </c>
       <c r="G62" t="n">
+        <v>1034.4</v>
+      </c>
+      <c r="H62" t="n">
         <v>1019.988333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2965,21 @@
         <v>90.65219999999999</v>
       </c>
       <c r="G63" t="n">
+        <v>1033.333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1020.583333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3003,21 @@
         <v>507.5019</v>
       </c>
       <c r="G64" t="n">
+        <v>1032.066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>1021.4</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,22 +3041,21 @@
         <v>732.9083000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>1030.866666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1021.983333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1020</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2780,26 +3079,21 @@
         <v>263.1516</v>
       </c>
       <c r="G66" t="n">
+        <v>1029.666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1022.6</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2823,26 +3117,21 @@
         <v>2395</v>
       </c>
       <c r="G67" t="n">
+        <v>1028.733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1023.1</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1022</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,24 +3155,21 @@
         <v>170.3627</v>
       </c>
       <c r="G68" t="n">
+        <v>1027.6</v>
+      </c>
+      <c r="H68" t="n">
         <v>1023.583333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2907,24 +3193,21 @@
         <v>3187.4814</v>
       </c>
       <c r="G69" t="n">
+        <v>1026.466666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>1024</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,24 +3231,21 @@
         <v>770.8599</v>
       </c>
       <c r="G70" t="n">
+        <v>1025.2</v>
+      </c>
+      <c r="H70" t="n">
         <v>1024.35</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2989,24 +3269,21 @@
         <v>3012.1444</v>
       </c>
       <c r="G71" t="n">
+        <v>1023.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>1024.683333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,24 +3307,21 @@
         <v>35.5584</v>
       </c>
       <c r="G72" t="n">
+        <v>1022.733333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1025.066666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3071,24 +3345,21 @@
         <v>163.0345</v>
       </c>
       <c r="G73" t="n">
+        <v>1021.666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>1025.416666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,24 +3383,21 @@
         <v>210.2234</v>
       </c>
       <c r="G74" t="n">
+        <v>1020.933333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1025.65</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,24 +3421,21 @@
         <v>2689.6716</v>
       </c>
       <c r="G75" t="n">
+        <v>1020.533333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>1025.9</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,24 +3459,21 @@
         <v>1846.436</v>
       </c>
       <c r="G76" t="n">
+        <v>1020.333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1026.083333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3235,24 +3497,21 @@
         <v>1163.557</v>
       </c>
       <c r="G77" t="n">
+        <v>1020.333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>1026.166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,24 +3535,21 @@
         <v>3010.5</v>
       </c>
       <c r="G78" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H78" t="n">
         <v>1026.283333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,24 +3573,21 @@
         <v>6511.967</v>
       </c>
       <c r="G79" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H79" t="n">
         <v>1026.4</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,24 +3611,21 @@
         <v>253.7942</v>
       </c>
       <c r="G80" t="n">
+        <v>1020.666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>1026.416666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3399,24 +3649,21 @@
         <v>1057.1379</v>
       </c>
       <c r="G81" t="n">
+        <v>1020.933333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>1026.766666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,24 +3687,21 @@
         <v>381.2843</v>
       </c>
       <c r="G82" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>1027.116666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3481,24 +3725,21 @@
         <v>45.5</v>
       </c>
       <c r="G83" t="n">
+        <v>1021.533333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>1027.066666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,24 +3763,21 @@
         <v>3195.8729</v>
       </c>
       <c r="G84" t="n">
+        <v>1022.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>1027.1</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,24 +3801,21 @@
         <v>3.1225</v>
       </c>
       <c r="G85" t="n">
+        <v>1022.6</v>
+      </c>
+      <c r="H85" t="n">
         <v>1027.033333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,24 +3839,21 @@
         <v>1573.3841</v>
       </c>
       <c r="G86" t="n">
+        <v>1022.933333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1027.066666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3645,24 +3877,21 @@
         <v>860</v>
       </c>
       <c r="G87" t="n">
+        <v>1022.866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>1027.233333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,24 +3915,21 @@
         <v>3500</v>
       </c>
       <c r="G88" t="n">
+        <v>1023.066666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>1027.5</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,24 +3953,21 @@
         <v>1695</v>
       </c>
       <c r="G89" t="n">
+        <v>1022.933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>1027.633333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,24 +3991,21 @@
         <v>4295.769</v>
       </c>
       <c r="G90" t="n">
+        <v>1022.533333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>1027.633333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,24 +4029,21 @@
         <v>1159.1542</v>
       </c>
       <c r="G91" t="n">
+        <v>1022.333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1027.533333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,24 +4067,21 @@
         <v>2681.7969</v>
       </c>
       <c r="G92" t="n">
+        <v>1022.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>1027.516666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3891,24 +4105,21 @@
         <v>2925.0743</v>
       </c>
       <c r="G93" t="n">
+        <v>1022.266666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1027.416666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,24 +4143,21 @@
         <v>1834.6999</v>
       </c>
       <c r="G94" t="n">
+        <v>1022.266666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1027.25</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3973,24 +4181,21 @@
         <v>179.1963</v>
       </c>
       <c r="G95" t="n">
+        <v>1022.066666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>1027</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,24 +4219,21 @@
         <v>14.4695</v>
       </c>
       <c r="G96" t="n">
+        <v>1021.4</v>
+      </c>
+      <c r="H96" t="n">
         <v>1026.783333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4055,24 +4257,21 @@
         <v>210</v>
       </c>
       <c r="G97" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="H97" t="n">
         <v>1026.416666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4096,24 +4295,21 @@
         <v>4554.7632</v>
       </c>
       <c r="G98" t="n">
+        <v>1019.4</v>
+      </c>
+      <c r="H98" t="n">
         <v>1025.933333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4137,24 +4333,21 @@
         <v>293.3841</v>
       </c>
       <c r="G99" t="n">
+        <v>1017.866666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>1025.4</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,24 +4371,21 @@
         <v>188.5549</v>
       </c>
       <c r="G100" t="n">
+        <v>1017.066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>1024.95</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,24 +4409,21 @@
         <v>97.05346534</v>
       </c>
       <c r="G101" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>1024.533333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,24 +4447,21 @@
         <v>1.6</v>
       </c>
       <c r="G102" t="n">
+        <v>1015.533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1024.15</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,24 +4485,21 @@
         <v>5152.5455</v>
       </c>
       <c r="G103" t="n">
+        <v>1014.466666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>1023.833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,24 +4523,21 @@
         <v>1200</v>
       </c>
       <c r="G104" t="n">
+        <v>1013.733333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1023.433333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4383,24 +4561,21 @@
         <v>3260.134</v>
       </c>
       <c r="G105" t="n">
+        <v>1013.266666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>1023.116666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,24 +4599,21 @@
         <v>8684.8282</v>
       </c>
       <c r="G106" t="n">
+        <v>1012.733333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>1022.716666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4465,24 +4637,21 @@
         <v>1194.2687</v>
       </c>
       <c r="G107" t="n">
+        <v>1011.866666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>1022.3</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,24 +4675,21 @@
         <v>2929.4322</v>
       </c>
       <c r="G108" t="n">
+        <v>1010.933333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1021.783333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,24 +4713,21 @@
         <v>418.8232</v>
       </c>
       <c r="G109" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="H109" t="n">
         <v>1021.283333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,24 +4751,21 @@
         <v>234.9437</v>
       </c>
       <c r="G110" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="H110" t="n">
         <v>1020.75</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,24 +4789,21 @@
         <v>925.8382</v>
       </c>
       <c r="G111" t="n">
+        <v>1008.933333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>1020.233333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,24 +4827,21 @@
         <v>1913.4057</v>
       </c>
       <c r="G112" t="n">
+        <v>1008.933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1019.866666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,24 +4865,21 @@
         <v>19</v>
       </c>
       <c r="G113" t="n">
+        <v>1009.333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>1019.466666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,24 +4903,21 @@
         <v>92</v>
       </c>
       <c r="G114" t="n">
+        <v>1009.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>1019.033333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,24 +4941,21 @@
         <v>305.2075</v>
       </c>
       <c r="G115" t="n">
+        <v>1009.6</v>
+      </c>
+      <c r="H115" t="n">
         <v>1018.616666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,24 +4979,21 @@
         <v>230.029</v>
       </c>
       <c r="G116" t="n">
+        <v>1009.533333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1018.166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,24 +5017,21 @@
         <v>540.1683</v>
       </c>
       <c r="G117" t="n">
+        <v>1009.466666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>1017.65</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,24 +5055,21 @@
         <v>759.4853000000001</v>
       </c>
       <c r="G118" t="n">
+        <v>1009.266666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>1017.116666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,24 +5093,21 @@
         <v>237.6739</v>
       </c>
       <c r="G119" t="n">
+        <v>1009.266666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1016.716666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,24 +5131,21 @@
         <v>124.6357</v>
       </c>
       <c r="G120" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="H120" t="n">
         <v>1016.433333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5039,24 +5169,21 @@
         <v>586.4131</v>
       </c>
       <c r="G121" t="n">
+        <v>1009.133333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1016.133333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,24 +5207,21 @@
         <v>666.72</v>
       </c>
       <c r="G122" t="n">
+        <v>1009.266666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>1016.016666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,24 +5245,21 @@
         <v>738.6816</v>
       </c>
       <c r="G123" t="n">
+        <v>1009.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>1015.9</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,24 +5283,21 @@
         <v>102.5097</v>
       </c>
       <c r="G124" t="n">
+        <v>1010.133333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>1015.8</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5203,24 +5321,21 @@
         <v>641.9471</v>
       </c>
       <c r="G125" t="n">
+        <v>1010.666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>1015.7</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,24 +5359,21 @@
         <v>341.575</v>
       </c>
       <c r="G126" t="n">
+        <v>1011.133333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1015.6</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,24 +5397,21 @@
         <v>335.266</v>
       </c>
       <c r="G127" t="n">
+        <v>1011.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>1015.533333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,24 +5435,21 @@
         <v>0.0001</v>
       </c>
       <c r="G128" t="n">
+        <v>1011.666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1015.483333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,24 +5473,21 @@
         <v>4278.148</v>
       </c>
       <c r="G129" t="n">
+        <v>1012.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>1015.466666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,24 +5511,21 @@
         <v>663.962</v>
       </c>
       <c r="G130" t="n">
+        <v>1012.666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1015.483333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5449,24 +5549,21 @@
         <v>162.3119</v>
       </c>
       <c r="G131" t="n">
+        <v>1013.133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>1015.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5490,24 +5587,21 @@
         <v>83.2248</v>
       </c>
       <c r="G132" t="n">
+        <v>1013.933333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>1015.45</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5531,24 +5625,21 @@
         <v>640.1943</v>
       </c>
       <c r="G133" t="n">
+        <v>1014.733333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>1015.383333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,24 +5663,21 @@
         <v>210.8896</v>
       </c>
       <c r="G134" t="n">
+        <v>1015.333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>1015.316666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,24 +5701,21 @@
         <v>5</v>
       </c>
       <c r="G135" t="n">
+        <v>1015.4</v>
+      </c>
+      <c r="H135" t="n">
         <v>1015.15</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5654,24 +5739,21 @@
         <v>4294.991</v>
       </c>
       <c r="G136" t="n">
+        <v>1015.733333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>1014.983333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,24 +5777,21 @@
         <v>504.342</v>
       </c>
       <c r="G137" t="n">
+        <v>1015.733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>1014.866666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,24 +5815,21 @@
         <v>242.3802</v>
       </c>
       <c r="G138" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="H138" t="n">
         <v>1014.7</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5777,24 +5853,21 @@
         <v>124.4242</v>
       </c>
       <c r="G139" t="n">
+        <v>1015.733333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>1014.583333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5818,24 +5891,21 @@
         <v>912.2861</v>
       </c>
       <c r="G140" t="n">
+        <v>1015.666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>1014.45</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5859,24 +5929,21 @@
         <v>62.3887</v>
       </c>
       <c r="G141" t="n">
+        <v>1015.866666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>1014.333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5900,24 +5967,21 @@
         <v>97.20910000000001</v>
       </c>
       <c r="G142" t="n">
+        <v>1016.066666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1014.2</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5941,24 +6005,21 @@
         <v>86.1855</v>
       </c>
       <c r="G143" t="n">
+        <v>1016.266666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1014.166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5982,24 +6043,21 @@
         <v>359.0466</v>
       </c>
       <c r="G144" t="n">
+        <v>1016.466666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>1014.033333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6023,24 +6081,21 @@
         <v>2011.1725</v>
       </c>
       <c r="G145" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>1013.933333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,24 +6119,21 @@
         <v>7</v>
       </c>
       <c r="G146" t="n">
+        <v>1016.6</v>
+      </c>
+      <c r="H146" t="n">
         <v>1013.916666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6105,24 +6157,21 @@
         <v>1095.076</v>
       </c>
       <c r="G147" t="n">
+        <v>1016.266666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>1013.8</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6146,24 +6195,21 @@
         <v>826.7814</v>
       </c>
       <c r="G148" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="H148" t="n">
         <v>1013.666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,24 +6233,21 @@
         <v>1362.9524</v>
       </c>
       <c r="G149" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="H149" t="n">
         <v>1013.633333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6228,24 +6271,21 @@
         <v>1865.6173</v>
       </c>
       <c r="G150" t="n">
+        <v>1016.6</v>
+      </c>
+      <c r="H150" t="n">
         <v>1013.666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6269,24 +6309,21 @@
         <v>109.4928</v>
       </c>
       <c r="G151" t="n">
+        <v>1017.133333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>1013.683333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,24 +6347,21 @@
         <v>185</v>
       </c>
       <c r="G152" t="n">
+        <v>1017.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>1013.616666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6351,24 +6385,21 @@
         <v>195</v>
       </c>
       <c r="G153" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H153" t="n">
         <v>1013.633333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,24 +6423,21 @@
         <v>775</v>
       </c>
       <c r="G154" t="n">
+        <v>1018.466666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>1013.633333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,24 +6461,21 @@
         <v>200</v>
       </c>
       <c r="G155" t="n">
+        <v>1018.933333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>1013.666666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6474,24 +6499,21 @@
         <v>245</v>
       </c>
       <c r="G156" t="n">
+        <v>1019</v>
+      </c>
+      <c r="H156" t="n">
         <v>1013.733333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,24 +6537,21 @@
         <v>236</v>
       </c>
       <c r="G157" t="n">
+        <v>1019.066666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>1013.866666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,24 +6575,21 @@
         <v>255</v>
       </c>
       <c r="G158" t="n">
+        <v>1019.133333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>1014.1</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6597,24 +6613,21 @@
         <v>375</v>
       </c>
       <c r="G159" t="n">
+        <v>1019.2</v>
+      </c>
+      <c r="H159" t="n">
         <v>1014.366666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,24 +6651,21 @@
         <v>630</v>
       </c>
       <c r="G160" t="n">
+        <v>1019.533333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>1014.55</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,24 +6689,21 @@
         <v>4104.1653</v>
       </c>
       <c r="G161" t="n">
+        <v>1019.533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>1014.7</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,24 +6727,21 @@
         <v>64.9986</v>
       </c>
       <c r="G162" t="n">
+        <v>1019.8</v>
+      </c>
+      <c r="H162" t="n">
         <v>1014.866666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6761,24 +6765,21 @@
         <v>6018.7051</v>
       </c>
       <c r="G163" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>1015.016666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,24 +6803,21 @@
         <v>1363.7311</v>
       </c>
       <c r="G164" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>1015.166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6843,24 +6841,21 @@
         <v>2345.3229</v>
       </c>
       <c r="G165" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>1015.316666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6884,24 +6879,21 @@
         <v>230</v>
       </c>
       <c r="G166" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>1015.466666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,24 +6917,21 @@
         <v>750</v>
       </c>
       <c r="G167" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>1015.616666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6966,24 +6955,21 @@
         <v>830</v>
       </c>
       <c r="G168" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>1015.866666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,24 +6993,21 @@
         <v>1490</v>
       </c>
       <c r="G169" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>1016.05</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,24 +7031,21 @@
         <v>1775</v>
       </c>
       <c r="G170" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>1016.283333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7089,24 +7069,21 @@
         <v>585</v>
       </c>
       <c r="G171" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>1016.466666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7130,24 +7107,21 @@
         <v>38.401</v>
       </c>
       <c r="G172" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1016.6</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7171,24 +7145,21 @@
         <v>58.0174</v>
       </c>
       <c r="G173" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>1016.733333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7212,24 +7183,21 @@
         <v>767.6346</v>
       </c>
       <c r="G174" t="n">
+        <v>1019.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>1016.866666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7253,24 +7221,21 @@
         <v>1227.3991</v>
       </c>
       <c r="G175" t="n">
+        <v>1019.133333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>1016.933333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7294,24 +7259,21 @@
         <v>271.0139</v>
       </c>
       <c r="G176" t="n">
+        <v>1018.733333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>1017</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7335,24 +7297,21 @@
         <v>14.2881</v>
       </c>
       <c r="G177" t="n">
+        <v>1018.2</v>
+      </c>
+      <c r="H177" t="n">
         <v>1017.05</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7376,24 +7335,21 @@
         <v>58.2329</v>
       </c>
       <c r="G178" t="n">
+        <v>1017.266666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>1017.016666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7417,24 +7373,21 @@
         <v>42.0983</v>
       </c>
       <c r="G179" t="n">
+        <v>1016.466666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>1016.966666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7458,24 +7411,21 @@
         <v>661.9388</v>
       </c>
       <c r="G180" t="n">
+        <v>1015.666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>1016.883333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,24 +7449,21 @@
         <v>29.8849</v>
       </c>
       <c r="G181" t="n">
+        <v>1014.866666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>1016.9</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7540,24 +7487,21 @@
         <v>6.5202</v>
       </c>
       <c r="G182" t="n">
+        <v>1014.266666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>1016.866666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7581,24 +7525,21 @@
         <v>123.7986</v>
       </c>
       <c r="G183" t="n">
+        <v>1013.6</v>
+      </c>
+      <c r="H183" t="n">
         <v>1016.816666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,24 +7563,21 @@
         <v>118.1311</v>
       </c>
       <c r="G184" t="n">
+        <v>1012.933333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>1016.75</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,24 +7601,21 @@
         <v>696.4432</v>
       </c>
       <c r="G185" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H185" t="n">
         <v>1016.616666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,24 +7639,21 @@
         <v>4.4057</v>
       </c>
       <c r="G186" t="n">
+        <v>1011.066666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>1016.45</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,24 +7677,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
+        <v>1010.2</v>
+      </c>
+      <c r="H187" t="n">
         <v>1016.3</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,24 +7715,21 @@
         <v>1115.8647</v>
       </c>
       <c r="G188" t="n">
+        <v>1009.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>1016.216666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7827,24 +7753,21 @@
         <v>130.9196</v>
       </c>
       <c r="G189" t="n">
+        <v>1009.266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>1016.133333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,24 +7791,21 @@
         <v>144.851</v>
       </c>
       <c r="G190" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="H190" t="n">
         <v>1015.966666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7909,24 +7829,21 @@
         <v>1002.9669</v>
       </c>
       <c r="G191" t="n">
+        <v>1008.333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>1015.8</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7950,24 +7867,21 @@
         <v>1185.4245</v>
       </c>
       <c r="G192" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H192" t="n">
         <v>1015.566666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,24 +7905,21 @@
         <v>453.1268</v>
       </c>
       <c r="G193" t="n">
+        <v>1008</v>
+      </c>
+      <c r="H193" t="n">
         <v>1015.333333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8032,24 +7943,21 @@
         <v>2761.4486</v>
       </c>
       <c r="G194" t="n">
+        <v>1007.866666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>1015.1</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8073,24 +7981,21 @@
         <v>9.8232</v>
       </c>
       <c r="G195" t="n">
+        <v>1007.666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1014.95</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,24 +8019,21 @@
         <v>280.9699</v>
       </c>
       <c r="G196" t="n">
+        <v>1007.466666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>1014.833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8155,24 +8057,21 @@
         <v>10579.6226</v>
       </c>
       <c r="G197" t="n">
+        <v>1006.933333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>1014.666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,24 +8095,21 @@
         <v>1318.8919</v>
       </c>
       <c r="G198" t="n">
+        <v>1006.466666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>1014.483333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8237,24 +8133,401 @@
         <v>489.6863</v>
       </c>
       <c r="G199" t="n">
+        <v>1006</v>
+      </c>
+      <c r="H199" t="n">
         <v>1014.316666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1020</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1005.8</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1014.15</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F201" t="n">
+        <v>562.8941</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1005.466666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1013.85</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>440.0729</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1013.533333333333</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F203" t="n">
+        <v>492.621</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1004.666666666667</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1013.316666666667</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F204" t="n">
+        <v>228.4011</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1004.4</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1013.116666666667</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1439.20295345</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1004.666666666667</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1013.033333333333</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C206" t="n">
+        <v>998</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E206" t="n">
+        <v>998</v>
+      </c>
+      <c r="F206" t="n">
+        <v>549.482</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1004.133333333333</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1012.683333333333</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="D207" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7077.9316</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1003.26</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1012.315</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>994.1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>994</v>
+      </c>
+      <c r="D208" t="n">
+        <v>994.1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>994</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1002.46</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1011.898333333333</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>994</v>
+      </c>
+      <c r="C209" t="n">
+        <v>994</v>
+      </c>
+      <c r="D209" t="n">
+        <v>994</v>
+      </c>
+      <c r="E209" t="n">
+        <v>994</v>
+      </c>
+      <c r="F209" t="n">
+        <v>544.0346</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1001.66</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1011.465</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C2" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="D2" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="E2" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>-5794.130999999999</v>
+        <v>1849.3007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>991</v>
+        <v>1012</v>
       </c>
       <c r="C3" t="n">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="D3" t="n">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="E3" t="n">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="G3" t="n">
-        <v>-5769.130999999999</v>
+        <v>2050.3007</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="C4" t="n">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="D4" t="n">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="E4" t="n">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>2413.3986</v>
       </c>
       <c r="G4" t="n">
-        <v>-5719.130999999999</v>
+        <v>4463.6993</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="C5" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="D5" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="E5" t="n">
-        <v>995</v>
+        <v>1017</v>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>535</v>
       </c>
       <c r="G5" t="n">
-        <v>-5719.130999999999</v>
+        <v>4998.6993</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="C6" t="n">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="D6" t="n">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="E6" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="F6" t="n">
-        <v>2411.1685</v>
+        <v>1282</v>
       </c>
       <c r="G6" t="n">
-        <v>-3307.962499999999</v>
+        <v>3716.6993</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996.5</v>
+        <v>1019</v>
       </c>
       <c r="C7" t="n">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="D7" t="n">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="E7" t="n">
-        <v>996.5</v>
+        <v>1019</v>
       </c>
       <c r="F7" t="n">
-        <v>325.8231</v>
+        <v>606.0351000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-2982.139399999999</v>
+        <v>4322.7344</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="C8" t="n">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="D8" t="n">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="E8" t="n">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="F8" t="n">
-        <v>352.8656</v>
+        <v>1682.6967</v>
       </c>
       <c r="G8" t="n">
-        <v>-2629.273799999999</v>
+        <v>2640.0377</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="C9" t="n">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="D9" t="n">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="E9" t="n">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="F9" t="n">
-        <v>234.4328</v>
+        <v>2801.49980743</v>
       </c>
       <c r="G9" t="n">
-        <v>-2629.273799999999</v>
+        <v>5441.537507430001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="C10" t="n">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="D10" t="n">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="E10" t="n">
-        <v>998</v>
+        <v>1021</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>665</v>
       </c>
       <c r="G10" t="n">
-        <v>-2629.273799999999</v>
+        <v>6106.537507430001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>998.9</v>
+        <v>1025</v>
       </c>
       <c r="C11" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="D11" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="E11" t="n">
-        <v>998.9</v>
+        <v>1025</v>
       </c>
       <c r="F11" t="n">
-        <v>2221.1811</v>
+        <v>275</v>
       </c>
       <c r="G11" t="n">
-        <v>-408.0926999999992</v>
+        <v>6381.537507430001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="C12" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="D12" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="E12" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="F12" t="n">
-        <v>71.7197</v>
+        <v>1163.55707317</v>
       </c>
       <c r="G12" t="n">
-        <v>-408.0926999999992</v>
+        <v>6381.537507430001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="C13" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="D13" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="E13" t="n">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="F13" t="n">
-        <v>962.5127</v>
+        <v>57.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-408.0926999999992</v>
+        <v>6324.137507430001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>999.6</v>
+        <v>1015</v>
       </c>
       <c r="C14" t="n">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D14" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E14" t="n">
-        <v>999.6</v>
+        <v>1012</v>
       </c>
       <c r="F14" t="n">
-        <v>48.4426</v>
+        <v>1034.5657</v>
       </c>
       <c r="G14" t="n">
-        <v>-359.6500999999993</v>
+        <v>5289.571807430001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C15" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="D15" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E15" t="n">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="F15" t="n">
-        <v>13.0702</v>
+        <v>1268.7949</v>
       </c>
       <c r="G15" t="n">
-        <v>-359.6500999999993</v>
+        <v>4020.776907430001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="C16" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="D16" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="E16" t="n">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="F16" t="n">
-        <v>357.5155</v>
+        <v>34.5</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.134599999999296</v>
+        <v>4055.276907430001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="C17" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="D17" t="n">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="E17" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="F17" t="n">
-        <v>315.7764</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>-317.9109999999993</v>
+        <v>4105.276907430001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="C18" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="D18" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E18" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="F18" t="n">
-        <v>1168.619</v>
+        <v>905</v>
       </c>
       <c r="G18" t="n">
-        <v>850.7080000000005</v>
+        <v>5010.276907430001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="C19" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="D19" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="E19" t="n">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="F19" t="n">
-        <v>170.6697</v>
+        <v>97.1665</v>
       </c>
       <c r="G19" t="n">
-        <v>680.0383000000005</v>
+        <v>5010.276907430001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>998.7</v>
+        <v>1025</v>
       </c>
       <c r="C20" t="n">
-        <v>994.1</v>
+        <v>1025</v>
       </c>
       <c r="D20" t="n">
-        <v>998.7</v>
+        <v>1025</v>
       </c>
       <c r="E20" t="n">
-        <v>994.1</v>
+        <v>1024</v>
       </c>
       <c r="F20" t="n">
-        <v>207.6183</v>
+        <v>1283.75242683</v>
       </c>
       <c r="G20" t="n">
-        <v>472.4200000000005</v>
+        <v>5010.276907430001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>990.3</v>
+        <v>1027</v>
       </c>
       <c r="C21" t="n">
-        <v>990.3</v>
+        <v>1030</v>
       </c>
       <c r="D21" t="n">
-        <v>990.3</v>
+        <v>1030</v>
       </c>
       <c r="E21" t="n">
-        <v>990.3</v>
+        <v>1027</v>
       </c>
       <c r="F21" t="n">
-        <v>77.1534</v>
+        <v>1955.9664</v>
       </c>
       <c r="G21" t="n">
-        <v>395.2666000000005</v>
+        <v>6966.243307430002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>990.4</v>
+        <v>1031</v>
       </c>
       <c r="C22" t="n">
-        <v>988.8</v>
+        <v>1033</v>
       </c>
       <c r="D22" t="n">
-        <v>990.4</v>
+        <v>1033</v>
       </c>
       <c r="E22" t="n">
-        <v>988.8</v>
+        <v>1031</v>
       </c>
       <c r="F22" t="n">
-        <v>1536.7665</v>
+        <v>5115.0587</v>
       </c>
       <c r="G22" t="n">
-        <v>-1141.499899999999</v>
+        <v>12081.30200743</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>988.8</v>
+        <v>1032</v>
       </c>
       <c r="C23" t="n">
-        <v>988.8</v>
+        <v>1029</v>
       </c>
       <c r="D23" t="n">
-        <v>988.8</v>
+        <v>1038</v>
       </c>
       <c r="E23" t="n">
-        <v>988.8</v>
+        <v>1029</v>
       </c>
       <c r="F23" t="n">
-        <v>1554.9638</v>
+        <v>19148.2715</v>
       </c>
       <c r="G23" t="n">
-        <v>-1141.499899999999</v>
+        <v>-7066.969492569999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>994.8</v>
+        <v>1029</v>
       </c>
       <c r="C24" t="n">
-        <v>994.8</v>
+        <v>1034</v>
       </c>
       <c r="D24" t="n">
-        <v>994.8</v>
+        <v>1034</v>
       </c>
       <c r="E24" t="n">
-        <v>994.8</v>
+        <v>1029</v>
       </c>
       <c r="F24" t="n">
-        <v>49.8324</v>
+        <v>258.536</v>
       </c>
       <c r="G24" t="n">
-        <v>-1091.667499999999</v>
+        <v>-6808.433492569999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>988.8</v>
+        <v>1031</v>
       </c>
       <c r="C25" t="n">
-        <v>980.6</v>
+        <v>1035</v>
       </c>
       <c r="D25" t="n">
-        <v>988.8</v>
+        <v>1035</v>
       </c>
       <c r="E25" t="n">
-        <v>973</v>
+        <v>1031</v>
       </c>
       <c r="F25" t="n">
-        <v>8142</v>
+        <v>2024.0154</v>
       </c>
       <c r="G25" t="n">
-        <v>-9233.6675</v>
+        <v>-4784.418092569998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="C26" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="D26" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="E26" t="n">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="F26" t="n">
-        <v>43.1029</v>
+        <v>3059.0221</v>
       </c>
       <c r="G26" t="n">
-        <v>-9190.5646</v>
+        <v>-1725.395992569998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="C27" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="D27" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="E27" t="n">
-        <v>990</v>
+        <v>1036</v>
       </c>
       <c r="F27" t="n">
-        <v>35.9</v>
+        <v>2939.2952</v>
       </c>
       <c r="G27" t="n">
-        <v>-9190.5646</v>
+        <v>-1725.395992569998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>994.8</v>
+        <v>1035</v>
       </c>
       <c r="C28" t="n">
-        <v>994.8</v>
+        <v>1035</v>
       </c>
       <c r="D28" t="n">
-        <v>994.8</v>
+        <v>1035</v>
       </c>
       <c r="E28" t="n">
-        <v>994.8</v>
+        <v>1035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6</v>
+        <v>394.1924</v>
       </c>
       <c r="G28" t="n">
-        <v>-9189.964599999999</v>
+        <v>-2119.588392569998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>994.8</v>
+        <v>1029</v>
       </c>
       <c r="C29" t="n">
-        <v>995.8</v>
+        <v>1032</v>
       </c>
       <c r="D29" t="n">
-        <v>995.8</v>
+        <v>1032</v>
       </c>
       <c r="E29" t="n">
-        <v>994.8</v>
+        <v>1027</v>
       </c>
       <c r="F29" t="n">
-        <v>1529.6987</v>
+        <v>4575.6693</v>
       </c>
       <c r="G29" t="n">
-        <v>-7660.265899999999</v>
+        <v>-6695.257692569998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="C30" t="n">
-        <v>999.2</v>
+        <v>1030</v>
       </c>
       <c r="D30" t="n">
-        <v>999.2</v>
+        <v>1030</v>
       </c>
       <c r="E30" t="n">
-        <v>998</v>
+        <v>1030</v>
       </c>
       <c r="F30" t="n">
-        <v>980</v>
+        <v>3.4648</v>
       </c>
       <c r="G30" t="n">
-        <v>-6680.265899999999</v>
+        <v>-6698.722492569997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>991.9</v>
+        <v>1030</v>
       </c>
       <c r="C31" t="n">
-        <v>991.9</v>
+        <v>1035</v>
       </c>
       <c r="D31" t="n">
-        <v>991.9</v>
+        <v>1035</v>
       </c>
       <c r="E31" t="n">
-        <v>991.9</v>
+        <v>1030</v>
       </c>
       <c r="F31" t="n">
-        <v>14.8554</v>
+        <v>1233.4562</v>
       </c>
       <c r="G31" t="n">
-        <v>-6695.1213</v>
+        <v>-5465.266292569997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>989</v>
+        <v>1034</v>
       </c>
       <c r="C32" t="n">
-        <v>984.3</v>
+        <v>1030</v>
       </c>
       <c r="D32" t="n">
-        <v>989</v>
+        <v>1035</v>
       </c>
       <c r="E32" t="n">
-        <v>984.3</v>
+        <v>1030</v>
       </c>
       <c r="F32" t="n">
-        <v>150</v>
+        <v>965.172</v>
       </c>
       <c r="G32" t="n">
-        <v>-6845.1213</v>
+        <v>-6430.438292569997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>981.3</v>
+        <v>1035</v>
       </c>
       <c r="C33" t="n">
-        <v>971</v>
+        <v>1035</v>
       </c>
       <c r="D33" t="n">
-        <v>981.3</v>
+        <v>1035</v>
       </c>
       <c r="E33" t="n">
-        <v>971</v>
+        <v>1035</v>
       </c>
       <c r="F33" t="n">
-        <v>2462.371</v>
+        <v>92.2325</v>
       </c>
       <c r="G33" t="n">
-        <v>-9307.4923</v>
+        <v>-6338.205792569997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>985</v>
+        <v>1035</v>
       </c>
       <c r="C34" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="D34" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="E34" t="n">
-        <v>985</v>
+        <v>1035</v>
       </c>
       <c r="F34" t="n">
-        <v>44.2788</v>
+        <v>1737.3294</v>
       </c>
       <c r="G34" t="n">
-        <v>-9263.2135</v>
+        <v>-4600.876392569997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="C35" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="D35" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="E35" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="F35" t="n">
-        <v>205</v>
+        <v>20.0669</v>
       </c>
       <c r="G35" t="n">
-        <v>-9263.2135</v>
+        <v>-4600.876392569997</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>986</v>
+        <v>1037</v>
       </c>
       <c r="C36" t="n">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="D36" t="n">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="E36" t="n">
-        <v>986</v>
+        <v>1037</v>
       </c>
       <c r="F36" t="n">
-        <v>2049.2213</v>
+        <v>2096.9945</v>
       </c>
       <c r="G36" t="n">
-        <v>-7213.9922</v>
+        <v>-2503.881892569997</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>990</v>
+        <v>1038</v>
       </c>
       <c r="C37" t="n">
-        <v>990</v>
+        <v>1038</v>
       </c>
       <c r="D37" t="n">
-        <v>990</v>
+        <v>1038</v>
       </c>
       <c r="E37" t="n">
-        <v>990</v>
+        <v>1038</v>
       </c>
       <c r="F37" t="n">
-        <v>4570</v>
+        <v>3499.1938</v>
       </c>
       <c r="G37" t="n">
-        <v>-7213.9922</v>
+        <v>-6003.075692569997</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="C38" t="n">
-        <v>992</v>
+        <v>1040</v>
       </c>
       <c r="D38" t="n">
-        <v>992</v>
+        <v>1040</v>
       </c>
       <c r="E38" t="n">
-        <v>990</v>
+        <v>1039</v>
       </c>
       <c r="F38" t="n">
-        <v>2355</v>
+        <v>1724.8801</v>
       </c>
       <c r="G38" t="n">
-        <v>-4858.9922</v>
+        <v>-4278.195592569997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>992.9</v>
+        <v>1039</v>
       </c>
       <c r="C39" t="n">
-        <v>994</v>
+        <v>1034</v>
       </c>
       <c r="D39" t="n">
-        <v>994</v>
+        <v>1039</v>
       </c>
       <c r="E39" t="n">
-        <v>992.9</v>
+        <v>1034</v>
       </c>
       <c r="F39" t="n">
-        <v>1475.9563</v>
+        <v>1090.5</v>
       </c>
       <c r="G39" t="n">
-        <v>-3383.0359</v>
+        <v>-5368.695592569997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>994</v>
+        <v>1040</v>
       </c>
       <c r="C40" t="n">
-        <v>995</v>
+        <v>1036</v>
       </c>
       <c r="D40" t="n">
-        <v>995</v>
+        <v>1040</v>
       </c>
       <c r="E40" t="n">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="F40" t="n">
-        <v>541</v>
+        <v>5378.0515</v>
       </c>
       <c r="G40" t="n">
-        <v>-2842.0359</v>
+        <v>9.355907430002844</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>997</v>
+        <v>1034</v>
       </c>
       <c r="C41" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="D41" t="n">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="E41" t="n">
-        <v>997</v>
+        <v>1034</v>
       </c>
       <c r="F41" t="n">
-        <v>1172.4495</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>-1669.5864</v>
+        <v>-40.64409256999716</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="C42" t="n">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="D42" t="n">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="E42" t="n">
-        <v>1002</v>
+        <v>1034</v>
       </c>
       <c r="F42" t="n">
-        <v>1040</v>
+        <v>119.2543</v>
       </c>
       <c r="G42" t="n">
-        <v>-629.5863999999999</v>
+        <v>-40.64409256999716</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="C43" t="n">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="D43" t="n">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="E43" t="n">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="F43" t="n">
-        <v>2578.8871</v>
+        <v>892.5632000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>1949.3007</v>
+        <v>851.9191074300029</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="C44" t="n">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="D44" t="n">
-        <v>1009</v>
+        <v>1039</v>
       </c>
       <c r="E44" t="n">
-        <v>1009</v>
+        <v>1036</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>2277.5145</v>
       </c>
       <c r="G44" t="n">
-        <v>1849.3007</v>
+        <v>3129.433607430003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="C45" t="n">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="D45" t="n">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="E45" t="n">
-        <v>1009</v>
+        <v>1040</v>
       </c>
       <c r="F45" t="n">
-        <v>201</v>
+        <v>3330.6098</v>
       </c>
       <c r="G45" t="n">
-        <v>2050.3007</v>
+        <v>6460.043407430003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1010</v>
+        <v>1035</v>
       </c>
       <c r="C46" t="n">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="D46" t="n">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="E46" t="n">
-        <v>1010</v>
+        <v>1035</v>
       </c>
       <c r="F46" t="n">
-        <v>2413.3986</v>
+        <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>4463.6993</v>
+        <v>6435.043407430003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="C47" t="n">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="D47" t="n">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="E47" t="n">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="F47" t="n">
-        <v>535</v>
+        <v>10164.5984</v>
       </c>
       <c r="G47" t="n">
-        <v>4998.6993</v>
+        <v>-3729.554992569998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="C48" t="n">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="D48" t="n">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="E48" t="n">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="F48" t="n">
-        <v>1282</v>
+        <v>18276.9339</v>
       </c>
       <c r="G48" t="n">
-        <v>3716.6993</v>
+        <v>-22006.48889257</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="C49" t="n">
         <v>1020</v>
       </c>
       <c r="D49" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E49" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F49" t="n">
-        <v>606.0351000000001</v>
+        <v>1269.9883</v>
       </c>
       <c r="G49" t="n">
-        <v>4322.7344</v>
+        <v>-23276.47719257</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C50" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="D50" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E50" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="F50" t="n">
-        <v>1682.6967</v>
+        <v>90.65219999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>2640.0377</v>
+        <v>-23276.47719257</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C51" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="D51" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E51" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="F51" t="n">
-        <v>2801.49980743</v>
+        <v>507.5019</v>
       </c>
       <c r="G51" t="n">
-        <v>5441.537507430001</v>
+        <v>-23276.47719257</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C52" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D52" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E52" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F52" t="n">
-        <v>665</v>
+        <v>732.9083000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>6106.537507430001</v>
+        <v>-23276.47719257</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C53" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D53" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E53" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F53" t="n">
-        <v>275</v>
+        <v>263.1516</v>
       </c>
       <c r="G53" t="n">
-        <v>6381.537507430001</v>
+        <v>-23013.32559257</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C54" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D54" t="n">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E54" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F54" t="n">
-        <v>1163.55707317</v>
+        <v>2395</v>
       </c>
       <c r="G54" t="n">
-        <v>6381.537507430001</v>
+        <v>-25408.32559257</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C55" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D55" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E55" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F55" t="n">
-        <v>57.4</v>
+        <v>170.3627</v>
       </c>
       <c r="G55" t="n">
-        <v>6324.137507430001</v>
+        <v>-25578.68829257</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C56" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="D56" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E56" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F56" t="n">
-        <v>1034.5657</v>
+        <v>3187.4814</v>
       </c>
       <c r="G56" t="n">
-        <v>5289.571807430001</v>
+        <v>-28766.16969257</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C57" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D57" t="n">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="E57" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F57" t="n">
-        <v>1268.7949</v>
+        <v>770.8599</v>
       </c>
       <c r="G57" t="n">
-        <v>4020.776907430001</v>
+        <v>-29537.02959257</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D58" t="n">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E58" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F58" t="n">
-        <v>34.5</v>
+        <v>3012.1444</v>
       </c>
       <c r="G58" t="n">
-        <v>4055.276907430001</v>
+        <v>-29537.02959257</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="C59" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D59" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="E59" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>35.5584</v>
       </c>
       <c r="G59" t="n">
-        <v>4105.276907430001</v>
+        <v>-29501.47119257</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C60" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D60" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E60" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F60" t="n">
-        <v>905</v>
+        <v>163.0345</v>
       </c>
       <c r="G60" t="n">
-        <v>5010.276907430001</v>
+        <v>-29338.43669257</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C61" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D61" t="n">
         <v>1025</v>
       </c>
       <c r="E61" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F61" t="n">
-        <v>97.1665</v>
+        <v>210.2234</v>
       </c>
       <c r="G61" t="n">
-        <v>5010.276907430001</v>
+        <v>-29338.43669257</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C62" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D62" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E62" t="n">
         <v>1024</v>
       </c>
       <c r="F62" t="n">
-        <v>1283.75242683</v>
+        <v>2689.6716</v>
       </c>
       <c r="G62" t="n">
-        <v>5010.276907430001</v>
+        <v>-29338.43669257</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C63" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D63" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="E63" t="n">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="F63" t="n">
-        <v>1955.9664</v>
+        <v>1846.436</v>
       </c>
       <c r="G63" t="n">
-        <v>6966.243307430002</v>
+        <v>-31184.87269257</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C64" t="n">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="D64" t="n">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E64" t="n">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="F64" t="n">
-        <v>5115.0587</v>
+        <v>1163.557</v>
       </c>
       <c r="G64" t="n">
-        <v>12081.30200743</v>
+        <v>-32348.42969257</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="C65" t="n">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D65" t="n">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E65" t="n">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F65" t="n">
-        <v>19148.2715</v>
+        <v>3010.5</v>
       </c>
       <c r="G65" t="n">
-        <v>-7066.969492569999</v>
+        <v>-29337.92969257</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C66" t="n">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="D66" t="n">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="E66" t="n">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="F66" t="n">
-        <v>258.536</v>
+        <v>6511.967</v>
       </c>
       <c r="G66" t="n">
-        <v>-6808.433492569999</v>
+        <v>-35849.89669257</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="C67" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D67" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="E67" t="n">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="F67" t="n">
-        <v>2024.0154</v>
+        <v>253.7942</v>
       </c>
       <c r="G67" t="n">
-        <v>-4784.418092569998</v>
+        <v>-35596.10249257</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C68" t="n">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D68" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="E68" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F68" t="n">
-        <v>3059.0221</v>
+        <v>1057.1379</v>
       </c>
       <c r="G68" t="n">
-        <v>-1725.395992569998</v>
+        <v>-34538.96459257</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="C69" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="D69" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="E69" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="F69" t="n">
-        <v>2939.2952</v>
+        <v>381.2843</v>
       </c>
       <c r="G69" t="n">
-        <v>-1725.395992569998</v>
+        <v>-34157.68029257</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="C70" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D70" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="E70" t="n">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="F70" t="n">
-        <v>394.1924</v>
+        <v>45.5</v>
       </c>
       <c r="G70" t="n">
-        <v>-2119.588392569998</v>
+        <v>-34203.18029257</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C71" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D71" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E71" t="n">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F71" t="n">
-        <v>4575.6693</v>
+        <v>3195.8729</v>
       </c>
       <c r="G71" t="n">
-        <v>-6695.257692569998</v>
+        <v>-31007.30739257</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C72" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="D72" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="E72" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F72" t="n">
-        <v>3.4648</v>
+        <v>3.1225</v>
       </c>
       <c r="G72" t="n">
-        <v>-6698.722492569997</v>
+        <v>-31010.42989257001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C73" t="n">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="D73" t="n">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="E73" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="F73" t="n">
-        <v>1233.4562</v>
+        <v>1573.3841</v>
       </c>
       <c r="G73" t="n">
-        <v>-5465.266292569997</v>
+        <v>-32583.81399257001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="C74" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D74" t="n">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="E74" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="F74" t="n">
-        <v>965.172</v>
+        <v>860</v>
       </c>
       <c r="G74" t="n">
-        <v>-6430.438292569997</v>
+        <v>-31723.81399257001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C75" t="n">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="D75" t="n">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="E75" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F75" t="n">
-        <v>92.2325</v>
+        <v>3500</v>
       </c>
       <c r="G75" t="n">
-        <v>-6338.205792569997</v>
+        <v>-28223.81399257001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="C76" t="n">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="D76" t="n">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="E76" t="n">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="F76" t="n">
-        <v>1737.3294</v>
+        <v>1695</v>
       </c>
       <c r="G76" t="n">
-        <v>-4600.876392569997</v>
+        <v>-29918.81399257001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="C77" t="n">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="D77" t="n">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="E77" t="n">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="F77" t="n">
-        <v>20.0669</v>
+        <v>4295.769</v>
       </c>
       <c r="G77" t="n">
-        <v>-4600.876392569997</v>
+        <v>-34214.58299257001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="C78" t="n">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="D78" t="n">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="E78" t="n">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="F78" t="n">
-        <v>2096.9945</v>
+        <v>1159.1542</v>
       </c>
       <c r="G78" t="n">
-        <v>-2503.881892569997</v>
+        <v>-33055.42879257001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="C79" t="n">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="D79" t="n">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E79" t="n">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="F79" t="n">
-        <v>3499.1938</v>
+        <v>2681.7969</v>
       </c>
       <c r="G79" t="n">
-        <v>-6003.075692569997</v>
+        <v>-30373.63189257001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="C80" t="n">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="D80" t="n">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="E80" t="n">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="F80" t="n">
-        <v>1724.8801</v>
+        <v>2925.0743</v>
       </c>
       <c r="G80" t="n">
-        <v>-4278.195592569997</v>
+        <v>-33298.70619257001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="C81" t="n">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="D81" t="n">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="E81" t="n">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="F81" t="n">
-        <v>1090.5</v>
+        <v>1834.6999</v>
       </c>
       <c r="G81" t="n">
-        <v>-5368.695592569997</v>
+        <v>-31464.00629257001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="C82" t="n">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="D82" t="n">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="E82" t="n">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="F82" t="n">
-        <v>5378.0515</v>
+        <v>179.1963</v>
       </c>
       <c r="G82" t="n">
-        <v>9.355907430002844</v>
+        <v>-31643.20259257001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="C83" t="n">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="D83" t="n">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="E83" t="n">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>14.4695</v>
       </c>
       <c r="G83" t="n">
-        <v>-40.64409256999716</v>
+        <v>-31657.67209257001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="C84" t="n">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="D84" t="n">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="E84" t="n">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="F84" t="n">
-        <v>119.2543</v>
+        <v>210</v>
       </c>
       <c r="G84" t="n">
-        <v>-40.64409256999716</v>
+        <v>-31867.67209257001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="C85" t="n">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="D85" t="n">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="E85" t="n">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="F85" t="n">
-        <v>892.5632000000001</v>
+        <v>4554.7632</v>
       </c>
       <c r="G85" t="n">
-        <v>851.9191074300029</v>
+        <v>-36422.43529257001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="C86" t="n">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="D86" t="n">
-        <v>1039</v>
+        <v>1005</v>
       </c>
       <c r="E86" t="n">
-        <v>1036</v>
+        <v>1004</v>
       </c>
       <c r="F86" t="n">
-        <v>2277.5145</v>
+        <v>293.3841</v>
       </c>
       <c r="G86" t="n">
-        <v>3129.433607430003</v>
+        <v>-36715.81939257001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="C87" t="n">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="D87" t="n">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="E87" t="n">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="F87" t="n">
-        <v>3330.6098</v>
+        <v>188.5549</v>
       </c>
       <c r="G87" t="n">
-        <v>6460.043407430003</v>
+        <v>-36527.26449257001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="C88" t="n">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="D88" t="n">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="E88" t="n">
-        <v>1035</v>
+        <v>1009</v>
       </c>
       <c r="F88" t="n">
-        <v>25</v>
+        <v>97.05346534</v>
       </c>
       <c r="G88" t="n">
-        <v>6435.043407430003</v>
+        <v>-36430.21102723001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +3563,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="C89" t="n">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="D89" t="n">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="E89" t="n">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="F89" t="n">
-        <v>10164.5984</v>
+        <v>1.6</v>
       </c>
       <c r="G89" t="n">
-        <v>-3729.554992569998</v>
+        <v>-36431.81102723</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +3599,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="C90" t="n">
-        <v>1025</v>
+        <v>1011</v>
       </c>
       <c r="D90" t="n">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="E90" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="F90" t="n">
-        <v>18276.9339</v>
+        <v>5152.5455</v>
       </c>
       <c r="G90" t="n">
-        <v>-22006.48889257</v>
+        <v>-31279.26552723</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C91" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D91" t="n">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E91" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F91" t="n">
-        <v>1269.9883</v>
+        <v>1200</v>
       </c>
       <c r="G91" t="n">
-        <v>-23276.47719257</v>
+        <v>-31279.26552723</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C92" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D92" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="E92" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F92" t="n">
-        <v>90.65219999999999</v>
+        <v>3260.134</v>
       </c>
       <c r="G92" t="n">
-        <v>-23276.47719257</v>
+        <v>-31279.26552723</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C93" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D93" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="E93" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F93" t="n">
-        <v>507.5019</v>
+        <v>8684.8282</v>
       </c>
       <c r="G93" t="n">
-        <v>-23276.47719257</v>
+        <v>-31279.26552723</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C94" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D94" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="E94" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F94" t="n">
-        <v>732.9083000000001</v>
+        <v>1194.2687</v>
       </c>
       <c r="G94" t="n">
-        <v>-23276.47719257</v>
+        <v>-31279.26552723</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="C95" t="n">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="D95" t="n">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="E95" t="n">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="F95" t="n">
-        <v>263.1516</v>
+        <v>2929.4322</v>
       </c>
       <c r="G95" t="n">
-        <v>-23013.32559257</v>
+        <v>-34208.69772723001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C96" t="n">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="D96" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="E96" t="n">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="F96" t="n">
-        <v>2395</v>
+        <v>418.8232</v>
       </c>
       <c r="G96" t="n">
-        <v>-25408.32559257</v>
+        <v>-33789.87452723001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C97" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D97" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E97" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F97" t="n">
-        <v>170.3627</v>
+        <v>234.9437</v>
       </c>
       <c r="G97" t="n">
-        <v>-25578.68829257</v>
+        <v>-34024.81822723001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="C98" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="D98" t="n">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E98" t="n">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F98" t="n">
-        <v>3187.4814</v>
+        <v>925.8382</v>
       </c>
       <c r="G98" t="n">
-        <v>-28766.16969257</v>
+        <v>-33098.98002723001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C99" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D99" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E99" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F99" t="n">
-        <v>770.8599</v>
+        <v>1913.4057</v>
       </c>
       <c r="G99" t="n">
-        <v>-29537.02959257</v>
+        <v>-31185.57432723001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C100" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D100" t="n">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E100" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F100" t="n">
-        <v>3012.1444</v>
+        <v>19</v>
       </c>
       <c r="G100" t="n">
-        <v>-29537.02959257</v>
+        <v>-31185.57432723001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C101" t="n">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="D101" t="n">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="E101" t="n">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F101" t="n">
-        <v>35.5584</v>
+        <v>92</v>
       </c>
       <c r="G101" t="n">
-        <v>-29501.47119257</v>
+        <v>-31277.57432723001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="C102" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="D102" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="E102" t="n">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F102" t="n">
-        <v>163.0345</v>
+        <v>305.2075</v>
       </c>
       <c r="G102" t="n">
-        <v>-29338.43669257</v>
+        <v>-30972.36682723001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="C103" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="D103" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="E103" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="F103" t="n">
-        <v>210.2234</v>
+        <v>230.029</v>
       </c>
       <c r="G103" t="n">
-        <v>-29338.43669257</v>
+        <v>-30972.36682723001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="C104" t="n">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="D104" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="E104" t="n">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="F104" t="n">
-        <v>2689.6716</v>
+        <v>540.1683</v>
       </c>
       <c r="G104" t="n">
-        <v>-29338.43669257</v>
+        <v>-31512.53512723001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="C105" t="n">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="D105" t="n">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E105" t="n">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="F105" t="n">
-        <v>1846.436</v>
+        <v>759.4853000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-31184.87269257</v>
+        <v>-31512.53512723001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C106" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D106" t="n">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E106" t="n">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F106" t="n">
-        <v>1163.557</v>
+        <v>237.6739</v>
       </c>
       <c r="G106" t="n">
-        <v>-32348.42969257</v>
+        <v>-31274.86122723001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C107" t="n">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="D107" t="n">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="E107" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F107" t="n">
-        <v>3010.5</v>
+        <v>124.6357</v>
       </c>
       <c r="G107" t="n">
-        <v>-29337.92969257</v>
+        <v>-31150.22552723001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C108" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D108" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E108" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="F108" t="n">
-        <v>6511.967</v>
+        <v>586.4131</v>
       </c>
       <c r="G108" t="n">
-        <v>-35849.89669257</v>
+        <v>-31736.63862723002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C109" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D109" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E109" t="n">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F109" t="n">
-        <v>253.7942</v>
+        <v>666.72</v>
       </c>
       <c r="G109" t="n">
-        <v>-35596.10249257</v>
+        <v>-31069.91862723001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C110" t="n">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="D110" t="n">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E110" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="F110" t="n">
-        <v>1057.1379</v>
+        <v>738.6816</v>
       </c>
       <c r="G110" t="n">
-        <v>-34538.96459257</v>
+        <v>-31069.91862723001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="C111" t="n">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="D111" t="n">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="E111" t="n">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="F111" t="n">
-        <v>381.2843</v>
+        <v>102.5097</v>
       </c>
       <c r="G111" t="n">
-        <v>-34157.68029257</v>
+        <v>-30967.40892723002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="C112" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D112" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="E112" t="n">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F112" t="n">
-        <v>45.5</v>
+        <v>641.9471</v>
       </c>
       <c r="G112" t="n">
-        <v>-34203.18029257</v>
+        <v>-30967.40892723002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="C113" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="D113" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="E113" t="n">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="F113" t="n">
-        <v>3195.8729</v>
+        <v>341.575</v>
       </c>
       <c r="G113" t="n">
-        <v>-31007.30739257</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C114" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D114" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E114" t="n">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="F114" t="n">
-        <v>3.1225</v>
+        <v>335.266</v>
       </c>
       <c r="G114" t="n">
-        <v>-31010.42989257001</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C115" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D115" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E115" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F115" t="n">
-        <v>1573.3841</v>
+        <v>0.0001</v>
       </c>
       <c r="G115" t="n">
-        <v>-32583.81399257001</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C116" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D116" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E116" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F116" t="n">
-        <v>860</v>
+        <v>4278.148</v>
       </c>
       <c r="G116" t="n">
-        <v>-31723.81399257001</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="C117" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="D117" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="E117" t="n">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F117" t="n">
-        <v>3500</v>
+        <v>663.962</v>
       </c>
       <c r="G117" t="n">
-        <v>-28223.81399257001</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C118" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D118" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E118" t="n">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F118" t="n">
-        <v>1695</v>
+        <v>162.3119</v>
       </c>
       <c r="G118" t="n">
-        <v>-29918.81399257001</v>
+        <v>-30625.83392723001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4531,19 +4653,19 @@
         <v>1019</v>
       </c>
       <c r="C119" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D119" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E119" t="n">
         <v>1019</v>
       </c>
-      <c r="E119" t="n">
-        <v>1018</v>
-      </c>
       <c r="F119" t="n">
-        <v>4295.769</v>
+        <v>83.2248</v>
       </c>
       <c r="G119" t="n">
-        <v>-34214.58299257001</v>
+        <v>-30542.60912723001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C120" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D120" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E120" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F120" t="n">
-        <v>1159.1542</v>
+        <v>640.1943</v>
       </c>
       <c r="G120" t="n">
-        <v>-33055.42879257001</v>
+        <v>-30542.60912723001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C121" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="D121" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E121" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F121" t="n">
-        <v>2681.7969</v>
+        <v>210.8896</v>
       </c>
       <c r="G121" t="n">
-        <v>-30373.63189257001</v>
+        <v>-30542.60912723001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="C122" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D122" t="n">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="E122" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F122" t="n">
-        <v>2925.0743</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>-33298.70619257001</v>
+        <v>-30547.60912723001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C123" t="n">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D123" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="E123" t="n">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F123" t="n">
-        <v>1834.6999</v>
+        <v>4294.991</v>
       </c>
       <c r="G123" t="n">
-        <v>-31464.00629257001</v>
+        <v>-34842.60012723001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C124" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D124" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E124" t="n">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F124" t="n">
-        <v>179.1963</v>
+        <v>504.342</v>
       </c>
       <c r="G124" t="n">
-        <v>-31643.20259257001</v>
+        <v>-34338.25812723002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E125" t="n">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F125" t="n">
-        <v>14.4695</v>
+        <v>242.3802</v>
       </c>
       <c r="G125" t="n">
-        <v>-31657.67209257001</v>
+        <v>-34095.87792723002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C126" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D126" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E126" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F126" t="n">
-        <v>210</v>
+        <v>124.4242</v>
       </c>
       <c r="G126" t="n">
-        <v>-31867.67209257001</v>
+        <v>-34220.30212723002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C127" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="D127" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E127" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="F127" t="n">
-        <v>4554.7632</v>
+        <v>912.2861</v>
       </c>
       <c r="G127" t="n">
-        <v>-36422.43529257001</v>
+        <v>-34220.30212723002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="C128" t="n">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="D128" t="n">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="E128" t="n">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="F128" t="n">
-        <v>293.3841</v>
+        <v>62.3887</v>
       </c>
       <c r="G128" t="n">
-        <v>-36715.81939257001</v>
+        <v>-34157.91342723001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C129" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="D129" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="E129" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F129" t="n">
-        <v>188.5549</v>
+        <v>97.20910000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-36527.26449257001</v>
+        <v>-34157.91342723001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C130" t="n">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="D130" t="n">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="E130" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F130" t="n">
-        <v>97.05346534</v>
+        <v>86.1855</v>
       </c>
       <c r="G130" t="n">
-        <v>-36430.21102723001</v>
+        <v>-34157.91342723001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C131" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="D131" t="n">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="E131" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="F131" t="n">
-        <v>1.6</v>
+        <v>359.0466</v>
       </c>
       <c r="G131" t="n">
-        <v>-36431.81102723</v>
+        <v>-34157.91342723001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C132" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D132" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="E132" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="F132" t="n">
-        <v>5152.5455</v>
+        <v>2011.1725</v>
       </c>
       <c r="G132" t="n">
-        <v>-31279.26552723</v>
+        <v>-36169.08592723001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C133" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D133" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E133" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F133" t="n">
-        <v>1200</v>
+        <v>7</v>
       </c>
       <c r="G133" t="n">
-        <v>-31279.26552723</v>
+        <v>-36162.08592723001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C134" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D134" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="E134" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="F134" t="n">
-        <v>3260.134</v>
+        <v>1095.076</v>
       </c>
       <c r="G134" t="n">
-        <v>-31279.26552723</v>
+        <v>-37257.16192723002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C135" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D135" t="n">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="E135" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="F135" t="n">
-        <v>8684.8282</v>
+        <v>826.7814</v>
       </c>
       <c r="G135" t="n">
-        <v>-31279.26552723</v>
+        <v>-36430.38052723002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C136" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="D136" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="E136" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="F136" t="n">
-        <v>1194.2687</v>
+        <v>1362.9524</v>
       </c>
       <c r="G136" t="n">
-        <v>-31279.26552723</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="C137" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="D137" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="E137" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="F137" t="n">
-        <v>2929.4322</v>
+        <v>1865.6173</v>
       </c>
       <c r="G137" t="n">
-        <v>-34208.69772723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C138" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="D138" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E138" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F138" t="n">
-        <v>418.8232</v>
+        <v>109.4928</v>
       </c>
       <c r="G138" t="n">
-        <v>-33789.87452723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="C139" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="D139" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="E139" t="n">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="F139" t="n">
-        <v>234.9437</v>
+        <v>185</v>
       </c>
       <c r="G139" t="n">
-        <v>-34024.81822723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C140" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="D140" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E140" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F140" t="n">
-        <v>925.8382</v>
+        <v>195</v>
       </c>
       <c r="G140" t="n">
-        <v>-33098.98002723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="C141" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="D141" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="E141" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F141" t="n">
-        <v>1913.4057</v>
+        <v>775</v>
       </c>
       <c r="G141" t="n">
-        <v>-31185.57432723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C142" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="D142" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="E142" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="F142" t="n">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>-31185.57432723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C143" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D143" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E143" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F143" t="n">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="G143" t="n">
-        <v>-31277.57432723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C144" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="D144" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E144" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F144" t="n">
-        <v>305.2075</v>
+        <v>236</v>
       </c>
       <c r="G144" t="n">
-        <v>-30972.36682723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C145" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="D145" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E145" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="F145" t="n">
-        <v>230.029</v>
+        <v>255</v>
       </c>
       <c r="G145" t="n">
-        <v>-30972.36682723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C146" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D146" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E146" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F146" t="n">
-        <v>540.1683</v>
+        <v>375</v>
       </c>
       <c r="G146" t="n">
-        <v>-31512.53512723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C147" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D147" t="n">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="E147" t="n">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="F147" t="n">
-        <v>759.4853000000001</v>
+        <v>630</v>
       </c>
       <c r="G147" t="n">
-        <v>-31512.53512723001</v>
+        <v>-35067.42812723001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="C148" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="D148" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="E148" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="F148" t="n">
-        <v>237.6739</v>
+        <v>4104.1653</v>
       </c>
       <c r="G148" t="n">
-        <v>-31274.86122723001</v>
+        <v>-39171.59342723001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C149" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="D149" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="E149" t="n">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F149" t="n">
-        <v>124.6357</v>
+        <v>64.9986</v>
       </c>
       <c r="G149" t="n">
-        <v>-31150.22552723001</v>
+        <v>-39171.59342723001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C150" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="D150" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E150" t="n">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="F150" t="n">
-        <v>586.4131</v>
+        <v>6018.7051</v>
       </c>
       <c r="G150" t="n">
-        <v>-31736.63862723002</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C151" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D151" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E151" t="n">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="F151" t="n">
-        <v>666.72</v>
+        <v>1363.7311</v>
       </c>
       <c r="G151" t="n">
-        <v>-31069.91862723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C152" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D152" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="E152" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="F152" t="n">
-        <v>738.6816</v>
+        <v>2345.3229</v>
       </c>
       <c r="G152" t="n">
-        <v>-31069.91862723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C153" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D153" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E153" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="F153" t="n">
-        <v>102.5097</v>
+        <v>230</v>
       </c>
       <c r="G153" t="n">
-        <v>-30967.40892723002</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C154" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D154" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="E154" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="F154" t="n">
-        <v>641.9471</v>
+        <v>750</v>
       </c>
       <c r="G154" t="n">
-        <v>-30967.40892723002</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C155" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D155" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E155" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F155" t="n">
-        <v>341.575</v>
+        <v>830</v>
       </c>
       <c r="G155" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C156" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D156" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E156" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F156" t="n">
-        <v>335.266</v>
+        <v>1490</v>
       </c>
       <c r="G156" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C157" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D157" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E157" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0001</v>
+        <v>1775</v>
       </c>
       <c r="G157" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C158" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D158" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E158" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F158" t="n">
-        <v>4278.148</v>
+        <v>585</v>
       </c>
       <c r="G158" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C159" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D159" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E159" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F159" t="n">
-        <v>663.962</v>
+        <v>38.401</v>
       </c>
       <c r="G159" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C160" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D160" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E160" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="F160" t="n">
-        <v>162.3119</v>
+        <v>58.0174</v>
       </c>
       <c r="G160" t="n">
-        <v>-30625.83392723001</v>
+        <v>-33152.88832723002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5992,6 +6155,7 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6001,19 +6165,19 @@
         <v>1019</v>
       </c>
       <c r="C161" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D161" t="n">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E161" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F161" t="n">
-        <v>83.2248</v>
+        <v>767.6346</v>
       </c>
       <c r="G161" t="n">
-        <v>-30542.60912723001</v>
+        <v>-33920.52292723001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6027,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C162" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D162" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="E162" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F162" t="n">
-        <v>640.1943</v>
+        <v>1227.3991</v>
       </c>
       <c r="G162" t="n">
-        <v>-30542.60912723001</v>
+        <v>-35147.92202723002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C163" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D163" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="E163" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F163" t="n">
-        <v>210.8896</v>
+        <v>271.0139</v>
       </c>
       <c r="G163" t="n">
-        <v>-30542.60912723001</v>
+        <v>-35147.92202723002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6097,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C164" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D164" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E164" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F164" t="n">
-        <v>5</v>
+        <v>14.2881</v>
       </c>
       <c r="G164" t="n">
-        <v>-30547.60912723001</v>
+        <v>-35162.21012723001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C165" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D165" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="E165" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F165" t="n">
-        <v>4294.991</v>
+        <v>58.2329</v>
       </c>
       <c r="G165" t="n">
-        <v>-34842.60012723001</v>
+        <v>-35220.44302723002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6167,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C166" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D166" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E166" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F166" t="n">
-        <v>504.342</v>
+        <v>42.0983</v>
       </c>
       <c r="G166" t="n">
-        <v>-34338.25812723002</v>
+        <v>-35178.34472723002</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6202,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C167" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D167" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E167" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F167" t="n">
-        <v>242.3802</v>
+        <v>661.9388</v>
       </c>
       <c r="G167" t="n">
-        <v>-34095.87792723002</v>
+        <v>-35178.34472723002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6237,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C168" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D168" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E168" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F168" t="n">
-        <v>124.4242</v>
+        <v>29.8849</v>
       </c>
       <c r="G168" t="n">
-        <v>-34220.30212723002</v>
+        <v>-35178.34472723002</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6272,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C169" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D169" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E169" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F169" t="n">
-        <v>912.2861</v>
+        <v>6.5202</v>
       </c>
       <c r="G169" t="n">
-        <v>-34220.30212723002</v>
+        <v>-35171.82452723002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6307,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="C170" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="D170" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="E170" t="n">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F170" t="n">
-        <v>62.3887</v>
+        <v>123.7986</v>
       </c>
       <c r="G170" t="n">
-        <v>-34157.91342723001</v>
+        <v>-35295.62312723002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6342,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C171" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="D171" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="E171" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="F171" t="n">
-        <v>97.20910000000001</v>
+        <v>118.1311</v>
       </c>
       <c r="G171" t="n">
-        <v>-34157.91342723001</v>
+        <v>-35295.62312723002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6377,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="C172" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D172" t="n">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="E172" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F172" t="n">
-        <v>86.1855</v>
+        <v>696.4432</v>
       </c>
       <c r="G172" t="n">
-        <v>-34157.91342723001</v>
+        <v>-35992.06632723002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6412,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C173" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D173" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E173" t="n">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="F173" t="n">
-        <v>359.0466</v>
+        <v>4.4057</v>
       </c>
       <c r="G173" t="n">
-        <v>-34157.91342723001</v>
+        <v>-35992.06632723002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6447,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="C174" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D174" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E174" t="n">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F174" t="n">
-        <v>2011.1725</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>-36169.08592723001</v>
+        <v>-35991.06632723002</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6482,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C175" t="n">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="D175" t="n">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E175" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F175" t="n">
-        <v>7</v>
+        <v>1115.8647</v>
       </c>
       <c r="G175" t="n">
-        <v>-36162.08592723001</v>
+        <v>-34875.20162723002</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6517,28 +6695,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="C176" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D176" t="n">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E176" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="F176" t="n">
-        <v>1095.076</v>
+        <v>130.9196</v>
       </c>
       <c r="G176" t="n">
-        <v>-37257.16192723002</v>
+        <v>-34875.20162723002</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6552,28 +6731,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C177" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D177" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="E177" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F177" t="n">
-        <v>826.7814</v>
+        <v>144.851</v>
       </c>
       <c r="G177" t="n">
-        <v>-36430.38052723002</v>
+        <v>-35020.05262723003</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6587,28 +6767,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C178" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="D178" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E178" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="F178" t="n">
-        <v>1362.9524</v>
+        <v>1002.9669</v>
       </c>
       <c r="G178" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35020.05262723003</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6622,2264 +6803,791 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C179" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="D179" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E179" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F179" t="n">
-        <v>1865.6173</v>
+        <v>1185.4245</v>
       </c>
       <c r="G179" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35020.05262723003</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1006</v>
+      </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C180" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="D180" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E180" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F180" t="n">
-        <v>109.4928</v>
+        <v>453.1268</v>
       </c>
       <c r="G180" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35020.05262723003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C181" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="D181" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E181" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="F181" t="n">
-        <v>185</v>
+        <v>2761.4486</v>
       </c>
       <c r="G181" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35020.05262723003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="C182" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="D182" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E182" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="F182" t="n">
-        <v>195</v>
+        <v>9.8232</v>
       </c>
       <c r="G182" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35029.87582723003</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1006</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="C183" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="D183" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E183" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="F183" t="n">
-        <v>775</v>
+        <v>280.9699</v>
       </c>
       <c r="G183" t="n">
-        <v>-35067.42812723001</v>
+        <v>-35029.87582723003</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="C184" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="D184" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E184" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>10579.6226</v>
       </c>
       <c r="G184" t="n">
-        <v>-35067.42812723001</v>
+        <v>-45609.49842723003</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C185" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="D185" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E185" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="F185" t="n">
-        <v>245</v>
+        <v>1318.8919</v>
       </c>
       <c r="G185" t="n">
-        <v>-35067.42812723001</v>
+        <v>-45609.49842723003</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C186" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="D186" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E186" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="F186" t="n">
-        <v>236</v>
+        <v>489.6863</v>
       </c>
       <c r="G186" t="n">
-        <v>-35067.42812723001</v>
+        <v>-45609.49842723003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="C187" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="D187" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="E187" t="n">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="F187" t="n">
-        <v>255</v>
+        <v>0.0001</v>
       </c>
       <c r="G187" t="n">
-        <v>-35067.42812723001</v>
+        <v>-45609.49842723003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="C188" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="D188" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="E188" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="F188" t="n">
-        <v>375</v>
+        <v>562.8941</v>
       </c>
       <c r="G188" t="n">
-        <v>-35067.42812723001</v>
+        <v>-46172.39252723003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="C189" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="D189" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="E189" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="F189" t="n">
-        <v>630</v>
+        <v>440.0729</v>
       </c>
       <c r="G189" t="n">
-        <v>-35067.42812723001</v>
+        <v>-46612.46542723002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="C190" t="n">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D190" t="n">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="E190" t="n">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="F190" t="n">
-        <v>4104.1653</v>
+        <v>492.621</v>
       </c>
       <c r="G190" t="n">
-        <v>-39171.59342723001</v>
+        <v>-46119.84442723003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="C191" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="D191" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="E191" t="n">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="F191" t="n">
-        <v>64.9986</v>
+        <v>228.4011</v>
       </c>
       <c r="G191" t="n">
-        <v>-39171.59342723001</v>
+        <v>-45891.44332723002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="C192" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D192" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E192" t="n">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="F192" t="n">
-        <v>6018.7051</v>
+        <v>1439.20295345</v>
       </c>
       <c r="G192" t="n">
-        <v>-33152.88832723002</v>
+        <v>-44452.24037378002</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1007</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="C193" t="n">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="D193" t="n">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="E193" t="n">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="F193" t="n">
-        <v>1363.7311</v>
+        <v>549.482</v>
       </c>
       <c r="G193" t="n">
-        <v>-33152.88832723002</v>
+        <v>-45001.72237378002</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1020</v>
+        <v>997.6</v>
       </c>
       <c r="C194" t="n">
-        <v>1020</v>
+        <v>992.9</v>
       </c>
       <c r="D194" t="n">
-        <v>1020</v>
+        <v>997.6</v>
       </c>
       <c r="E194" t="n">
-        <v>1020</v>
+        <v>992.9</v>
       </c>
       <c r="F194" t="n">
-        <v>2345.3229</v>
+        <v>7077.9316</v>
       </c>
       <c r="G194" t="n">
-        <v>-33152.88832723002</v>
+        <v>-52079.65397378002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>998</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1020</v>
+        <v>994.1</v>
       </c>
       <c r="C195" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="D195" t="n">
-        <v>1020</v>
+        <v>994.1</v>
       </c>
       <c r="E195" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="F195" t="n">
-        <v>230</v>
+        <v>4200</v>
       </c>
       <c r="G195" t="n">
-        <v>-33152.88832723002</v>
+        <v>-47879.65397378002</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="C196" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="D196" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="E196" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="F196" t="n">
-        <v>750</v>
+        <v>544.0346</v>
       </c>
       <c r="G196" t="n">
-        <v>-33152.88832723002</v>
+        <v>-47879.65397378002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F197" t="n">
-        <v>830</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1490</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1775</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F200" t="n">
-        <v>585</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F201" t="n">
-        <v>38.401</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1020</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F202" t="n">
-        <v>58.0174</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1016</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1019</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1016</v>
-      </c>
-      <c r="F203" t="n">
-        <v>767.6346</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-33920.52292723001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1013</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1013</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1013</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1227.3991</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-35147.92202723002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1013</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1013</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1013</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1013</v>
-      </c>
-      <c r="F205" t="n">
-        <v>271.0139</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-35147.92202723002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F206" t="n">
-        <v>14.2881</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-35162.21012723001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
+      <c r="J196" t="n">
+        <v>994</v>
+      </c>
+      <c r="K196" t="n">
         <v>1006</v>
       </c>
-      <c r="C207" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F207" t="n">
-        <v>58.2329</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-35220.44302723002</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1008</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F208" t="n">
-        <v>42.0983</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1008</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1008</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F209" t="n">
-        <v>661.9388</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1008</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F210" t="n">
-        <v>29.8849</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F211" t="n">
-        <v>6.5202</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-35171.82452723002</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1010</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1010</v>
-      </c>
-      <c r="F212" t="n">
-        <v>123.7986</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-35295.62312723002</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1010</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1010</v>
-      </c>
-      <c r="F213" t="n">
-        <v>118.1311</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-35295.62312723002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1008</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F214" t="n">
-        <v>696.4432</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-35992.06632723002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F215" t="n">
-        <v>4.4057</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-35992.06632723002</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1007</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-35991.06632723002</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1010</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1010</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1115.8647</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-34875.20162723002</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="F218" t="n">
-        <v>130.9196</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-34875.20162723002</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K218" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F219" t="n">
-        <v>144.851</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-35020.05262723003</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1002.9669</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-35020.05262723003</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K220" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1185.4245</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-35020.05262723003</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K221" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F222" t="n">
-        <v>453.1268</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-35020.05262723003</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K222" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1006</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1006</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2761.4486</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-35020.05262723003</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K223" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F224" t="n">
-        <v>9.8232</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-35029.87582723003</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K224" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F225" t="n">
-        <v>280.9699</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-35029.87582723003</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K225" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1005</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F226" t="n">
-        <v>10579.6226</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K226" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1318.8919</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K227" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F228" t="n">
-        <v>489.6863</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K228" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K229" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F230" t="n">
-        <v>562.8941</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-46172.39252723003</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K230" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F231" t="n">
-        <v>440.0729</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-46612.46542723002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K231" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F232" t="n">
-        <v>492.621</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-46119.84442723003</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K232" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1007</v>
-      </c>
-      <c r="F233" t="n">
-        <v>228.4011</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-45891.44332723002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K233" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1010</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1439.20295345</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-44452.24037378002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1007</v>
-      </c>
-      <c r="K234" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C235" t="n">
-        <v>998</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E235" t="n">
-        <v>998</v>
-      </c>
-      <c r="F235" t="n">
-        <v>549.482</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-45001.72237378002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>997.6</v>
-      </c>
-      <c r="C236" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="D236" t="n">
-        <v>997.6</v>
-      </c>
-      <c r="E236" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="F236" t="n">
-        <v>7077.9316</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-52079.65397378002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>994.1</v>
-      </c>
-      <c r="C237" t="n">
-        <v>994</v>
-      </c>
-      <c r="D237" t="n">
-        <v>994.1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>994</v>
-      </c>
-      <c r="F237" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-47879.65397378002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>994</v>
-      </c>
-      <c r="C238" t="n">
-        <v>994</v>
-      </c>
-      <c r="D238" t="n">
-        <v>994</v>
-      </c>
-      <c r="E238" t="n">
-        <v>994</v>
-      </c>
-      <c r="F238" t="n">
-        <v>544.0346</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-47879.65397378002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>994</v>
-      </c>
-      <c r="K238" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N267"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-4234.2255</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-4234.2255</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="J3" t="n">
         <v>983</v>
       </c>
-      <c r="K3" t="n">
-        <v>983</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>-4234.2255</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
         <v>983</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>983</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +564,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>983</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -616,24 +601,23 @@
         <v>-3316.343800000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+        <v>984</v>
+      </c>
+      <c r="J6" t="n">
         <v>983</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,22 +644,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>983</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>983</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,22 +722,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>983</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,22 +761,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>983</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,22 +800,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>983</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,24 +837,23 @@
         <v>-2727.584000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>984.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>983</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -910,24 +878,23 @@
         <v>-2272.583900000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+        <v>986</v>
+      </c>
+      <c r="J13" t="n">
         <v>983</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -952,24 +919,23 @@
         <v>-1943.247800000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+        <v>987</v>
+      </c>
+      <c r="J14" t="n">
         <v>983</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,22 +962,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>983</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,22 +1001,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>983</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,22 +1040,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>983</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,22 +1079,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>983</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,22 +1118,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>983</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,22 +1157,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>983</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,22 +1196,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>983</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1290,22 +1235,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>983</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,22 +1274,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>983</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,22 +1313,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>983</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1416,22 +1352,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>983</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1458,22 +1391,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>983</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1500,22 +1430,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>983</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1540,24 +1467,23 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+        <v>990</v>
+      </c>
+      <c r="J28" t="n">
         <v>983</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1582,24 +1508,23 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+        <v>991</v>
+      </c>
+      <c r="J29" t="n">
         <v>983</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1624,24 +1549,23 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+        <v>991</v>
+      </c>
+      <c r="J30" t="n">
         <v>983</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1666,24 +1590,23 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+        <v>991</v>
+      </c>
+      <c r="J31" t="n">
         <v>983</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1708,24 +1631,23 @@
         <v>-5769.130999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+        <v>991</v>
+      </c>
+      <c r="J32" t="n">
         <v>983</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1750,24 +1672,23 @@
         <v>-5719.130999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+        <v>994</v>
+      </c>
+      <c r="J33" t="n">
         <v>983</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1792,24 +1713,23 @@
         <v>-5719.130999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+        <v>995</v>
+      </c>
+      <c r="J34" t="n">
         <v>983</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1834,24 +1754,23 @@
         <v>-3307.962499999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>995</v>
+      </c>
+      <c r="J35" t="n">
         <v>983</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1876,24 +1795,23 @@
         <v>-2982.139399999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+        <v>996</v>
+      </c>
+      <c r="J36" t="n">
         <v>983</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,24 +1836,23 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+        <v>997</v>
+      </c>
+      <c r="J37" t="n">
         <v>983</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1960,24 +1877,23 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+        <v>998</v>
+      </c>
+      <c r="J38" t="n">
         <v>983</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2002,24 +1918,23 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+        <v>998</v>
+      </c>
+      <c r="J39" t="n">
         <v>983</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2044,24 +1959,23 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+        <v>998</v>
+      </c>
+      <c r="J40" t="n">
         <v>983</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2086,24 +2000,23 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+        <v>999</v>
+      </c>
+      <c r="J41" t="n">
         <v>983</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2128,24 +2041,23 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+        <v>999</v>
+      </c>
+      <c r="J42" t="n">
         <v>983</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2170,24 +2082,23 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+        <v>999</v>
+      </c>
+      <c r="J43" t="n">
         <v>983</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2212,24 +2123,23 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J44" t="n">
         <v>983</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2254,24 +2164,23 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J45" t="n">
         <v>983</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,22 +2207,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>983</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2340,22 +2246,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>983</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2382,22 +2285,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>983</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2424,22 +2324,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>983</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2464,24 +2361,23 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+        <v>994.1</v>
+      </c>
+      <c r="J50" t="n">
         <v>983</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2506,24 +2402,23 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
+        <v>990.3</v>
+      </c>
+      <c r="J51" t="n">
         <v>983</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2548,24 +2443,23 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
+        <v>988.8</v>
+      </c>
+      <c r="J52" t="n">
         <v>983</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2590,24 +2484,23 @@
         <v>-1091.667499999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+        <v>988.8</v>
+      </c>
+      <c r="J53" t="n">
         <v>983</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2632,24 +2525,23 @@
         <v>-9233.6675</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
+        <v>994.8</v>
+      </c>
+      <c r="J54" t="n">
         <v>983</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2674,24 +2566,23 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+        <v>980.6</v>
+      </c>
+      <c r="J55" t="n">
         <v>983</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2716,24 +2607,23 @@
         <v>-9190.5646</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
+        <v>990</v>
+      </c>
+      <c r="J56" t="n">
         <v>983</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2758,24 +2648,23 @@
         <v>-9189.964599999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
+        <v>990</v>
+      </c>
+      <c r="J57" t="n">
         <v>983</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2800,24 +2689,23 @@
         <v>-7660.265899999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+        <v>994.8</v>
+      </c>
+      <c r="J58" t="n">
         <v>983</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2842,24 +2730,23 @@
         <v>-6680.265899999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
+        <v>995.8</v>
+      </c>
+      <c r="J59" t="n">
         <v>983</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2884,24 +2771,23 @@
         <v>-6695.1213</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
+        <v>999.2</v>
+      </c>
+      <c r="J60" t="n">
         <v>983</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2926,24 +2812,23 @@
         <v>-6845.1213</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
+        <v>991.9</v>
+      </c>
+      <c r="J61" t="n">
         <v>983</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2968,24 +2853,23 @@
         <v>-9307.4923</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
+        <v>984.3</v>
+      </c>
+      <c r="J62" t="n">
         <v>983</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3010,24 +2894,23 @@
         <v>-9263.2135</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
+        <v>971</v>
+      </c>
+      <c r="J63" t="n">
         <v>983</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3052,24 +2935,23 @@
         <v>-9263.2135</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
+        <v>985</v>
+      </c>
+      <c r="J64" t="n">
         <v>983</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3094,24 +2976,23 @@
         <v>-7213.9922</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
+        <v>985</v>
+      </c>
+      <c r="J65" t="n">
         <v>983</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3138,22 +3019,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>983</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3180,22 +3058,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>983</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3222,22 +3097,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>983</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3264,22 +3136,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>983</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3306,22 +3175,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>983</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3348,22 +3214,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>983</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3390,22 +3253,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>983</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3432,22 +3292,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>983</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3474,22 +3331,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>983</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3516,22 +3370,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>983</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3558,22 +3409,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>983</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3600,22 +3448,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>983</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3642,22 +3487,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>983</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3684,22 +3526,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
         <v>983</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3724,24 +3563,21 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
         <v>983</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1.018397761953205</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3766,24 +3602,15 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>983</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3808,24 +3635,15 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>983</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3850,24 +3668,15 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>983</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3892,24 +3701,15 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>983</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3934,24 +3734,15 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>983</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3976,24 +3767,15 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>983</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4020,22 +3802,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>983</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4062,22 +3835,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>983</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4104,22 +3868,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>983</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4146,22 +3901,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>983</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4188,22 +3934,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>983</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1.037726347914547</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4228,18 +3965,15 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4264,18 +3998,15 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4300,18 +4031,15 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4336,18 +4064,15 @@
         <v>-6808.433492569999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4372,18 +4097,15 @@
         <v>-4784.418092569998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4408,18 +4130,15 @@
         <v>-1725.395992569998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4444,18 +4163,15 @@
         <v>-1725.395992569998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4482,16 +4198,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4518,16 +4231,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4554,16 +4264,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4590,16 +4297,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4626,16 +4330,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4662,16 +4363,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4698,16 +4396,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4732,18 +4427,15 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4768,18 +4460,15 @@
         <v>-2503.881892569997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4804,18 +4493,15 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4842,16 +4528,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4878,16 +4561,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4914,16 +4594,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4950,16 +4627,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4986,16 +4660,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5020,18 +4691,15 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5056,18 +4724,15 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5092,18 +4757,15 @@
         <v>6460.043407430003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5128,18 +4790,15 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5164,18 +4823,15 @@
         <v>-3729.554992569998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5202,16 +4858,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5238,16 +4891,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5274,16 +4924,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5310,16 +4957,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5346,16 +4990,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5382,16 +5023,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5418,16 +5056,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5454,16 +5089,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5490,16 +5122,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5526,16 +5155,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5562,16 +5188,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5598,16 +5221,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5634,16 +5254,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5670,16 +5287,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5706,16 +5320,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5742,16 +5353,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5778,16 +5386,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5814,16 +5419,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5850,16 +5452,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5886,16 +5485,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5922,16 +5518,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5958,16 +5551,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5994,16 +5584,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6030,16 +5617,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6066,16 +5650,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6102,16 +5683,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6138,16 +5716,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6174,16 +5749,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6210,16 +5782,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6246,16 +5815,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6282,16 +5848,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6318,16 +5881,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6354,16 +5914,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6390,16 +5947,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6426,16 +5980,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6462,16 +6013,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6498,16 +6046,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6534,16 +6079,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6570,16 +6112,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6606,16 +6145,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6642,16 +6178,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6678,16 +6211,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6714,16 +6244,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6750,16 +6277,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6786,16 +6310,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6822,16 +6343,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6858,16 +6376,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6894,16 +6409,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6930,16 +6442,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6966,16 +6475,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7002,16 +6508,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7038,16 +6541,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7074,16 +6574,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7110,16 +6607,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7146,16 +6640,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7182,16 +6673,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7218,16 +6706,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7254,16 +6739,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7290,16 +6772,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7326,16 +6805,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7362,16 +6838,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7398,16 +6871,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7434,16 +6904,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7470,16 +6937,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7506,16 +6970,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7542,16 +7003,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7578,16 +7036,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7614,16 +7069,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7650,16 +7102,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7686,16 +7135,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7722,16 +7168,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7758,16 +7201,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7794,16 +7234,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7830,16 +7267,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7866,16 +7300,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7902,16 +7333,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7938,16 +7366,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7974,16 +7399,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8010,16 +7432,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8046,16 +7465,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8082,16 +7498,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8118,16 +7531,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8154,16 +7564,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8190,16 +7597,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8226,16 +7630,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8262,16 +7663,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8298,16 +7696,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8334,16 +7729,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8370,16 +7762,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8406,16 +7795,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8442,16 +7828,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8478,16 +7861,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8514,16 +7894,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8550,16 +7927,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8586,16 +7960,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8622,16 +7993,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8658,16 +8026,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8694,16 +8059,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8730,16 +8092,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8766,16 +8125,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8802,16 +8158,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8838,16 +8191,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8874,16 +8224,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8910,16 +8257,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8946,16 +8290,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8982,16 +8323,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9018,16 +8356,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9054,16 +8389,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9090,16 +8422,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9126,16 +8455,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9162,16 +8488,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9198,16 +8521,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9234,16 +8554,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9270,16 +8587,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9306,16 +8620,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9342,16 +8653,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9378,16 +8686,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9412,22 +8717,15 @@
         <v>-35220.44302723002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K236" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9452,26 +8750,15 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K237" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9496,26 +8783,15 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K238" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9540,26 +8816,15 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K239" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9584,26 +8849,15 @@
         <v>-35171.82452723002</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K240" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9628,26 +8882,15 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K241" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9672,26 +8915,15 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K242" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9716,26 +8948,15 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K243" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9760,26 +8981,15 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K244" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9804,26 +9014,15 @@
         <v>-35991.06632723002</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K245" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9848,26 +9047,15 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1007</v>
-      </c>
-      <c r="K246" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9892,26 +9080,15 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K247" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9936,26 +9113,15 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="n">
-        <v>1011</v>
-      </c>
-      <c r="K248" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9980,26 +9146,15 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K249" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10024,26 +9179,15 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K250" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10068,26 +9212,15 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K251" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10112,26 +9245,15 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K252" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10156,26 +9278,15 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K253" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10200,26 +9311,15 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K254" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10244,26 +9344,15 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K255" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10288,26 +9377,15 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K256" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10332,26 +9410,15 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K257" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10376,26 +9443,15 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K258" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10420,26 +9476,15 @@
         <v>-46172.39252723003</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K259" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10464,26 +9509,15 @@
         <v>-46612.46542723002</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1001</v>
-      </c>
-      <c r="K260" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10508,26 +9542,15 @@
         <v>-46119.84442723003</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K261" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10552,26 +9575,15 @@
         <v>-45891.44332723002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K262" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10596,26 +9608,15 @@
         <v>-44452.24037378002</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>1007</v>
-      </c>
-      <c r="K263" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10640,26 +9641,15 @@
         <v>-45001.72237378002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K264" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10684,26 +9674,15 @@
         <v>-52079.65397378002</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>998</v>
-      </c>
-      <c r="K265" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10728,26 +9707,15 @@
         <v>-47879.65397378002</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="K266" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10772,28 +9740,17 @@
         <v>-47879.65397378002</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>994</v>
-      </c>
-      <c r="K267" t="n">
-        <v>1011</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4234.2255</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-4234.2255</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>983</v>
-      </c>
-      <c r="J3" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-4234.2255</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>983</v>
-      </c>
-      <c r="J4" t="n">
-        <v>983</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>983</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,19 +583,11 @@
         <v>-3316.343800000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>984</v>
-      </c>
-      <c r="J6" t="n">
-        <v>983</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>983</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>983</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>983</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>983</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>983</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -837,19 +781,11 @@
         <v>-2727.584000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>984.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>983</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -878,19 +814,11 @@
         <v>-2272.583900000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>986</v>
-      </c>
-      <c r="J13" t="n">
-        <v>983</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>-1943.247800000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>987</v>
-      </c>
-      <c r="J14" t="n">
-        <v>983</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -963,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>983</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>983</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>983</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>983</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1119,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>983</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1158,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>983</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>983</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>983</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>983</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1314,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>983</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1353,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>983</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>983</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>983</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1467,19 +1309,11 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>990</v>
-      </c>
-      <c r="J28" t="n">
-        <v>983</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1508,19 +1342,11 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>991</v>
-      </c>
-      <c r="J29" t="n">
-        <v>983</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1549,19 +1375,11 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>991</v>
-      </c>
-      <c r="J30" t="n">
-        <v>983</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1590,19 +1408,11 @@
         <v>-5794.130999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>991</v>
-      </c>
-      <c r="J31" t="n">
-        <v>983</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1631,19 +1441,11 @@
         <v>-5769.130999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>991</v>
-      </c>
-      <c r="J32" t="n">
-        <v>983</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1672,19 +1474,11 @@
         <v>-5719.130999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>994</v>
-      </c>
-      <c r="J33" t="n">
-        <v>983</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1713,19 +1507,11 @@
         <v>-5719.130999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>995</v>
-      </c>
-      <c r="J34" t="n">
-        <v>983</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1754,19 +1540,11 @@
         <v>-3307.962499999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>995</v>
-      </c>
-      <c r="J35" t="n">
-        <v>983</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1795,19 +1573,11 @@
         <v>-2982.139399999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>996</v>
-      </c>
-      <c r="J36" t="n">
-        <v>983</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1606,11 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>997</v>
-      </c>
-      <c r="J37" t="n">
-        <v>983</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1877,19 +1639,11 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>998</v>
-      </c>
-      <c r="J38" t="n">
-        <v>983</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1918,19 +1672,11 @@
         <v>-2629.273799999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>998</v>
-      </c>
-      <c r="J39" t="n">
-        <v>983</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1959,19 +1705,11 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>998</v>
-      </c>
-      <c r="J40" t="n">
-        <v>983</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2000,19 +1738,11 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>983</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2041,19 +1771,11 @@
         <v>-408.0926999999992</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>983</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2082,19 +1804,11 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>983</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2123,19 +1837,11 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J44" t="n">
-        <v>983</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2164,19 +1870,11 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J45" t="n">
-        <v>983</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2208,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>983</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>983</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2286,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>983</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2325,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>983</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2361,19 +2035,11 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>994.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>983</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2402,19 +2068,11 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>990.3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>983</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2443,19 +2101,11 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>988.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>983</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2484,19 +2134,11 @@
         <v>-1091.667499999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>988.8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>983</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2525,19 +2167,11 @@
         <v>-9233.6675</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>994.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>983</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2566,19 +2200,11 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>980.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>983</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2607,19 +2233,11 @@
         <v>-9190.5646</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>990</v>
-      </c>
-      <c r="J56" t="n">
-        <v>983</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2648,19 +2266,11 @@
         <v>-9189.964599999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>990</v>
-      </c>
-      <c r="J57" t="n">
-        <v>983</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2689,19 +2299,11 @@
         <v>-7660.265899999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>994.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>983</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2730,19 +2332,11 @@
         <v>-6680.265899999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>995.8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>983</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2771,19 +2365,11 @@
         <v>-6695.1213</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>999.2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>983</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2812,19 +2398,11 @@
         <v>-6845.1213</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>991.9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>983</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2853,19 +2431,11 @@
         <v>-9307.4923</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>984.3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>983</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2894,19 +2464,11 @@
         <v>-9263.2135</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>971</v>
-      </c>
-      <c r="J63" t="n">
-        <v>983</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2935,19 +2497,11 @@
         <v>-9263.2135</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>985</v>
-      </c>
-      <c r="J64" t="n">
-        <v>983</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2976,19 +2530,11 @@
         <v>-7213.9922</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>985</v>
-      </c>
-      <c r="J65" t="n">
-        <v>983</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>983</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>983</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>983</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>983</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3176,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>983</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>983</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>983</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3293,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>983</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>983</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>983</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>983</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3449,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>983</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>983</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>983</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3563,19 +3025,13 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>983</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>1.018397761953205</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3602,7 +3058,7 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3635,7 +3091,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3668,7 +3124,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3701,7 +3157,7 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3734,7 +3190,7 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3767,7 +3223,7 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3965,7 +3421,7 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3998,7 +3454,7 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4031,7 +3487,7 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4064,7 +3520,7 @@
         <v>-6808.433492569999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4097,7 +3553,7 @@
         <v>-4784.418092569998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4130,7 +3586,7 @@
         <v>-1725.395992569998</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4163,7 +3619,7 @@
         <v>-1725.395992569998</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4328,7 +3784,7 @@
         <v>-6430.438292569997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4361,7 +3817,7 @@
         <v>-6338.205792569997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4394,7 +3850,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4427,7 +3883,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4460,7 +3916,7 @@
         <v>-2503.881892569997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4493,7 +3949,7 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4526,7 +3982,7 @@
         <v>-4278.195592569997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4559,7 +4015,7 @@
         <v>-5368.695592569997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4592,7 +4048,7 @@
         <v>9.355907430002844</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4625,7 +4081,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4658,7 +4114,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4691,7 +4147,7 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4724,7 +4180,7 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4757,7 +4213,7 @@
         <v>6460.043407430003</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4790,7 +4246,7 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4823,7 +4279,7 @@
         <v>-3729.554992569998</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5186,7 +4642,7 @@
         <v>-29537.02959257</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5219,7 +4675,7 @@
         <v>-29501.47119257</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5252,7 +4708,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5285,7 +4741,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5318,7 +4774,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5351,7 +4807,7 @@
         <v>-31184.87269257</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5384,7 +4840,7 @@
         <v>-32348.42969257</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5417,7 +4873,7 @@
         <v>-29337.92969257</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5450,7 +4906,7 @@
         <v>-35849.89669257</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5483,7 +4939,7 @@
         <v>-35596.10249257</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5516,7 +4972,7 @@
         <v>-34538.96459257</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5549,7 +5005,7 @@
         <v>-34157.68029257</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5582,7 +5038,7 @@
         <v>-34203.18029257</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5615,7 +5071,7 @@
         <v>-31007.30739257</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5648,7 +5104,7 @@
         <v>-31010.42989257001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5813,7 +5269,7 @@
         <v>-34214.58299257001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6011,7 +5467,7 @@
         <v>-31657.67209257001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -9212,10 +8668,14 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1006</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -9245,11 +8705,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9281,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1006</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9311,10 +8785,14 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1005</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -9347,8 +8825,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9380,8 +8864,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9413,8 +8903,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9446,8 +8942,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +8978,19 @@
         <v>-46172.39252723003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9509,11 +9019,19 @@
         <v>-46612.46542723002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9542,11 +9060,19 @@
         <v>-46119.84442723003</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +9101,19 @@
         <v>-45891.44332723002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +9142,19 @@
         <v>-44452.24037378002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +9183,19 @@
         <v>-45001.72237378002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9674,11 +9224,19 @@
         <v>-52079.65397378002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>998</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +9265,19 @@
         <v>-47879.65397378002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9740,17 +9306,25 @@
         <v>-47879.65397378002</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>994</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1005</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-317.9109999999993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>850.7080000000005</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>680.0383000000005</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>472.4200000000005</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1849.3007</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2050.3007</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4463.6993</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4998.6993</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3716.6993</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>4322.7344</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2640.0377</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4055.276907430001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4105.276907430001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-6430.438292569997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-6338.205792569997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4600.876392569997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2503.881892569997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4278.195592569997</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5368.695592569997</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>9.355907430002844</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-29537.02959257</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-29501.47119257</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-29338.43669257</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-31184.87269257</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-32348.42969257</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-29337.92969257</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-35849.89669257</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-35596.10249257</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-34538.96459257</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-34157.68029257</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-34203.18029257</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-31007.30739257</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-31010.42989257001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-34214.58299257001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-31657.67209257001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -8668,14 +8668,10 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8705,19 +8701,11 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1006</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +8767,10 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -8825,418 +8803,344 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1318.8919</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-45609.49842723003</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F257" t="n">
+        <v>489.6863</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-45609.49842723003</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-45609.49842723003</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>562.8941</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-46172.39252723003</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F260" t="n">
+        <v>440.0729</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-46612.46542723002</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
         <v>1005</v>
       </c>
-      <c r="K255" t="inlineStr">
+      <c r="C261" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F261" t="n">
+        <v>492.621</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-46119.84442723003</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F262" t="n">
+        <v>228.4011</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-45891.44332723002</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1439.20295345</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-44452.24037378002</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C264" t="n">
+        <v>998</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E264" t="n">
+        <v>998</v>
+      </c>
+      <c r="F264" t="n">
+        <v>549.482</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-45001.72237378002</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="C265" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>992.9</v>
+      </c>
+      <c r="F265" t="n">
+        <v>7077.9316</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-52079.65397378002</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>998</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1318.8919</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F257" t="n">
-        <v>489.6863</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="D258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="E258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="F258" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-45609.49842723003</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1001</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E259" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F259" t="n">
-        <v>562.8941</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-46172.39252723003</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J259" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D260" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E260" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F260" t="n">
-        <v>440.0729</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-46612.46542723002</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>1005</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1006</v>
-      </c>
-      <c r="D261" t="n">
-        <v>1006</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1005</v>
-      </c>
-      <c r="F261" t="n">
-        <v>492.621</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-46119.84442723003</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J261" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>1007</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1007</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E262" t="n">
-        <v>1007</v>
-      </c>
-      <c r="F262" t="n">
-        <v>228.4011</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-45891.44332723002</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>1008</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1010</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1010</v>
-      </c>
-      <c r="E263" t="n">
-        <v>1008</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1439.20295345</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-44452.24037378002</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J263" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C264" t="n">
-        <v>998</v>
-      </c>
-      <c r="D264" t="n">
-        <v>1001</v>
-      </c>
-      <c r="E264" t="n">
-        <v>998</v>
-      </c>
-      <c r="F264" t="n">
-        <v>549.482</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-45001.72237378002</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J264" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>997.6</v>
-      </c>
-      <c r="C265" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="D265" t="n">
-        <v>997.6</v>
-      </c>
-      <c r="E265" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="F265" t="n">
-        <v>7077.9316</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-52079.65397378002</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>998</v>
-      </c>
-      <c r="J265" t="n">
-        <v>1005</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9270,9 +9174,7 @@
       <c r="I266" t="n">
         <v>992.9</v>
       </c>
-      <c r="J266" t="n">
-        <v>1005</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9311,9 +9213,7 @@
       <c r="I267" t="n">
         <v>994</v>
       </c>
-      <c r="J267" t="n">
-        <v>1005</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9325,6 +9225,6 @@
       <c r="M267" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -1804,7 +1804,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-359.6500999999993</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2.134599999999296</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-317.9109999999993</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>850.7080000000005</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>680.0383000000005</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>472.4200000000005</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>395.2666000000005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1141.499899999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9190.5646</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1849.3007</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2050.3007</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4463.6993</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>4998.6993</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3716.6993</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>4322.7344</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2640.0377</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>5441.537507430001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>6106.537507430001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>6381.537507430001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>6324.137507430001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>5289.571807430001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>4020.776907430001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4055.276907430001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>4105.276907430001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>5010.276907430001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>6966.243307430002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12081.30200743</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-7066.969492569999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6003.075692569997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4278.195592569997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5368.695592569997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>9.355907430002844</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-40.64409256999716</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>851.9191074300029</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3129.433607430003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>6460.043407430003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6435.043407430003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3729.554992569998</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-22006.48889257</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-23276.47719257</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7348,10 +7348,14 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1020</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7381,11 +7385,19 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7426,19 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,10 +7467,14 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1020</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7480,11 +7504,19 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7545,19 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,10 +7586,14 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1020</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
@@ -7579,11 +7623,19 @@
         <v>-35067.42812723001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7664,19 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7705,19 @@
         <v>-39171.59342723001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1019</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7746,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1019</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7787,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7828,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7869,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7910,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7951,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7992,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8033,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8074,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8115,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8156,19 @@
         <v>-33152.88832723002</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8197,19 @@
         <v>-33920.52292723001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8238,19 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1016</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8279,19 @@
         <v>-35147.92202723002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1013</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8320,19 @@
         <v>-35162.21012723001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1013</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8361,19 @@
         <v>-35220.44302723002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8402,19 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8443,19 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8484,19 @@
         <v>-35178.34472723002</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8525,19 @@
         <v>-35171.82452723002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8566,19 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8607,19 @@
         <v>-35295.62312723002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8648,19 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8689,19 @@
         <v>-35992.06632723002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8730,19 @@
         <v>-35991.06632723002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8771,19 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8812,19 @@
         <v>-34875.20162723002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8853,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8894,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8935,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8976,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +9017,19 @@
         <v>-35020.05262723003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +9058,19 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9099,19 @@
         <v>-35029.87582723003</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9140,19 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9181,19 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9222,19 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9263,19 @@
         <v>-45609.49842723003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9304,19 @@
         <v>-46172.39252723003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9345,19 @@
         <v>-46612.46542723002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1001</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9386,19 @@
         <v>-46119.84442723003</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9427,19 @@
         <v>-45891.44332723002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1006</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9468,19 @@
         <v>-44452.24037378002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1007</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9509,19 @@
         <v>-45001.72237378002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1020</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9135,10 +9555,12 @@
       <c r="I265" t="n">
         <v>998</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1020</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9174,7 +9596,9 @@
       <c r="I266" t="n">
         <v>992.9</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1020</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,7 +9637,9 @@
       <c r="I267" t="n">
         <v>994</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1020</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-21 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-21 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>210</v>
       </c>
       <c r="G2" t="n">
-        <v>-4234.2255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>185</v>
       </c>
       <c r="G3" t="n">
-        <v>-4234.2255</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>983</v>
+      </c>
+      <c r="I3" t="n">
+        <v>983</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>198.1294</v>
       </c>
       <c r="G4" t="n">
-        <v>-4234.2255</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>983</v>
+      </c>
+      <c r="I4" t="n">
+        <v>983</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>917.8817</v>
       </c>
       <c r="G5" t="n">
-        <v>-3316.343800000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>983</v>
+      </c>
+      <c r="I5" t="n">
+        <v>983</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>32.0096</v>
       </c>
       <c r="G6" t="n">
-        <v>-3316.343800000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>984</v>
+      </c>
+      <c r="I6" t="n">
+        <v>983</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>119.5058</v>
       </c>
       <c r="G7" t="n">
-        <v>-3196.838000000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>984</v>
+      </c>
+      <c r="I7" t="n">
+        <v>983</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,23 @@
         <v>77.3777</v>
       </c>
       <c r="G8" t="n">
-        <v>-3196.838000000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>985</v>
+      </c>
+      <c r="I8" t="n">
+        <v>983</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +697,23 @@
         <v>73.0311</v>
       </c>
       <c r="G9" t="n">
-        <v>-3269.869100000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>985</v>
+      </c>
+      <c r="I9" t="n">
+        <v>983</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +735,23 @@
         <v>850.205</v>
       </c>
       <c r="G10" t="n">
-        <v>-3269.869100000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>981</v>
+      </c>
+      <c r="I10" t="n">
+        <v>983</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +773,23 @@
         <v>110</v>
       </c>
       <c r="G11" t="n">
-        <v>-3159.869100000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>981</v>
+      </c>
+      <c r="I11" t="n">
+        <v>983</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +811,23 @@
         <v>432.2851</v>
       </c>
       <c r="G12" t="n">
-        <v>-2727.584000000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>984.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>983</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +849,23 @@
         <v>455.0001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2272.583900000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>986</v>
+      </c>
+      <c r="I13" t="n">
+        <v>983</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +887,21 @@
         <v>329.3361</v>
       </c>
       <c r="G14" t="n">
-        <v>-1943.247800000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>983</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +923,21 @@
         <v>761.8002</v>
       </c>
       <c r="G15" t="n">
-        <v>-1181.4476</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>983</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +959,21 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>-1081.4476</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>983</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +995,21 @@
         <v>315.6286</v>
       </c>
       <c r="G17" t="n">
-        <v>-765.8190000000004</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>983</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1031,21 @@
         <v>574.5371</v>
       </c>
       <c r="G18" t="n">
-        <v>-191.2819000000004</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>983</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1067,23 @@
         <v>100.03</v>
       </c>
       <c r="G19" t="n">
-        <v>-191.2819000000004</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>996</v>
+      </c>
+      <c r="I19" t="n">
+        <v>983</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1105,23 @@
         <v>137.433</v>
       </c>
       <c r="G20" t="n">
-        <v>-191.2819000000004</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>996</v>
+      </c>
+      <c r="I20" t="n">
+        <v>983</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1143,21 @@
         <v>440</v>
       </c>
       <c r="G21" t="n">
-        <v>-191.2819000000004</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>983</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1179,21 @@
         <v>1284.406</v>
       </c>
       <c r="G22" t="n">
-        <v>-191.2819000000004</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>983</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1215,21 @@
         <v>2325.2207</v>
       </c>
       <c r="G23" t="n">
-        <v>-2516.5026</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>983</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1251,21 @@
         <v>1840.933</v>
       </c>
       <c r="G24" t="n">
-        <v>-2516.5026</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>983</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1287,21 @@
         <v>1946.643</v>
       </c>
       <c r="G25" t="n">
-        <v>-4463.1456</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>983</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1323,23 @@
         <v>1455.9854</v>
       </c>
       <c r="G26" t="n">
-        <v>-5919.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="I26" t="n">
+        <v>983</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1361,23 @@
         <v>938.3656999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-5919.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="I27" t="n">
+        <v>983</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1399,23 @@
         <v>125</v>
       </c>
       <c r="G28" t="n">
-        <v>-5794.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="I28" t="n">
+        <v>983</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1437,23 @@
         <v>188</v>
       </c>
       <c r="G29" t="n">
-        <v>-5794.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="I29" t="n">
+        <v>983</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1475,23 @@
         <v>25</v>
       </c>
       <c r="G30" t="n">
-        <v>-5794.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="I30" t="n">
+        <v>983</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1513,23 @@
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>-5794.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="I31" t="n">
+        <v>983</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1551,23 @@
         <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>-5769.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>991</v>
+      </c>
+      <c r="I32" t="n">
+        <v>983</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1589,21 @@
         <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>-5719.130999999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>983</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1625,23 @@
         <v>350</v>
       </c>
       <c r="G34" t="n">
-        <v>-5719.130999999999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="I34" t="n">
+        <v>983</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1663,23 @@
         <v>2411.1685</v>
       </c>
       <c r="G35" t="n">
-        <v>-3307.962499999999</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>995</v>
+      </c>
+      <c r="I35" t="n">
+        <v>983</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1701,23 @@
         <v>325.8231</v>
       </c>
       <c r="G36" t="n">
-        <v>-2982.139399999999</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>996</v>
+      </c>
+      <c r="I36" t="n">
+        <v>983</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1739,23 @@
         <v>352.8656</v>
       </c>
       <c r="G37" t="n">
-        <v>-2629.273799999999</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>997</v>
+      </c>
+      <c r="I37" t="n">
+        <v>983</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1777,23 @@
         <v>234.4328</v>
       </c>
       <c r="G38" t="n">
-        <v>-2629.273799999999</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>998</v>
+      </c>
+      <c r="I38" t="n">
+        <v>983</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1815,23 @@
         <v>29</v>
       </c>
       <c r="G39" t="n">
-        <v>-2629.273799999999</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>998</v>
+      </c>
+      <c r="I39" t="n">
+        <v>983</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1853,23 @@
         <v>2221.1811</v>
       </c>
       <c r="G40" t="n">
-        <v>-408.0926999999992</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>998</v>
+      </c>
+      <c r="I40" t="n">
+        <v>983</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1891,23 @@
         <v>71.7197</v>
       </c>
       <c r="G41" t="n">
-        <v>-408.0926999999992</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>999</v>
+      </c>
+      <c r="I41" t="n">
+        <v>983</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1929,23 @@
         <v>962.5127</v>
       </c>
       <c r="G42" t="n">
-        <v>-408.0926999999992</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>983</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1967,23 @@
         <v>48.4426</v>
       </c>
       <c r="G43" t="n">
-        <v>-359.6500999999993</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>983</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +2005,23 @@
         <v>13.0702</v>
       </c>
       <c r="G44" t="n">
-        <v>-359.6500999999993</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>1005</v>
+      </c>
+      <c r="I44" t="n">
+        <v>983</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2043,21 @@
         <v>357.5155</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.134599999999296</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>983</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2079,21 @@
         <v>315.7764</v>
       </c>
       <c r="G46" t="n">
-        <v>-317.9109999999993</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>983</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2115,21 @@
         <v>1168.619</v>
       </c>
       <c r="G47" t="n">
-        <v>850.7080000000005</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>983</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2151,21 @@
         <v>170.6697</v>
       </c>
       <c r="G48" t="n">
-        <v>680.0383000000005</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>983</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2187,21 @@
         <v>207.6183</v>
       </c>
       <c r="G49" t="n">
-        <v>472.4200000000005</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>983</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2223,23 @@
         <v>77.1534</v>
       </c>
       <c r="G50" t="n">
-        <v>395.2666000000005</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>994.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>983</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2261,23 @@
         <v>1536.7665</v>
       </c>
       <c r="G51" t="n">
-        <v>-1141.499899999999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>990.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>983</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2299,23 @@
         <v>1554.9638</v>
       </c>
       <c r="G52" t="n">
-        <v>-1141.499899999999</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>988.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>983</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2337,23 @@
         <v>49.8324</v>
       </c>
       <c r="G53" t="n">
-        <v>-1091.667499999999</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>988.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>983</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2375,23 @@
         <v>8142</v>
       </c>
       <c r="G54" t="n">
-        <v>-9233.6675</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>994.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>983</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2413,23 @@
         <v>43.1029</v>
       </c>
       <c r="G55" t="n">
-        <v>-9190.5646</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>980.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>983</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2451,23 @@
         <v>35.9</v>
       </c>
       <c r="G56" t="n">
-        <v>-9190.5646</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="I56" t="n">
+        <v>983</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2489,23 @@
         <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>-9189.964599999999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>990</v>
+      </c>
+      <c r="I57" t="n">
+        <v>983</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2527,21 @@
         <v>1529.6987</v>
       </c>
       <c r="G58" t="n">
-        <v>-7660.265899999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>983</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2563,23 @@
         <v>980</v>
       </c>
       <c r="G59" t="n">
-        <v>-6680.265899999999</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>995.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>983</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2601,21 @@
         <v>14.8554</v>
       </c>
       <c r="G60" t="n">
-        <v>-6695.1213</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>983</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2637,21 @@
         <v>150</v>
       </c>
       <c r="G61" t="n">
-        <v>-6845.1213</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>983</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2673,23 @@
         <v>2462.371</v>
       </c>
       <c r="G62" t="n">
-        <v>-9307.4923</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>984.3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>983</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2711,23 @@
         <v>44.2788</v>
       </c>
       <c r="G63" t="n">
-        <v>-9263.2135</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>971</v>
+      </c>
+      <c r="I63" t="n">
+        <v>983</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2749,23 @@
         <v>205</v>
       </c>
       <c r="G64" t="n">
-        <v>-9263.2135</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>985</v>
+      </c>
+      <c r="I64" t="n">
+        <v>983</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2787,23 @@
         <v>2049.2213</v>
       </c>
       <c r="G65" t="n">
-        <v>-7213.9922</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>985</v>
+      </c>
+      <c r="I65" t="n">
+        <v>983</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2825,21 @@
         <v>4570</v>
       </c>
       <c r="G66" t="n">
-        <v>-7213.9922</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>983</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2861,21 @@
         <v>2355</v>
       </c>
       <c r="G67" t="n">
-        <v>-4858.9922</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>983</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2897,21 @@
         <v>1475.9563</v>
       </c>
       <c r="G68" t="n">
-        <v>-3383.0359</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>983</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2933,21 @@
         <v>541</v>
       </c>
       <c r="G69" t="n">
-        <v>-2842.0359</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>983</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2969,21 @@
         <v>1172.4495</v>
       </c>
       <c r="G70" t="n">
-        <v>-1669.5864</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>983</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +3005,21 @@
         <v>1040</v>
       </c>
       <c r="G71" t="n">
-        <v>-629.5863999999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>983</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +3041,21 @@
         <v>2578.8871</v>
       </c>
       <c r="G72" t="n">
-        <v>1949.3007</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>983</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3077,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>1849.3007</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>983</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3113,21 @@
         <v>201</v>
       </c>
       <c r="G74" t="n">
-        <v>2050.3007</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>983</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3149,21 @@
         <v>2413.3986</v>
       </c>
       <c r="G75" t="n">
-        <v>4463.6993</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>983</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3185,21 @@
         <v>535</v>
       </c>
       <c r="G76" t="n">
-        <v>4998.6993</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>983</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3221,21 @@
         <v>1282</v>
       </c>
       <c r="G77" t="n">
-        <v>3716.6993</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>983</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3257,21 @@
         <v>606.0351000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>4322.7344</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>983</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3293,21 @@
         <v>1682.6967</v>
       </c>
       <c r="G79" t="n">
-        <v>2640.0377</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>983</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3329,21 @@
         <v>2801.49980743</v>
       </c>
       <c r="G80" t="n">
-        <v>5441.537507430001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>983</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3365,21 @@
         <v>665</v>
       </c>
       <c r="G81" t="n">
-        <v>6106.537507430001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>983</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3401,21 @@
         <v>275</v>
       </c>
       <c r="G82" t="n">
-        <v>6381.537507430001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>983</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3437,21 @@
         <v>1163.55707317</v>
       </c>
       <c r="G83" t="n">
-        <v>6381.537507430001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>983</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3473,21 @@
         <v>57.4</v>
       </c>
       <c r="G84" t="n">
-        <v>6324.137507430001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>983</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3509,21 @@
         <v>1034.5657</v>
       </c>
       <c r="G85" t="n">
-        <v>5289.571807430001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>983</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3545,21 @@
         <v>1268.7949</v>
       </c>
       <c r="G86" t="n">
-        <v>4020.776907430001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>983</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3581,21 @@
         <v>34.5</v>
       </c>
       <c r="G87" t="n">
-        <v>4055.276907430001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>983</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3617,21 @@
         <v>50</v>
       </c>
       <c r="G88" t="n">
-        <v>4105.276907430001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>983</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3653,21 @@
         <v>905</v>
       </c>
       <c r="G89" t="n">
-        <v>5010.276907430001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>983</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3689,21 @@
         <v>97.1665</v>
       </c>
       <c r="G90" t="n">
-        <v>5010.276907430001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>983</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3725,21 @@
         <v>1283.75242683</v>
       </c>
       <c r="G91" t="n">
-        <v>5010.276907430001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>983</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3761,21 @@
         <v>1955.9664</v>
       </c>
       <c r="G92" t="n">
-        <v>6966.243307430002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>983</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3797,21 @@
         <v>5115.0587</v>
       </c>
       <c r="G93" t="n">
-        <v>12081.30200743</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>983</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3833,21 @@
         <v>19148.2715</v>
       </c>
       <c r="G94" t="n">
-        <v>-7066.969492569999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>983</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3869,21 @@
         <v>258.536</v>
       </c>
       <c r="G95" t="n">
-        <v>-6808.433492569999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>983</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3905,21 @@
         <v>2024.0154</v>
       </c>
       <c r="G96" t="n">
-        <v>-4784.418092569998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>983</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3941,21 @@
         <v>3059.0221</v>
       </c>
       <c r="G97" t="n">
-        <v>-1725.395992569998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>983</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3977,21 @@
         <v>2939.2952</v>
       </c>
       <c r="G98" t="n">
-        <v>-1725.395992569998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>983</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +4013,21 @@
         <v>394.1924</v>
       </c>
       <c r="G99" t="n">
-        <v>-2119.588392569998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>983</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +4049,21 @@
         <v>4575.6693</v>
       </c>
       <c r="G100" t="n">
-        <v>-6695.257692569998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>983</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4085,21 @@
         <v>3.4648</v>
       </c>
       <c r="G101" t="n">
-        <v>-6698.722492569997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>983</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4121,21 @@
         <v>1233.4562</v>
       </c>
       <c r="G102" t="n">
-        <v>-5465.266292569997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>983</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4157,21 @@
         <v>965.172</v>
       </c>
       <c r="G103" t="n">
-        <v>-6430.438292569997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>983</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4193,21 @@
         <v>92.2325</v>
       </c>
       <c r="G104" t="n">
-        <v>-6338.205792569997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>983</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4229,21 @@
         <v>1737.3294</v>
       </c>
       <c r="G105" t="n">
-        <v>-4600.876392569997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>983</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4265,21 @@
         <v>20.0669</v>
       </c>
       <c r="G106" t="n">
-        <v>-4600.876392569997</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>983</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4301,21 @@
         <v>2096.9945</v>
       </c>
       <c r="G107" t="n">
-        <v>-2503.881892569997</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>983</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4337,23 @@
         <v>3499.1938</v>
       </c>
       <c r="G108" t="n">
-        <v>-6003.075692569997</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>983</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1.050951169888098</v>
+      </c>
       <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>1.0010183299389</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4375,15 @@
         <v>1724.8801</v>
       </c>
       <c r="G109" t="n">
-        <v>-4278.195592569997</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4405,15 @@
         <v>1090.5</v>
       </c>
       <c r="G110" t="n">
-        <v>-5368.695592569997</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4435,15 @@
         <v>5378.0515</v>
       </c>
       <c r="G111" t="n">
-        <v>9.355907430002844</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4465,15 @@
         <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>-40.64409256999716</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4495,15 @@
         <v>119.2543</v>
       </c>
       <c r="G113" t="n">
-        <v>-40.64409256999716</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4525,15 @@
         <v>892.5632000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>851.9191074300029</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4555,15 @@
         <v>2277.5145</v>
       </c>
       <c r="G115" t="n">
-        <v>3129.433607430003</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4585,15 @@
         <v>3330.6098</v>
       </c>
       <c r="G116" t="n">
-        <v>6460.043407430003</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4615,15 @@
         <v>25</v>
       </c>
       <c r="G117" t="n">
-        <v>6435.043407430003</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4645,15 @@
         <v>10164.5984</v>
       </c>
       <c r="G118" t="n">
-        <v>-3729.554992569998</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4675,15 @@
         <v>18276.9339</v>
       </c>
       <c r="G119" t="n">
-        <v>-22006.48889257</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4705,15 @@
         <v>1269.9883</v>
       </c>
       <c r="G120" t="n">
-        <v>-23276.47719257</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4735,15 @@
         <v>90.65219999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-23276.47719257</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4765,15 @@
         <v>507.5019</v>
       </c>
       <c r="G122" t="n">
-        <v>-23276.47719257</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4795,15 @@
         <v>732.9083000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-23276.47719257</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4825,15 @@
         <v>263.1516</v>
       </c>
       <c r="G124" t="n">
-        <v>-23013.32559257</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4855,15 @@
         <v>2395</v>
       </c>
       <c r="G125" t="n">
-        <v>-25408.32559257</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4885,15 @@
         <v>170.3627</v>
       </c>
       <c r="G126" t="n">
-        <v>-25578.68829257</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4915,15 @@
         <v>3187.4814</v>
       </c>
       <c r="G127" t="n">
-        <v>-28766.16969257</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4945,15 @@
         <v>770.8599</v>
       </c>
       <c r="G128" t="n">
-        <v>-29537.02959257</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4975,15 @@
         <v>3012.1444</v>
       </c>
       <c r="G129" t="n">
-        <v>-29537.02959257</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +5005,15 @@
         <v>35.5584</v>
       </c>
       <c r="G130" t="n">
-        <v>-29501.47119257</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +5035,15 @@
         <v>163.0345</v>
       </c>
       <c r="G131" t="n">
-        <v>-29338.43669257</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +5065,15 @@
         <v>210.2234</v>
       </c>
       <c r="G132" t="n">
-        <v>-29338.43669257</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +5095,15 @@
         <v>2689.6716</v>
       </c>
       <c r="G133" t="n">
-        <v>-29338.43669257</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5125,15 @@
         <v>1846.436</v>
       </c>
       <c r="G134" t="n">
-        <v>-31184.87269257</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5155,15 @@
         <v>1163.557</v>
       </c>
       <c r="G135" t="n">
-        <v>-32348.42969257</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5185,15 @@
         <v>3010.5</v>
       </c>
       <c r="G136" t="n">
-        <v>-29337.92969257</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5215,15 @@
         <v>6511.967</v>
       </c>
       <c r="G137" t="n">
-        <v>-35849.89669257</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5245,15 @@
         <v>253.7942</v>
       </c>
       <c r="G138" t="n">
-        <v>-35596.10249257</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5275,15 @@
         <v>1057.1379</v>
       </c>
       <c r="G139" t="n">
-        <v>-34538.96459257</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5305,15 @@
         <v>381.2843</v>
       </c>
       <c r="G140" t="n">
-        <v>-34157.68029257</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5335,15 @@
         <v>45.5</v>
       </c>
       <c r="G141" t="n">
-        <v>-34203.18029257</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5365,15 @@
         <v>3195.8729</v>
       </c>
       <c r="G142" t="n">
-        <v>-31007.30739257</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5395,15 @@
         <v>3.1225</v>
       </c>
       <c r="G143" t="n">
-        <v>-31010.42989257001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5425,15 @@
         <v>1573.3841</v>
       </c>
       <c r="G144" t="n">
-        <v>-32583.81399257001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5455,15 @@
         <v>860</v>
       </c>
       <c r="G145" t="n">
-        <v>-31723.81399257001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5485,15 @@
         <v>3500</v>
       </c>
       <c r="G146" t="n">
-        <v>-28223.81399257001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5515,15 @@
         <v>1695</v>
       </c>
       <c r="G147" t="n">
-        <v>-29918.81399257001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5545,15 @@
         <v>4295.769</v>
       </c>
       <c r="G148" t="n">
-        <v>-34214.58299257001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5575,15 @@
         <v>1159.1542</v>
       </c>
       <c r="G149" t="n">
-        <v>-33055.42879257001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5605,15 @@
         <v>2681.7969</v>
       </c>
       <c r="G150" t="n">
-        <v>-30373.63189257001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5635,15 @@
         <v>2925.0743</v>
       </c>
       <c r="G151" t="n">
-        <v>-33298.70619257001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5665,15 @@
         <v>1834.6999</v>
       </c>
       <c r="G152" t="n">
-        <v>-31464.00629257001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5695,15 @@
         <v>179.1963</v>
       </c>
       <c r="G153" t="n">
-        <v>-31643.20259257001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5725,15 @@
         <v>14.4695</v>
       </c>
       <c r="G154" t="n">
-        <v>-31657.67209257001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5755,15 @@
         <v>210</v>
       </c>
       <c r="G155" t="n">
-        <v>-31867.67209257001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5785,15 @@
         <v>4554.7632</v>
       </c>
       <c r="G156" t="n">
-        <v>-36422.43529257001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5815,15 @@
         <v>293.3841</v>
       </c>
       <c r="G157" t="n">
-        <v>-36715.81939257001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5845,15 @@
         <v>188.5549</v>
       </c>
       <c r="G158" t="n">
-        <v>-36527.26449257001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5875,15 @@
         <v>97.05346534</v>
       </c>
       <c r="G159" t="n">
-        <v>-36430.21102723001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5905,15 @@
         <v>1.6</v>
       </c>
       <c r="G160" t="n">
-        <v>-36431.81102723</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5935,15 @@
         <v>5152.5455</v>
       </c>
       <c r="G161" t="n">
-        <v>-31279.26552723</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5965,15 @@
         <v>1200</v>
       </c>
       <c r="G162" t="n">
-        <v>-31279.26552723</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5995,15 @@
         <v>3260.134</v>
       </c>
       <c r="G163" t="n">
-        <v>-31279.26552723</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +6025,15 @@
         <v>8684.8282</v>
       </c>
       <c r="G164" t="n">
-        <v>-31279.26552723</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +6055,15 @@
         <v>1194.2687</v>
       </c>
       <c r="G165" t="n">
-        <v>-31279.26552723</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +6085,15 @@
         <v>2929.4322</v>
       </c>
       <c r="G166" t="n">
-        <v>-34208.69772723001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6115,15 @@
         <v>418.8232</v>
       </c>
       <c r="G167" t="n">
-        <v>-33789.87452723001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6145,15 @@
         <v>234.9437</v>
       </c>
       <c r="G168" t="n">
-        <v>-34024.81822723001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6175,15 @@
         <v>925.8382</v>
       </c>
       <c r="G169" t="n">
-        <v>-33098.98002723001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6205,15 @@
         <v>1913.4057</v>
       </c>
       <c r="G170" t="n">
-        <v>-31185.57432723001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6235,15 @@
         <v>19</v>
       </c>
       <c r="G171" t="n">
-        <v>-31185.57432723001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6265,15 @@
         <v>92</v>
       </c>
       <c r="G172" t="n">
-        <v>-31277.57432723001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6295,15 @@
         <v>305.2075</v>
       </c>
       <c r="G173" t="n">
-        <v>-30972.36682723001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6325,15 @@
         <v>230.029</v>
       </c>
       <c r="G174" t="n">
-        <v>-30972.36682723001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6355,15 @@
         <v>540.1683</v>
       </c>
       <c r="G175" t="n">
-        <v>-31512.53512723001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6385,15 @@
         <v>759.4853000000001</v>
       </c>
       <c r="G176" t="n">
-        <v>-31512.53512723001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6415,15 @@
         <v>237.6739</v>
       </c>
       <c r="G177" t="n">
-        <v>-31274.86122723001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6445,15 @@
         <v>124.6357</v>
       </c>
       <c r="G178" t="n">
-        <v>-31150.22552723001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6475,15 @@
         <v>586.4131</v>
       </c>
       <c r="G179" t="n">
-        <v>-31736.63862723002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6505,15 @@
         <v>666.72</v>
       </c>
       <c r="G180" t="n">
-        <v>-31069.91862723001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6535,15 @@
         <v>738.6816</v>
       </c>
       <c r="G181" t="n">
-        <v>-31069.91862723001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6565,15 @@
         <v>102.5097</v>
       </c>
       <c r="G182" t="n">
-        <v>-30967.40892723002</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6595,15 @@
         <v>641.9471</v>
       </c>
       <c r="G183" t="n">
-        <v>-30967.40892723002</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6625,15 @@
         <v>341.575</v>
       </c>
       <c r="G184" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6655,15 @@
         <v>335.266</v>
       </c>
       <c r="G185" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6685,15 @@
         <v>0.0001</v>
       </c>
       <c r="G186" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6715,15 @@
         <v>4278.148</v>
       </c>
       <c r="G187" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6745,15 @@
         <v>663.962</v>
       </c>
       <c r="G188" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6775,15 @@
         <v>162.3119</v>
       </c>
       <c r="G189" t="n">
-        <v>-30625.83392723001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6805,15 @@
         <v>83.2248</v>
       </c>
       <c r="G190" t="n">
-        <v>-30542.60912723001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6835,15 @@
         <v>640.1943</v>
       </c>
       <c r="G191" t="n">
-        <v>-30542.60912723001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6865,15 @@
         <v>210.8896</v>
       </c>
       <c r="G192" t="n">
-        <v>-30542.60912723001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6895,15 @@
         <v>5</v>
       </c>
       <c r="G193" t="n">
-        <v>-30547.60912723001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6925,15 @@
         <v>4294.991</v>
       </c>
       <c r="G194" t="n">
-        <v>-34842.60012723001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6955,15 @@
         <v>504.342</v>
       </c>
       <c r="G195" t="n">
-        <v>-34338.25812723002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6985,15 @@
         <v>242.3802</v>
       </c>
       <c r="G196" t="n">
-        <v>-34095.87792723002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +7015,15 @@
         <v>124.4242</v>
       </c>
       <c r="G197" t="n">
-        <v>-34220.30212723002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +7045,15 @@
         <v>912.2861</v>
       </c>
       <c r="G198" t="n">
-        <v>-34220.30212723002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +7075,15 @@
         <v>62.3887</v>
       </c>
       <c r="G199" t="n">
-        <v>-34157.91342723001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7105,15 @@
         <v>97.20910000000001</v>
       </c>
       <c r="G200" t="n">
-        <v>-34157.91342723001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7135,15 @@
         <v>86.1855</v>
       </c>
       <c r="G201" t="n">
-        <v>-34157.91342723001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7165,15 @@
         <v>359.0466</v>
       </c>
       <c r="G202" t="n">
-        <v>-34157.91342723001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7195,15 @@
         <v>2011.1725</v>
       </c>
       <c r="G203" t="n">
-        <v>-36169.08592723001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7225,15 @@
         <v>7</v>
       </c>
       <c r="G204" t="n">
-        <v>-36162.08592723001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7255,15 @@
         <v>1095.076</v>
       </c>
       <c r="G205" t="n">
-        <v>-37257.16192723002</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7285,15 @@
         <v>826.7814</v>
       </c>
       <c r="G206" t="n">
-        <v>-36430.38052723002</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7315,15 @@
         <v>1362.9524</v>
       </c>
       <c r="G207" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7345,15 @@
         <v>1865.6173</v>
       </c>
       <c r="G208" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7375,15 @@
         <v>109.4928</v>
       </c>
       <c r="G209" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7405,15 @@
         <v>185</v>
       </c>
       <c r="G210" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,22 +7435,15 @@
         <v>195</v>
       </c>
       <c r="G211" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7382,26 +7465,15 @@
         <v>775</v>
       </c>
       <c r="G212" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J212" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7423,26 +7495,15 @@
         <v>200</v>
       </c>
       <c r="G213" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J213" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7464,22 +7525,15 @@
         <v>245</v>
       </c>
       <c r="G214" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J214" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7501,26 +7555,15 @@
         <v>236</v>
       </c>
       <c r="G215" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J215" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7542,26 +7585,15 @@
         <v>255</v>
       </c>
       <c r="G216" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J216" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7583,22 +7615,15 @@
         <v>375</v>
       </c>
       <c r="G217" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J217" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7620,26 +7645,15 @@
         <v>630</v>
       </c>
       <c r="G218" t="n">
-        <v>-35067.42812723001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J218" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7661,26 +7675,15 @@
         <v>4104.1653</v>
       </c>
       <c r="G219" t="n">
-        <v>-39171.59342723001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7702,26 +7705,15 @@
         <v>64.9986</v>
       </c>
       <c r="G220" t="n">
-        <v>-39171.59342723001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1019</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7743,26 +7735,15 @@
         <v>6018.7051</v>
       </c>
       <c r="G221" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1019</v>
-      </c>
-      <c r="J221" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7784,26 +7765,15 @@
         <v>1363.7311</v>
       </c>
       <c r="G222" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7825,26 +7795,15 @@
         <v>2345.3229</v>
       </c>
       <c r="G223" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7866,26 +7825,15 @@
         <v>230</v>
       </c>
       <c r="G224" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7907,26 +7855,15 @@
         <v>750</v>
       </c>
       <c r="G225" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7948,26 +7885,15 @@
         <v>830</v>
       </c>
       <c r="G226" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7989,26 +7915,15 @@
         <v>1490</v>
       </c>
       <c r="G227" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J227" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8030,26 +7945,15 @@
         <v>1775</v>
       </c>
       <c r="G228" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8071,26 +7975,15 @@
         <v>585</v>
       </c>
       <c r="G229" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8112,26 +8005,15 @@
         <v>38.401</v>
       </c>
       <c r="G230" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8153,26 +8035,15 @@
         <v>58.0174</v>
       </c>
       <c r="G231" t="n">
-        <v>-33152.88832723002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8194,26 +8065,15 @@
         <v>767.6346</v>
       </c>
       <c r="G232" t="n">
-        <v>-33920.52292723001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J232" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8235,26 +8095,15 @@
         <v>1227.3991</v>
       </c>
       <c r="G233" t="n">
-        <v>-35147.92202723002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1016</v>
-      </c>
-      <c r="J233" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8276,26 +8125,15 @@
         <v>271.0139</v>
       </c>
       <c r="G234" t="n">
-        <v>-35147.92202723002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1013</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8317,26 +8155,15 @@
         <v>14.2881</v>
       </c>
       <c r="G235" t="n">
-        <v>-35162.21012723001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1013</v>
-      </c>
-      <c r="J235" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8358,26 +8185,15 @@
         <v>58.2329</v>
       </c>
       <c r="G236" t="n">
-        <v>-35220.44302723002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8399,26 +8215,15 @@
         <v>42.0983</v>
       </c>
       <c r="G237" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J237" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8440,26 +8245,15 @@
         <v>661.9388</v>
       </c>
       <c r="G238" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8481,26 +8275,15 @@
         <v>29.8849</v>
       </c>
       <c r="G239" t="n">
-        <v>-35178.34472723002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J239" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8522,26 +8305,15 @@
         <v>6.5202</v>
       </c>
       <c r="G240" t="n">
-        <v>-35171.82452723002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1008</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8563,26 +8335,15 @@
         <v>123.7986</v>
       </c>
       <c r="G241" t="n">
-        <v>-35295.62312723002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1011</v>
-      </c>
-      <c r="J241" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8604,26 +8365,15 @@
         <v>118.1311</v>
       </c>
       <c r="G242" t="n">
-        <v>-35295.62312723002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J242" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8645,26 +8395,15 @@
         <v>696.4432</v>
       </c>
       <c r="G243" t="n">
-        <v>-35992.06632723002</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8686,26 +8425,19 @@
         <v>4.4057</v>
       </c>
       <c r="G244" t="n">
-        <v>-35992.06632723002</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I244" t="n">
         <v>1006</v>
       </c>
-      <c r="J244" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8727,26 +8459,23 @@
         <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>-35991.06632723002</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I245" t="n">
         <v>1006</v>
       </c>
-      <c r="J245" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8768,26 +8497,23 @@
         <v>1115.8647</v>
       </c>
       <c r="G246" t="n">
-        <v>-34875.20162723002</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>1007</v>
       </c>
       <c r="I246" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>1006</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8809,26 +8535,19 @@
         <v>130.9196</v>
       </c>
       <c r="G247" t="n">
-        <v>-34875.20162723002</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="I247" t="n">
         <v>1011</v>
       </c>
-      <c r="J247" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8850,26 +8569,23 @@
         <v>144.851</v>
       </c>
       <c r="G248" t="n">
-        <v>-35020.05262723003</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>1011</v>
       </c>
       <c r="I248" t="n">
         <v>1011</v>
       </c>
-      <c r="J248" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8891,26 +8607,23 @@
         <v>1002.9669</v>
       </c>
       <c r="G249" t="n">
-        <v>-35020.05262723003</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I249" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8932,26 +8645,23 @@
         <v>1185.4245</v>
       </c>
       <c r="G250" t="n">
-        <v>-35020.05262723003</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I250" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8973,26 +8683,23 @@
         <v>453.1268</v>
       </c>
       <c r="G251" t="n">
-        <v>-35020.05262723003</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I251" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9014,26 +8721,23 @@
         <v>2761.4486</v>
       </c>
       <c r="G252" t="n">
-        <v>-35020.05262723003</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I252" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9055,26 +8759,23 @@
         <v>9.8232</v>
       </c>
       <c r="G253" t="n">
-        <v>-35029.87582723003</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I253" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9096,26 +8797,23 @@
         <v>280.9699</v>
       </c>
       <c r="G254" t="n">
-        <v>-35029.87582723003</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="I254" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9137,26 +8835,23 @@
         <v>10579.6226</v>
       </c>
       <c r="G255" t="n">
-        <v>-45609.49842723003</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="I255" t="n">
-        <v>1005</v>
-      </c>
-      <c r="J255" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9178,26 +8873,23 @@
         <v>1318.8919</v>
       </c>
       <c r="G256" t="n">
-        <v>-45609.49842723003</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="I256" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9219,26 +8911,23 @@
         <v>489.6863</v>
       </c>
       <c r="G257" t="n">
-        <v>-45609.49842723003</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="I257" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J257" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9260,26 +8949,23 @@
         <v>0.0001</v>
       </c>
       <c r="G258" t="n">
-        <v>-45609.49842723003</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="I258" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9301,26 +8987,23 @@
         <v>562.8941</v>
       </c>
       <c r="G259" t="n">
-        <v>-46172.39252723003</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="I259" t="n">
-        <v>1003</v>
-      </c>
-      <c r="J259" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9342,26 +9025,23 @@
         <v>440.0729</v>
       </c>
       <c r="G260" t="n">
-        <v>-46612.46542723002</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="I260" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9383,26 +9063,23 @@
         <v>492.621</v>
       </c>
       <c r="G261" t="n">
-        <v>-46119.84442723003</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I261" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J261" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9424,26 +9101,23 @@
         <v>228.4011</v>
       </c>
       <c r="G262" t="n">
-        <v>-45891.44332723002</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>1006</v>
       </c>
       <c r="I262" t="n">
-        <v>1006</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9465,26 +9139,23 @@
         <v>1439.20295345</v>
       </c>
       <c r="G263" t="n">
-        <v>-44452.24037378002</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>1007</v>
       </c>
       <c r="I263" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J263" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9506,26 +9177,23 @@
         <v>549.482</v>
       </c>
       <c r="G264" t="n">
-        <v>-45001.72237378002</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="I264" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J264" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9547,26 +9215,23 @@
         <v>7077.9316</v>
       </c>
       <c r="G265" t="n">
-        <v>-52079.65397378002</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>998</v>
       </c>
       <c r="I265" t="n">
-        <v>998</v>
-      </c>
-      <c r="J265" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9588,26 +9253,23 @@
         <v>4200</v>
       </c>
       <c r="G266" t="n">
-        <v>-47879.65397378002</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>992.9</v>
       </c>
       <c r="I266" t="n">
-        <v>992.9</v>
-      </c>
-      <c r="J266" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9629,26 +9291,23 @@
         <v>544.0346</v>
       </c>
       <c r="G267" t="n">
-        <v>-47879.65397378002</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>994</v>
       </c>
       <c r="I267" t="n">
-        <v>994</v>
-      </c>
-      <c r="J267" t="n">
-        <v>1020</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>1011</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
